--- a/public/output/personel-31/پرسنل31_اردیبهشت_1400.xlsx
+++ b/public/output/personel-31/پرسنل31_اردیبهشت_1400.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="501" uniqueCount="501">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="520" uniqueCount="520">
   <si>
     <t>ردیف</t>
   </si>
@@ -56,6 +56,15 @@
     <t>وضعیت</t>
   </si>
   <si>
+    <t>اضافه کاری</t>
+  </si>
+  <si>
+    <t>تاخیر در ورود</t>
+  </si>
+  <si>
+    <t>غیبت ساعتی</t>
+  </si>
+  <si>
     <t>1</t>
   </si>
   <si>
@@ -131,6 +140,9 @@
     <t>غیبت (ساعتی)</t>
   </si>
   <si>
+    <t>2:5:36</t>
+  </si>
+  <si>
     <t>پنج شنبه</t>
   </si>
   <si>
@@ -140,6 +152,9 @@
     <t>0:0:0</t>
   </si>
   <si>
+    <t>7:30:0</t>
+  </si>
+  <si>
     <t>جمعه</t>
   </si>
   <si>
@@ -242,6 +257,9 @@
     <t>شنبه</t>
   </si>
   <si>
+    <t>حضور</t>
+  </si>
+  <si>
     <t>13</t>
   </si>
   <si>
@@ -350,6 +368,9 @@
     <t>یکشنبه</t>
   </si>
   <si>
+    <t>1:7:28</t>
+  </si>
+  <si>
     <t>21</t>
   </si>
   <si>
@@ -434,7 +455,7 @@
     <t>دوشنبه</t>
   </si>
   <si>
-    <t>حضور</t>
+    <t>0:42:22</t>
   </si>
   <si>
     <t>سه شنبه</t>
@@ -548,6 +569,9 @@
     <t>9:41:34</t>
   </si>
   <si>
+    <t>0:56:39</t>
+  </si>
+  <si>
     <t>1400/2/9</t>
   </si>
   <si>
@@ -656,6 +680,9 @@
     <t>9:3:52</t>
   </si>
   <si>
+    <t>0:47:40</t>
+  </si>
+  <si>
     <t>43</t>
   </si>
   <si>
@@ -737,6 +764,9 @@
     <t>غیبت (تاخیر در ورود)</t>
   </si>
   <si>
+    <t>1:9:52</t>
+  </si>
+  <si>
     <t>49</t>
   </si>
   <si>
@@ -854,6 +884,9 @@
     <t>12:26:6</t>
   </si>
   <si>
+    <t>2:30:12</t>
+  </si>
+  <si>
     <t>1400/2/14</t>
   </si>
   <si>
@@ -971,6 +1004,9 @@
     <t>9:24:39</t>
   </si>
   <si>
+    <t>0:17:48</t>
+  </si>
+  <si>
     <t>66</t>
   </si>
   <si>
@@ -1037,6 +1073,9 @@
     <t>7:23:8</t>
   </si>
   <si>
+    <t>1:9:20</t>
+  </si>
+  <si>
     <t>71</t>
   </si>
   <si>
@@ -1118,6 +1157,9 @@
     <t>8:58:19</t>
   </si>
   <si>
+    <t>1:25:56</t>
+  </si>
+  <si>
     <t>1400/2/21</t>
   </si>
   <si>
@@ -1220,6 +1262,9 @@
     <t>10:20:2</t>
   </si>
   <si>
+    <t>1:3:12</t>
+  </si>
+  <si>
     <t>1400/2/23</t>
   </si>
   <si>
@@ -1295,6 +1340,9 @@
     <t>9:48:9</t>
   </si>
   <si>
+    <t>0:18:24</t>
+  </si>
+  <si>
     <t>90</t>
   </si>
   <si>
@@ -1373,6 +1421,9 @@
     <t>6:6:39</t>
   </si>
   <si>
+    <t>3:15:14</t>
+  </si>
+  <si>
     <t>96</t>
   </si>
   <si>
@@ -1448,6 +1499,9 @@
     <t>10:5:17</t>
   </si>
   <si>
+    <t>0:17:27</t>
+  </si>
+  <si>
     <t>1400/2/28</t>
   </si>
   <si>
@@ -1506,6 +1560,9 @@
   </si>
   <si>
     <t>8:23:52</t>
+  </si>
+  <si>
+    <t>0:52:7</t>
   </si>
   <si>
     <t>1400/2/30</t>
@@ -1639,2516 +1696,2516 @@
     </row>
     <row r="2" spans="1:10">
       <c r="A2" s="5" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="B2" s="5" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="C2" s="5" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="D2" s="5" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="E2" s="5" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="F2" s="5" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="J2" s="4" t="s">
-        <v>500</v>
+        <v>519</v>
       </c>
     </row>
     <row r="3" spans="1:7">
       <c r="A3" s="5" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="B3" s="5" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="C3" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="D3" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="E3" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="F3" s="5" t="s">
         <v>21</v>
       </c>
-      <c r="D3" s="5" t="s">
-        <v>22</v>
-      </c>
-      <c r="E3" s="5" t="s">
-        <v>23</v>
-      </c>
-      <c r="F3" s="5" t="s">
-        <v>18</v>
-      </c>
       <c r="G3" s="2" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
     </row>
     <row r="4" spans="1:7">
       <c r="A4" s="5" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="B4" s="5" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="C4" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="D4" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="E4" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="F4" s="5" t="s">
         <v>21</v>
       </c>
-      <c r="D4" s="5" t="s">
-        <v>25</v>
-      </c>
-      <c r="E4" s="5" t="s">
-        <v>26</v>
-      </c>
-      <c r="F4" s="5" t="s">
-        <v>18</v>
-      </c>
       <c r="G4" s="2" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
     </row>
     <row r="5" spans="1:7">
       <c r="A5" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="B5" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="C5" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="D5" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="E5" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="F5" s="5" t="s">
         <v>21</v>
       </c>
-      <c r="B5" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="C5" s="5" t="s">
-        <v>14</v>
-      </c>
-      <c r="D5" s="5" t="s">
-        <v>28</v>
-      </c>
-      <c r="E5" s="5" t="s">
-        <v>29</v>
-      </c>
-      <c r="F5" s="5" t="s">
-        <v>18</v>
-      </c>
       <c r="G5" s="2" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
     </row>
     <row r="6" spans="1:9">
       <c r="A6" s="5" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="B6" s="5" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="C6" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="D6" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="E6" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="F6" s="5" t="s">
         <v>21</v>
       </c>
-      <c r="D6" s="5" t="s">
-        <v>32</v>
-      </c>
-      <c r="E6" s="5" t="s">
-        <v>33</v>
-      </c>
-      <c r="F6" s="5" t="s">
-        <v>18</v>
-      </c>
       <c r="G6" s="2" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="H6" s="3" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="I6" s="3" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
     </row>
     <row r="7" spans="1:7">
       <c r="A7" s="6" t="s">
-        <v>44</v>
+        <v>49</v>
       </c>
       <c r="B7" s="6" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="C7" s="6" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="D7" s="6" t="s">
-        <v>45</v>
+        <v>50</v>
       </c>
       <c r="E7" s="6" t="s">
-        <v>46</v>
+        <v>51</v>
       </c>
       <c r="F7" s="6" t="s">
-        <v>47</v>
+        <v>52</v>
       </c>
       <c r="G7" s="2" t="s">
-        <v>48</v>
+        <v>53</v>
       </c>
     </row>
     <row r="8" spans="1:7">
       <c r="A8" s="6" t="s">
-        <v>49</v>
+        <v>54</v>
       </c>
       <c r="B8" s="6" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="C8" s="6" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="D8" s="6" t="s">
-        <v>50</v>
+        <v>55</v>
       </c>
       <c r="E8" s="6" t="s">
-        <v>51</v>
+        <v>56</v>
       </c>
       <c r="F8" s="6" t="s">
-        <v>47</v>
+        <v>52</v>
       </c>
       <c r="G8" s="2" t="s">
-        <v>52</v>
+        <v>57</v>
       </c>
     </row>
     <row r="9" spans="1:7">
       <c r="A9" s="6" t="s">
-        <v>53</v>
+        <v>58</v>
       </c>
       <c r="B9" s="6" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="C9" s="6" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="D9" s="6" t="s">
-        <v>54</v>
+        <v>59</v>
       </c>
       <c r="E9" s="6" t="s">
-        <v>55</v>
+        <v>60</v>
       </c>
       <c r="F9" s="6" t="s">
-        <v>47</v>
+        <v>52</v>
       </c>
       <c r="G9" s="2" t="s">
-        <v>56</v>
+        <v>61</v>
       </c>
     </row>
     <row r="10" spans="1:7">
       <c r="A10" s="6" t="s">
-        <v>57</v>
+        <v>62</v>
       </c>
       <c r="B10" s="6" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="C10" s="6" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="D10" s="6" t="s">
-        <v>58</v>
+        <v>63</v>
       </c>
       <c r="E10" s="6" t="s">
-        <v>59</v>
+        <v>64</v>
       </c>
       <c r="F10" s="6" t="s">
-        <v>47</v>
+        <v>52</v>
       </c>
       <c r="G10" s="2" t="s">
-        <v>60</v>
+        <v>65</v>
       </c>
     </row>
     <row r="11" spans="1:7">
       <c r="A11" s="6" t="s">
-        <v>61</v>
+        <v>66</v>
       </c>
       <c r="B11" s="6" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="C11" s="6" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="D11" s="6" t="s">
-        <v>62</v>
+        <v>67</v>
       </c>
       <c r="E11" s="6" t="s">
-        <v>63</v>
+        <v>68</v>
       </c>
       <c r="F11" s="6" t="s">
-        <v>47</v>
+        <v>52</v>
       </c>
       <c r="G11" s="2" t="s">
-        <v>64</v>
+        <v>69</v>
       </c>
     </row>
     <row r="12" spans="1:7">
       <c r="A12" s="6" t="s">
-        <v>65</v>
+        <v>70</v>
       </c>
       <c r="B12" s="6" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="C12" s="6" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="D12" s="6" t="s">
-        <v>66</v>
+        <v>71</v>
       </c>
       <c r="E12" s="6" t="s">
-        <v>67</v>
+        <v>72</v>
       </c>
       <c r="F12" s="6" t="s">
-        <v>47</v>
+        <v>52</v>
       </c>
       <c r="G12" s="2" t="s">
-        <v>68</v>
+        <v>73</v>
       </c>
     </row>
     <row r="13" spans="1:9">
       <c r="A13" s="6" t="s">
-        <v>69</v>
+        <v>74</v>
       </c>
       <c r="B13" s="6" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="C13" s="6" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="D13" s="6" t="s">
-        <v>70</v>
+        <v>75</v>
       </c>
       <c r="E13" s="6" t="s">
-        <v>71</v>
+        <v>76</v>
       </c>
       <c r="F13" s="6" t="s">
-        <v>47</v>
+        <v>52</v>
       </c>
       <c r="G13" s="2" t="s">
-        <v>72</v>
+        <v>77</v>
       </c>
       <c r="H13" s="3" t="s">
-        <v>73</v>
+        <v>78</v>
       </c>
       <c r="I13" s="3" t="s">
-        <v>74</v>
+        <v>79</v>
       </c>
     </row>
     <row r="14" spans="1:7">
       <c r="A14" s="5" t="s">
-        <v>76</v>
+        <v>82</v>
       </c>
       <c r="B14" s="5" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="C14" s="5" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="D14" s="5" t="s">
-        <v>77</v>
+        <v>83</v>
       </c>
       <c r="E14" s="5" t="s">
-        <v>78</v>
+        <v>84</v>
       </c>
       <c r="F14" s="5" t="s">
-        <v>79</v>
+        <v>85</v>
       </c>
       <c r="G14" s="2" t="s">
-        <v>80</v>
+        <v>86</v>
       </c>
     </row>
     <row r="15" spans="1:7">
       <c r="A15" s="5" t="s">
-        <v>81</v>
+        <v>87</v>
       </c>
       <c r="B15" s="5" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="C15" s="5" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="D15" s="5" t="s">
-        <v>82</v>
+        <v>88</v>
       </c>
       <c r="E15" s="5" t="s">
-        <v>83</v>
+        <v>89</v>
       </c>
       <c r="F15" s="5" t="s">
-        <v>79</v>
+        <v>85</v>
       </c>
       <c r="G15" s="2" t="s">
-        <v>84</v>
+        <v>90</v>
       </c>
     </row>
     <row r="16" spans="1:7">
       <c r="A16" s="5" t="s">
+        <v>91</v>
+      </c>
+      <c r="B16" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="C16" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="D16" s="5" t="s">
+        <v>92</v>
+      </c>
+      <c r="E16" s="5" t="s">
+        <v>93</v>
+      </c>
+      <c r="F16" s="5" t="s">
         <v>85</v>
       </c>
-      <c r="B16" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="C16" s="5" t="s">
-        <v>21</v>
-      </c>
-      <c r="D16" s="5" t="s">
-        <v>86</v>
-      </c>
-      <c r="E16" s="5" t="s">
-        <v>87</v>
-      </c>
-      <c r="F16" s="5" t="s">
-        <v>79</v>
-      </c>
       <c r="G16" s="2" t="s">
-        <v>88</v>
+        <v>94</v>
       </c>
     </row>
     <row r="17" spans="1:7">
       <c r="A17" s="5" t="s">
-        <v>89</v>
+        <v>95</v>
       </c>
       <c r="B17" s="5" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="C17" s="5" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="D17" s="5" t="s">
-        <v>90</v>
+        <v>96</v>
       </c>
       <c r="E17" s="5" t="s">
-        <v>91</v>
+        <v>97</v>
       </c>
       <c r="F17" s="5" t="s">
-        <v>79</v>
+        <v>85</v>
       </c>
       <c r="G17" s="2" t="s">
-        <v>92</v>
+        <v>98</v>
       </c>
     </row>
     <row r="18" spans="1:7">
       <c r="A18" s="5" t="s">
-        <v>93</v>
+        <v>99</v>
       </c>
       <c r="B18" s="5" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="C18" s="5" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="D18" s="5" t="s">
-        <v>94</v>
+        <v>100</v>
       </c>
       <c r="E18" s="5" t="s">
-        <v>95</v>
+        <v>101</v>
       </c>
       <c r="F18" s="5" t="s">
-        <v>79</v>
+        <v>85</v>
       </c>
       <c r="G18" s="2" t="s">
-        <v>96</v>
+        <v>102</v>
       </c>
     </row>
     <row r="19" spans="1:7">
       <c r="A19" s="5" t="s">
-        <v>97</v>
+        <v>103</v>
       </c>
       <c r="B19" s="5" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="C19" s="5" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="D19" s="5" t="s">
-        <v>98</v>
+        <v>104</v>
       </c>
       <c r="E19" s="5" t="s">
-        <v>99</v>
+        <v>105</v>
       </c>
       <c r="F19" s="5" t="s">
-        <v>79</v>
+        <v>85</v>
       </c>
       <c r="G19" s="2" t="s">
-        <v>100</v>
+        <v>106</v>
       </c>
     </row>
     <row r="20" spans="1:7">
       <c r="A20" s="5" t="s">
-        <v>101</v>
+        <v>107</v>
       </c>
       <c r="B20" s="5" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="C20" s="5" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="D20" s="5" t="s">
-        <v>102</v>
+        <v>108</v>
       </c>
       <c r="E20" s="5" t="s">
-        <v>103</v>
+        <v>109</v>
       </c>
       <c r="F20" s="5" t="s">
-        <v>79</v>
+        <v>85</v>
       </c>
       <c r="G20" s="2" t="s">
-        <v>104</v>
+        <v>110</v>
       </c>
     </row>
     <row r="21" spans="1:9">
       <c r="A21" s="5" t="s">
-        <v>105</v>
+        <v>111</v>
       </c>
       <c r="B21" s="5" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="C21" s="5" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="D21" s="5" t="s">
-        <v>106</v>
+        <v>112</v>
       </c>
       <c r="E21" s="5" t="s">
-        <v>107</v>
+        <v>113</v>
       </c>
       <c r="F21" s="5" t="s">
-        <v>79</v>
+        <v>85</v>
       </c>
       <c r="G21" s="2" t="s">
-        <v>108</v>
+        <v>114</v>
       </c>
       <c r="H21" s="3" t="s">
-        <v>109</v>
+        <v>115</v>
       </c>
       <c r="I21" s="3" t="s">
-        <v>110</v>
+        <v>116</v>
       </c>
     </row>
     <row r="22" spans="1:7">
       <c r="A22" s="6" t="s">
-        <v>112</v>
+        <v>119</v>
       </c>
       <c r="B22" s="6" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="C22" s="6" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="D22" s="6" t="s">
-        <v>113</v>
+        <v>120</v>
       </c>
       <c r="E22" s="6" t="s">
-        <v>114</v>
+        <v>121</v>
       </c>
       <c r="F22" s="6" t="s">
-        <v>115</v>
+        <v>122</v>
       </c>
       <c r="G22" s="2" t="s">
-        <v>116</v>
+        <v>123</v>
       </c>
     </row>
     <row r="23" spans="1:7">
       <c r="A23" s="6" t="s">
-        <v>117</v>
+        <v>124</v>
       </c>
       <c r="B23" s="6" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="C23" s="6" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="D23" s="6" t="s">
-        <v>118</v>
+        <v>125</v>
       </c>
       <c r="E23" s="6" t="s">
-        <v>119</v>
+        <v>126</v>
       </c>
       <c r="F23" s="6" t="s">
-        <v>115</v>
+        <v>122</v>
       </c>
       <c r="G23" s="2" t="s">
-        <v>120</v>
+        <v>127</v>
       </c>
     </row>
     <row r="24" spans="1:7">
       <c r="A24" s="6" t="s">
-        <v>121</v>
+        <v>128</v>
       </c>
       <c r="B24" s="6" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="C24" s="6" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="D24" s="6" t="s">
+        <v>129</v>
+      </c>
+      <c r="E24" s="6" t="s">
+        <v>130</v>
+      </c>
+      <c r="F24" s="6" t="s">
         <v>122</v>
       </c>
-      <c r="E24" s="6" t="s">
-        <v>123</v>
-      </c>
-      <c r="F24" s="6" t="s">
-        <v>115</v>
-      </c>
       <c r="G24" s="2" t="s">
-        <v>124</v>
+        <v>131</v>
       </c>
     </row>
     <row r="25" spans="1:7">
       <c r="A25" s="6" t="s">
-        <v>125</v>
+        <v>132</v>
       </c>
       <c r="B25" s="6" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="C25" s="6" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="D25" s="6" t="s">
-        <v>126</v>
+        <v>133</v>
       </c>
       <c r="E25" s="6" t="s">
-        <v>127</v>
+        <v>134</v>
       </c>
       <c r="F25" s="6" t="s">
-        <v>115</v>
+        <v>122</v>
       </c>
       <c r="G25" s="2" t="s">
-        <v>128</v>
+        <v>135</v>
       </c>
     </row>
     <row r="26" spans="1:7">
       <c r="A26" s="6" t="s">
-        <v>129</v>
+        <v>136</v>
       </c>
       <c r="B26" s="6" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="C26" s="6" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="D26" s="6" t="s">
-        <v>130</v>
+        <v>137</v>
       </c>
       <c r="E26" s="6" t="s">
-        <v>131</v>
+        <v>138</v>
       </c>
       <c r="F26" s="6" t="s">
-        <v>115</v>
+        <v>122</v>
       </c>
       <c r="G26" s="2" t="s">
-        <v>132</v>
+        <v>139</v>
       </c>
     </row>
     <row r="27" spans="1:9">
       <c r="A27" s="6" t="s">
-        <v>133</v>
+        <v>140</v>
       </c>
       <c r="B27" s="6" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="C27" s="6" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="D27" s="6" t="s">
-        <v>134</v>
+        <v>141</v>
       </c>
       <c r="E27" s="6" t="s">
-        <v>135</v>
+        <v>142</v>
       </c>
       <c r="F27" s="6" t="s">
-        <v>115</v>
+        <v>122</v>
       </c>
       <c r="G27" s="2" t="s">
-        <v>136</v>
+        <v>143</v>
       </c>
       <c r="H27" s="3" t="s">
-        <v>137</v>
+        <v>144</v>
       </c>
       <c r="I27" s="3" t="s">
-        <v>138</v>
+        <v>145</v>
       </c>
     </row>
     <row r="28" spans="1:7">
       <c r="A28" s="5" t="s">
-        <v>143</v>
+        <v>150</v>
       </c>
       <c r="B28" s="5" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="C28" s="5" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="D28" s="5" t="s">
-        <v>144</v>
+        <v>151</v>
       </c>
       <c r="E28" s="5" t="s">
-        <v>145</v>
+        <v>152</v>
       </c>
       <c r="F28" s="5" t="s">
-        <v>146</v>
+        <v>153</v>
       </c>
       <c r="G28" s="2" t="s">
-        <v>147</v>
+        <v>154</v>
       </c>
     </row>
     <row r="29" spans="1:7">
       <c r="A29" s="5" t="s">
-        <v>148</v>
+        <v>155</v>
       </c>
       <c r="B29" s="5" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="C29" s="5" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="D29" s="5" t="s">
-        <v>149</v>
+        <v>156</v>
       </c>
       <c r="E29" s="5" t="s">
-        <v>150</v>
+        <v>157</v>
       </c>
       <c r="F29" s="5" t="s">
-        <v>146</v>
+        <v>153</v>
       </c>
       <c r="G29" s="2" t="s">
-        <v>151</v>
+        <v>158</v>
       </c>
     </row>
     <row r="30" spans="1:7">
       <c r="A30" s="5" t="s">
-        <v>152</v>
+        <v>159</v>
       </c>
       <c r="B30" s="5" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="C30" s="5" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="D30" s="5" t="s">
+        <v>160</v>
+      </c>
+      <c r="E30" s="5" t="s">
+        <v>161</v>
+      </c>
+      <c r="F30" s="5" t="s">
         <v>153</v>
       </c>
-      <c r="E30" s="5" t="s">
-        <v>154</v>
-      </c>
-      <c r="F30" s="5" t="s">
-        <v>146</v>
-      </c>
       <c r="G30" s="2" t="s">
-        <v>155</v>
+        <v>162</v>
       </c>
     </row>
     <row r="31" spans="1:7">
       <c r="A31" s="5" t="s">
-        <v>156</v>
+        <v>163</v>
       </c>
       <c r="B31" s="5" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="C31" s="5" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="D31" s="5" t="s">
-        <v>157</v>
+        <v>164</v>
       </c>
       <c r="E31" s="5" t="s">
-        <v>158</v>
+        <v>165</v>
       </c>
       <c r="F31" s="5" t="s">
-        <v>146</v>
+        <v>153</v>
       </c>
       <c r="G31" s="2" t="s">
-        <v>159</v>
+        <v>166</v>
       </c>
     </row>
     <row r="32" spans="1:7">
       <c r="A32" s="5" t="s">
-        <v>160</v>
+        <v>167</v>
       </c>
       <c r="B32" s="5" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="C32" s="5" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="D32" s="5" t="s">
-        <v>161</v>
+        <v>168</v>
       </c>
       <c r="E32" s="5" t="s">
-        <v>162</v>
+        <v>169</v>
       </c>
       <c r="F32" s="5" t="s">
-        <v>146</v>
+        <v>153</v>
       </c>
       <c r="G32" s="2" t="s">
-        <v>163</v>
+        <v>170</v>
       </c>
     </row>
     <row r="33" spans="1:7">
       <c r="A33" s="5" t="s">
-        <v>164</v>
+        <v>171</v>
       </c>
       <c r="B33" s="5" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="C33" s="5" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="D33" s="5" t="s">
-        <v>165</v>
+        <v>172</v>
       </c>
       <c r="E33" s="5" t="s">
-        <v>166</v>
+        <v>173</v>
       </c>
       <c r="F33" s="5" t="s">
-        <v>146</v>
+        <v>153</v>
       </c>
       <c r="G33" s="2" t="s">
-        <v>167</v>
+        <v>174</v>
       </c>
     </row>
     <row r="34" spans="1:7">
       <c r="A34" s="5" t="s">
-        <v>168</v>
+        <v>175</v>
       </c>
       <c r="B34" s="5" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="C34" s="5" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="D34" s="5" t="s">
-        <v>169</v>
+        <v>176</v>
       </c>
       <c r="E34" s="5" t="s">
-        <v>170</v>
+        <v>177</v>
       </c>
       <c r="F34" s="5" t="s">
-        <v>146</v>
+        <v>153</v>
       </c>
       <c r="G34" s="2" t="s">
-        <v>171</v>
+        <v>178</v>
       </c>
     </row>
     <row r="35" spans="1:9">
       <c r="A35" s="5" t="s">
-        <v>172</v>
+        <v>179</v>
       </c>
       <c r="B35" s="5" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="C35" s="5" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="D35" s="5" t="s">
-        <v>173</v>
+        <v>180</v>
       </c>
       <c r="E35" s="5" t="s">
-        <v>174</v>
+        <v>181</v>
       </c>
       <c r="F35" s="5" t="s">
-        <v>146</v>
+        <v>153</v>
       </c>
       <c r="G35" s="2" t="s">
-        <v>175</v>
+        <v>182</v>
       </c>
       <c r="H35" s="3" t="s">
-        <v>176</v>
+        <v>183</v>
       </c>
       <c r="I35" s="3" t="s">
-        <v>177</v>
+        <v>184</v>
       </c>
     </row>
     <row r="36" spans="1:7">
       <c r="A36" s="6" t="s">
-        <v>180</v>
+        <v>188</v>
       </c>
       <c r="B36" s="6" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="C36" s="6" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="D36" s="6" t="s">
-        <v>181</v>
+        <v>189</v>
       </c>
       <c r="E36" s="6" t="s">
-        <v>182</v>
+        <v>190</v>
       </c>
       <c r="F36" s="6" t="s">
-        <v>183</v>
+        <v>191</v>
       </c>
       <c r="G36" s="2" t="s">
-        <v>48</v>
+        <v>53</v>
       </c>
     </row>
     <row r="37" spans="1:7">
       <c r="A37" s="6" t="s">
-        <v>184</v>
+        <v>192</v>
       </c>
       <c r="B37" s="6" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="C37" s="6" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="D37" s="6" t="s">
-        <v>185</v>
+        <v>193</v>
       </c>
       <c r="E37" s="6" t="s">
-        <v>186</v>
+        <v>194</v>
       </c>
       <c r="F37" s="6" t="s">
-        <v>183</v>
+        <v>191</v>
       </c>
       <c r="G37" s="2" t="s">
-        <v>187</v>
+        <v>195</v>
       </c>
     </row>
     <row r="38" spans="1:7">
       <c r="A38" s="6" t="s">
-        <v>188</v>
+        <v>196</v>
       </c>
       <c r="B38" s="6" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="C38" s="6" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="D38" s="6" t="s">
-        <v>189</v>
+        <v>197</v>
       </c>
       <c r="E38" s="6" t="s">
-        <v>190</v>
+        <v>198</v>
       </c>
       <c r="F38" s="6" t="s">
-        <v>183</v>
+        <v>191</v>
       </c>
       <c r="G38" s="2" t="s">
-        <v>191</v>
+        <v>199</v>
       </c>
     </row>
     <row r="39" spans="1:7">
       <c r="A39" s="6" t="s">
-        <v>192</v>
+        <v>200</v>
       </c>
       <c r="B39" s="6" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="C39" s="6" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="D39" s="6" t="s">
-        <v>193</v>
+        <v>201</v>
       </c>
       <c r="E39" s="6" t="s">
-        <v>194</v>
+        <v>202</v>
       </c>
       <c r="F39" s="6" t="s">
-        <v>183</v>
+        <v>191</v>
       </c>
       <c r="G39" s="2" t="s">
-        <v>195</v>
+        <v>203</v>
       </c>
     </row>
     <row r="40" spans="1:7">
       <c r="A40" s="6" t="s">
-        <v>196</v>
+        <v>204</v>
       </c>
       <c r="B40" s="6" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="C40" s="6" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="D40" s="6" t="s">
-        <v>197</v>
+        <v>205</v>
       </c>
       <c r="E40" s="6" t="s">
-        <v>198</v>
+        <v>206</v>
       </c>
       <c r="F40" s="6" t="s">
-        <v>183</v>
+        <v>191</v>
       </c>
       <c r="G40" s="2" t="s">
-        <v>199</v>
+        <v>207</v>
       </c>
     </row>
     <row r="41" spans="1:7">
       <c r="A41" s="6" t="s">
-        <v>200</v>
+        <v>208</v>
       </c>
       <c r="B41" s="6" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="C41" s="6" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="D41" s="6" t="s">
-        <v>201</v>
+        <v>209</v>
       </c>
       <c r="E41" s="6" t="s">
-        <v>202</v>
+        <v>210</v>
       </c>
       <c r="F41" s="6" t="s">
-        <v>183</v>
+        <v>191</v>
       </c>
       <c r="G41" s="2" t="s">
-        <v>203</v>
+        <v>211</v>
       </c>
     </row>
     <row r="42" spans="1:7">
       <c r="A42" s="6" t="s">
-        <v>204</v>
+        <v>212</v>
       </c>
       <c r="B42" s="6" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="C42" s="6" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="D42" s="6" t="s">
-        <v>205</v>
+        <v>213</v>
       </c>
       <c r="E42" s="6" t="s">
-        <v>206</v>
+        <v>214</v>
       </c>
       <c r="F42" s="6" t="s">
-        <v>183</v>
+        <v>191</v>
       </c>
       <c r="G42" s="2" t="s">
-        <v>207</v>
+        <v>215</v>
       </c>
     </row>
     <row r="43" spans="1:9">
       <c r="A43" s="6" t="s">
-        <v>208</v>
+        <v>216</v>
       </c>
       <c r="B43" s="6" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="C43" s="6" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="D43" s="6" t="s">
-        <v>209</v>
+        <v>217</v>
       </c>
       <c r="E43" s="6" t="s">
-        <v>210</v>
+        <v>218</v>
       </c>
       <c r="F43" s="6" t="s">
-        <v>183</v>
+        <v>191</v>
       </c>
       <c r="G43" s="2" t="s">
-        <v>211</v>
+        <v>219</v>
       </c>
       <c r="H43" s="3" t="s">
-        <v>212</v>
+        <v>220</v>
       </c>
       <c r="I43" s="3" t="s">
-        <v>213</v>
+        <v>221</v>
       </c>
     </row>
     <row r="44" spans="1:7">
       <c r="A44" s="5" t="s">
-        <v>214</v>
+        <v>223</v>
       </c>
       <c r="B44" s="5" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="C44" s="5" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="D44" s="5" t="s">
-        <v>215</v>
+        <v>224</v>
       </c>
       <c r="E44" s="5" t="s">
-        <v>216</v>
+        <v>225</v>
       </c>
       <c r="F44" s="5" t="s">
-        <v>217</v>
+        <v>226</v>
       </c>
       <c r="G44" s="2" t="s">
-        <v>218</v>
+        <v>227</v>
       </c>
     </row>
     <row r="45" spans="1:7">
       <c r="A45" s="5" t="s">
-        <v>219</v>
+        <v>228</v>
       </c>
       <c r="B45" s="5" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="C45" s="5" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="D45" s="5" t="s">
-        <v>220</v>
+        <v>229</v>
       </c>
       <c r="E45" s="5" t="s">
-        <v>221</v>
+        <v>230</v>
       </c>
       <c r="F45" s="5" t="s">
-        <v>217</v>
+        <v>226</v>
       </c>
       <c r="G45" s="2" t="s">
-        <v>222</v>
+        <v>231</v>
       </c>
     </row>
     <row r="46" spans="1:7">
       <c r="A46" s="5" t="s">
-        <v>223</v>
+        <v>232</v>
       </c>
       <c r="B46" s="5" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="C46" s="5" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="D46" s="5" t="s">
-        <v>224</v>
+        <v>233</v>
       </c>
       <c r="E46" s="5" t="s">
-        <v>225</v>
+        <v>234</v>
       </c>
       <c r="F46" s="5" t="s">
-        <v>217</v>
+        <v>226</v>
       </c>
       <c r="G46" s="2" t="s">
-        <v>147</v>
+        <v>154</v>
       </c>
     </row>
     <row r="47" spans="1:7">
       <c r="A47" s="5" t="s">
+        <v>235</v>
+      </c>
+      <c r="B47" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="C47" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="D47" s="5" t="s">
+        <v>236</v>
+      </c>
+      <c r="E47" s="5" t="s">
+        <v>237</v>
+      </c>
+      <c r="F47" s="5" t="s">
         <v>226</v>
       </c>
-      <c r="B47" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="C47" s="5" t="s">
-        <v>21</v>
-      </c>
-      <c r="D47" s="5" t="s">
-        <v>227</v>
-      </c>
-      <c r="E47" s="5" t="s">
-        <v>228</v>
-      </c>
-      <c r="F47" s="5" t="s">
-        <v>217</v>
-      </c>
       <c r="G47" s="2" t="s">
-        <v>229</v>
+        <v>238</v>
       </c>
     </row>
     <row r="48" spans="1:7">
       <c r="A48" s="5" t="s">
-        <v>230</v>
+        <v>239</v>
       </c>
       <c r="B48" s="5" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="C48" s="5" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="D48" s="5" t="s">
-        <v>231</v>
+        <v>240</v>
       </c>
       <c r="E48" s="5" t="s">
-        <v>232</v>
+        <v>241</v>
       </c>
       <c r="F48" s="5" t="s">
-        <v>217</v>
+        <v>226</v>
       </c>
       <c r="G48" s="2" t="s">
-        <v>233</v>
+        <v>242</v>
       </c>
     </row>
     <row r="49" spans="1:9">
       <c r="A49" s="5" t="s">
-        <v>234</v>
+        <v>243</v>
       </c>
       <c r="B49" s="5" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="C49" s="5" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="D49" s="5" t="s">
-        <v>235</v>
+        <v>244</v>
       </c>
       <c r="E49" s="5" t="s">
-        <v>236</v>
+        <v>245</v>
       </c>
       <c r="F49" s="5" t="s">
-        <v>217</v>
+        <v>226</v>
       </c>
       <c r="G49" s="2" t="s">
-        <v>237</v>
+        <v>246</v>
       </c>
       <c r="H49" s="3" t="s">
-        <v>238</v>
+        <v>247</v>
       </c>
       <c r="I49" s="3" t="s">
-        <v>239</v>
+        <v>248</v>
       </c>
     </row>
     <row r="50" spans="1:7">
       <c r="A50" s="6" t="s">
-        <v>241</v>
+        <v>251</v>
       </c>
       <c r="B50" s="6" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="C50" s="6" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="D50" s="6" t="s">
-        <v>242</v>
+        <v>252</v>
       </c>
       <c r="E50" s="6" t="s">
-        <v>243</v>
+        <v>253</v>
       </c>
       <c r="F50" s="6" t="s">
-        <v>244</v>
+        <v>254</v>
       </c>
       <c r="G50" s="2" t="s">
-        <v>245</v>
+        <v>255</v>
       </c>
     </row>
     <row r="51" spans="1:7">
       <c r="A51" s="6" t="s">
-        <v>246</v>
+        <v>256</v>
       </c>
       <c r="B51" s="6" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="C51" s="6" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="D51" s="6" t="s">
-        <v>247</v>
+        <v>257</v>
       </c>
       <c r="E51" s="6" t="s">
-        <v>248</v>
+        <v>258</v>
       </c>
       <c r="F51" s="6" t="s">
-        <v>244</v>
+        <v>254</v>
       </c>
       <c r="G51" s="2" t="s">
-        <v>249</v>
+        <v>259</v>
       </c>
     </row>
     <row r="52" spans="1:7">
       <c r="A52" s="6" t="s">
-        <v>250</v>
+        <v>260</v>
       </c>
       <c r="B52" s="6" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="C52" s="6" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="D52" s="6" t="s">
-        <v>251</v>
+        <v>261</v>
       </c>
       <c r="E52" s="6" t="s">
-        <v>252</v>
+        <v>262</v>
       </c>
       <c r="F52" s="6" t="s">
-        <v>244</v>
+        <v>254</v>
       </c>
       <c r="G52" s="2" t="s">
-        <v>253</v>
+        <v>263</v>
       </c>
     </row>
     <row r="53" spans="1:7">
       <c r="A53" s="6" t="s">
+        <v>264</v>
+      </c>
+      <c r="B53" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="C53" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="D53" s="6" t="s">
+        <v>265</v>
+      </c>
+      <c r="E53" s="6" t="s">
+        <v>266</v>
+      </c>
+      <c r="F53" s="6" t="s">
         <v>254</v>
       </c>
-      <c r="B53" s="6" t="s">
-        <v>15</v>
-      </c>
-      <c r="C53" s="6" t="s">
-        <v>14</v>
-      </c>
-      <c r="D53" s="6" t="s">
-        <v>255</v>
-      </c>
-      <c r="E53" s="6" t="s">
-        <v>256</v>
-      </c>
-      <c r="F53" s="6" t="s">
-        <v>244</v>
-      </c>
       <c r="G53" s="2" t="s">
-        <v>257</v>
+        <v>267</v>
       </c>
     </row>
     <row r="54" spans="1:7">
       <c r="A54" s="6" t="s">
-        <v>258</v>
+        <v>268</v>
       </c>
       <c r="B54" s="6" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="C54" s="6" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="D54" s="6" t="s">
-        <v>259</v>
+        <v>269</v>
       </c>
       <c r="E54" s="6" t="s">
-        <v>260</v>
+        <v>270</v>
       </c>
       <c r="F54" s="6" t="s">
-        <v>244</v>
+        <v>254</v>
       </c>
       <c r="G54" s="2" t="s">
-        <v>261</v>
+        <v>271</v>
       </c>
     </row>
     <row r="55" spans="1:7">
       <c r="A55" s="6" t="s">
-        <v>262</v>
+        <v>272</v>
       </c>
       <c r="B55" s="6" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="C55" s="6" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="D55" s="6" t="s">
-        <v>263</v>
+        <v>273</v>
       </c>
       <c r="E55" s="6" t="s">
-        <v>264</v>
+        <v>274</v>
       </c>
       <c r="F55" s="6" t="s">
-        <v>244</v>
+        <v>254</v>
       </c>
       <c r="G55" s="2" t="s">
-        <v>265</v>
+        <v>275</v>
       </c>
     </row>
     <row r="56" spans="1:7">
       <c r="A56" s="6" t="s">
-        <v>266</v>
+        <v>276</v>
       </c>
       <c r="B56" s="6" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="C56" s="6" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="D56" s="6" t="s">
-        <v>267</v>
+        <v>277</v>
       </c>
       <c r="E56" s="6" t="s">
-        <v>268</v>
+        <v>278</v>
       </c>
       <c r="F56" s="6" t="s">
-        <v>244</v>
+        <v>254</v>
       </c>
       <c r="G56" s="2" t="s">
-        <v>269</v>
+        <v>279</v>
       </c>
     </row>
     <row r="57" spans="1:7">
       <c r="A57" s="6" t="s">
-        <v>270</v>
+        <v>280</v>
       </c>
       <c r="B57" s="6" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="C57" s="6" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="D57" s="6" t="s">
-        <v>271</v>
+        <v>281</v>
       </c>
       <c r="E57" s="6" t="s">
-        <v>272</v>
+        <v>282</v>
       </c>
       <c r="F57" s="6" t="s">
-        <v>244</v>
+        <v>254</v>
       </c>
       <c r="G57" s="2" t="s">
-        <v>273</v>
+        <v>283</v>
       </c>
     </row>
     <row r="58" spans="1:9">
       <c r="A58" s="6" t="s">
-        <v>274</v>
+        <v>284</v>
       </c>
       <c r="B58" s="6" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="C58" s="6" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="D58" s="6" t="s">
-        <v>275</v>
+        <v>285</v>
       </c>
       <c r="E58" s="6" t="s">
-        <v>276</v>
+        <v>286</v>
       </c>
       <c r="F58" s="6" t="s">
-        <v>244</v>
+        <v>254</v>
       </c>
       <c r="G58" s="2" t="s">
-        <v>277</v>
+        <v>287</v>
       </c>
       <c r="H58" s="3" t="s">
-        <v>278</v>
+        <v>288</v>
       </c>
       <c r="I58" s="3" t="s">
-        <v>279</v>
+        <v>289</v>
       </c>
     </row>
     <row r="59" spans="1:7">
       <c r="A59" s="5" t="s">
-        <v>284</v>
+        <v>295</v>
       </c>
       <c r="B59" s="5" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="C59" s="5" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="D59" s="5" t="s">
-        <v>285</v>
+        <v>296</v>
       </c>
       <c r="E59" s="5" t="s">
-        <v>286</v>
+        <v>297</v>
       </c>
       <c r="F59" s="5" t="s">
-        <v>287</v>
+        <v>298</v>
       </c>
       <c r="G59" s="2" t="s">
-        <v>288</v>
+        <v>299</v>
       </c>
     </row>
     <row r="60" spans="1:7">
       <c r="A60" s="5" t="s">
-        <v>289</v>
+        <v>300</v>
       </c>
       <c r="B60" s="5" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="C60" s="5" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="D60" s="5" t="s">
-        <v>290</v>
+        <v>301</v>
       </c>
       <c r="E60" s="5" t="s">
-        <v>291</v>
+        <v>302</v>
       </c>
       <c r="F60" s="5" t="s">
-        <v>287</v>
+        <v>298</v>
       </c>
       <c r="G60" s="2" t="s">
-        <v>292</v>
+        <v>303</v>
       </c>
     </row>
     <row r="61" spans="1:7">
       <c r="A61" s="5" t="s">
-        <v>293</v>
+        <v>304</v>
       </c>
       <c r="B61" s="5" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="C61" s="5" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="D61" s="5" t="s">
-        <v>294</v>
+        <v>305</v>
       </c>
       <c r="E61" s="5" t="s">
-        <v>295</v>
+        <v>306</v>
       </c>
       <c r="F61" s="5" t="s">
-        <v>287</v>
+        <v>298</v>
       </c>
       <c r="G61" s="2" t="s">
-        <v>296</v>
+        <v>307</v>
       </c>
     </row>
     <row r="62" spans="1:7">
       <c r="A62" s="5" t="s">
-        <v>297</v>
+        <v>308</v>
       </c>
       <c r="B62" s="5" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="C62" s="5" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="D62" s="5" t="s">
+        <v>309</v>
+      </c>
+      <c r="E62" s="5" t="s">
+        <v>310</v>
+      </c>
+      <c r="F62" s="5" t="s">
         <v>298</v>
       </c>
-      <c r="E62" s="5" t="s">
-        <v>299</v>
-      </c>
-      <c r="F62" s="5" t="s">
-        <v>287</v>
-      </c>
       <c r="G62" s="2" t="s">
-        <v>300</v>
+        <v>311</v>
       </c>
     </row>
     <row r="63" spans="1:7">
       <c r="A63" s="5" t="s">
-        <v>301</v>
+        <v>312</v>
       </c>
       <c r="B63" s="5" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="C63" s="5" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="D63" s="5" t="s">
-        <v>302</v>
+        <v>313</v>
       </c>
       <c r="E63" s="5" t="s">
-        <v>303</v>
+        <v>314</v>
       </c>
       <c r="F63" s="5" t="s">
-        <v>287</v>
+        <v>298</v>
       </c>
       <c r="G63" s="2" t="s">
-        <v>304</v>
+        <v>315</v>
       </c>
     </row>
     <row r="64" spans="1:7">
       <c r="A64" s="5" t="s">
-        <v>305</v>
+        <v>316</v>
       </c>
       <c r="B64" s="5" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="C64" s="5" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="D64" s="5" t="s">
-        <v>306</v>
+        <v>317</v>
       </c>
       <c r="E64" s="5" t="s">
-        <v>307</v>
+        <v>318</v>
       </c>
       <c r="F64" s="5" t="s">
-        <v>287</v>
+        <v>298</v>
       </c>
       <c r="G64" s="2" t="s">
-        <v>308</v>
+        <v>319</v>
       </c>
     </row>
     <row r="65" spans="1:7">
       <c r="A65" s="5" t="s">
-        <v>309</v>
+        <v>320</v>
       </c>
       <c r="B65" s="5" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="C65" s="5" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="D65" s="5" t="s">
-        <v>310</v>
+        <v>321</v>
       </c>
       <c r="E65" s="5" t="s">
-        <v>311</v>
+        <v>322</v>
       </c>
       <c r="F65" s="5" t="s">
-        <v>287</v>
+        <v>298</v>
       </c>
       <c r="G65" s="2" t="s">
-        <v>312</v>
+        <v>323</v>
       </c>
     </row>
     <row r="66" spans="1:9">
       <c r="A66" s="5" t="s">
-        <v>313</v>
+        <v>324</v>
       </c>
       <c r="B66" s="5" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="C66" s="5" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="D66" s="5" t="s">
-        <v>314</v>
+        <v>325</v>
       </c>
       <c r="E66" s="5" t="s">
-        <v>315</v>
+        <v>326</v>
       </c>
       <c r="F66" s="5" t="s">
-        <v>287</v>
+        <v>298</v>
       </c>
       <c r="G66" s="2" t="s">
-        <v>316</v>
+        <v>327</v>
       </c>
       <c r="H66" s="3" t="s">
-        <v>317</v>
+        <v>328</v>
       </c>
       <c r="I66" s="3" t="s">
-        <v>318</v>
+        <v>329</v>
       </c>
     </row>
     <row r="67" spans="1:7">
       <c r="A67" s="6" t="s">
-        <v>319</v>
+        <v>331</v>
       </c>
       <c r="B67" s="6" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="C67" s="6" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="D67" s="6" t="s">
-        <v>320</v>
+        <v>332</v>
       </c>
       <c r="E67" s="6" t="s">
-        <v>321</v>
+        <v>333</v>
       </c>
       <c r="F67" s="6" t="s">
-        <v>322</v>
+        <v>334</v>
       </c>
       <c r="G67" s="2" t="s">
-        <v>147</v>
+        <v>154</v>
       </c>
     </row>
     <row r="68" spans="1:7">
       <c r="A68" s="6" t="s">
-        <v>323</v>
+        <v>335</v>
       </c>
       <c r="B68" s="6" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="C68" s="6" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="D68" s="6" t="s">
-        <v>324</v>
+        <v>336</v>
       </c>
       <c r="E68" s="6" t="s">
-        <v>325</v>
+        <v>337</v>
       </c>
       <c r="F68" s="6" t="s">
-        <v>322</v>
+        <v>334</v>
       </c>
       <c r="G68" s="2" t="s">
-        <v>326</v>
+        <v>338</v>
       </c>
     </row>
     <row r="69" spans="1:7">
       <c r="A69" s="6" t="s">
-        <v>327</v>
+        <v>339</v>
       </c>
       <c r="B69" s="6" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="C69" s="6" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="D69" s="6" t="s">
-        <v>328</v>
+        <v>340</v>
       </c>
       <c r="E69" s="6" t="s">
-        <v>329</v>
+        <v>341</v>
       </c>
       <c r="F69" s="6" t="s">
-        <v>322</v>
+        <v>334</v>
       </c>
       <c r="G69" s="2" t="s">
-        <v>330</v>
+        <v>342</v>
       </c>
     </row>
     <row r="70" spans="1:7">
       <c r="A70" s="6" t="s">
-        <v>331</v>
+        <v>343</v>
       </c>
       <c r="B70" s="6" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="C70" s="6" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="D70" s="6" t="s">
-        <v>332</v>
+        <v>344</v>
       </c>
       <c r="E70" s="6" t="s">
-        <v>333</v>
+        <v>345</v>
       </c>
       <c r="F70" s="6" t="s">
-        <v>322</v>
+        <v>334</v>
       </c>
       <c r="G70" s="2" t="s">
-        <v>334</v>
+        <v>346</v>
       </c>
     </row>
     <row r="71" spans="1:9">
       <c r="A71" s="6" t="s">
-        <v>335</v>
+        <v>347</v>
       </c>
       <c r="B71" s="6" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="C71" s="6" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="D71" s="6" t="s">
-        <v>336</v>
+        <v>348</v>
       </c>
       <c r="E71" s="6" t="s">
-        <v>337</v>
+        <v>349</v>
       </c>
       <c r="F71" s="6" t="s">
-        <v>322</v>
+        <v>334</v>
       </c>
       <c r="G71" s="2" t="s">
-        <v>338</v>
+        <v>350</v>
       </c>
       <c r="H71" s="3" t="s">
-        <v>339</v>
+        <v>351</v>
       </c>
       <c r="I71" s="3" t="s">
-        <v>340</v>
+        <v>352</v>
       </c>
     </row>
     <row r="72" spans="1:7">
       <c r="A72" s="5" t="s">
-        <v>341</v>
+        <v>354</v>
       </c>
       <c r="B72" s="5" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="C72" s="5" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="D72" s="5" t="s">
-        <v>342</v>
+        <v>355</v>
       </c>
       <c r="E72" s="5" t="s">
-        <v>343</v>
+        <v>356</v>
       </c>
       <c r="F72" s="5" t="s">
-        <v>344</v>
+        <v>357</v>
       </c>
       <c r="G72" s="2" t="s">
-        <v>345</v>
+        <v>358</v>
       </c>
     </row>
     <row r="73" spans="1:7">
       <c r="A73" s="5" t="s">
-        <v>346</v>
+        <v>359</v>
       </c>
       <c r="B73" s="5" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="C73" s="5" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="D73" s="5" t="s">
-        <v>347</v>
+        <v>360</v>
       </c>
       <c r="E73" s="5" t="s">
-        <v>348</v>
+        <v>361</v>
       </c>
       <c r="F73" s="5" t="s">
-        <v>344</v>
+        <v>357</v>
       </c>
       <c r="G73" s="2" t="s">
-        <v>349</v>
+        <v>362</v>
       </c>
     </row>
     <row r="74" spans="1:7">
       <c r="A74" s="5" t="s">
-        <v>350</v>
+        <v>363</v>
       </c>
       <c r="B74" s="5" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="C74" s="5" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="D74" s="5" t="s">
-        <v>351</v>
+        <v>364</v>
       </c>
       <c r="E74" s="5" t="s">
-        <v>352</v>
+        <v>365</v>
       </c>
       <c r="F74" s="5" t="s">
-        <v>344</v>
+        <v>357</v>
       </c>
       <c r="G74" s="2" t="s">
-        <v>353</v>
+        <v>366</v>
       </c>
     </row>
     <row r="75" spans="1:7">
       <c r="A75" s="5" t="s">
-        <v>354</v>
+        <v>367</v>
       </c>
       <c r="B75" s="5" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="C75" s="5" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="D75" s="5" t="s">
-        <v>355</v>
+        <v>368</v>
       </c>
       <c r="E75" s="5" t="s">
-        <v>356</v>
+        <v>369</v>
       </c>
       <c r="F75" s="5" t="s">
-        <v>344</v>
+        <v>357</v>
       </c>
       <c r="G75" s="2" t="s">
-        <v>357</v>
+        <v>370</v>
       </c>
     </row>
     <row r="76" spans="1:7">
       <c r="A76" s="5" t="s">
-        <v>358</v>
+        <v>371</v>
       </c>
       <c r="B76" s="5" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="C76" s="5" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="D76" s="5" t="s">
-        <v>359</v>
+        <v>372</v>
       </c>
       <c r="E76" s="5" t="s">
-        <v>360</v>
+        <v>373</v>
       </c>
       <c r="F76" s="5" t="s">
-        <v>344</v>
+        <v>357</v>
       </c>
       <c r="G76" s="2" t="s">
-        <v>361</v>
+        <v>374</v>
       </c>
     </row>
     <row r="77" spans="1:9">
       <c r="A77" s="5" t="s">
-        <v>362</v>
+        <v>375</v>
       </c>
       <c r="B77" s="5" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="C77" s="5" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="D77" s="5" t="s">
-        <v>363</v>
+        <v>376</v>
       </c>
       <c r="E77" s="5" t="s">
-        <v>364</v>
+        <v>377</v>
       </c>
       <c r="F77" s="5" t="s">
-        <v>344</v>
+        <v>357</v>
       </c>
       <c r="G77" s="2" t="s">
-        <v>365</v>
+        <v>378</v>
       </c>
       <c r="H77" s="3" t="s">
-        <v>366</v>
+        <v>379</v>
       </c>
       <c r="I77" s="3" t="s">
-        <v>367</v>
+        <v>380</v>
       </c>
     </row>
     <row r="78" spans="1:7">
       <c r="A78" s="6" t="s">
-        <v>369</v>
+        <v>383</v>
       </c>
       <c r="B78" s="6" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="C78" s="6" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="D78" s="6" t="s">
-        <v>370</v>
+        <v>384</v>
       </c>
       <c r="E78" s="6" t="s">
-        <v>371</v>
+        <v>385</v>
       </c>
       <c r="F78" s="6" t="s">
-        <v>372</v>
+        <v>386</v>
       </c>
       <c r="G78" s="2" t="s">
-        <v>147</v>
+        <v>154</v>
       </c>
     </row>
     <row r="79" spans="1:7">
       <c r="A79" s="6" t="s">
-        <v>373</v>
+        <v>387</v>
       </c>
       <c r="B79" s="6" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="C79" s="6" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="D79" s="6" t="s">
-        <v>374</v>
+        <v>388</v>
       </c>
       <c r="E79" s="6" t="s">
-        <v>375</v>
+        <v>389</v>
       </c>
       <c r="F79" s="6" t="s">
-        <v>372</v>
+        <v>386</v>
       </c>
       <c r="G79" s="2" t="s">
-        <v>376</v>
+        <v>390</v>
       </c>
     </row>
     <row r="80" spans="1:7">
       <c r="A80" s="6" t="s">
-        <v>377</v>
+        <v>391</v>
       </c>
       <c r="B80" s="6" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="C80" s="6" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="D80" s="6" t="s">
-        <v>378</v>
+        <v>392</v>
       </c>
       <c r="E80" s="6" t="s">
-        <v>379</v>
+        <v>393</v>
       </c>
       <c r="F80" s="6" t="s">
-        <v>372</v>
+        <v>386</v>
       </c>
       <c r="G80" s="2" t="s">
-        <v>300</v>
+        <v>311</v>
       </c>
     </row>
     <row r="81" spans="1:7">
       <c r="A81" s="6" t="s">
-        <v>380</v>
+        <v>394</v>
       </c>
       <c r="B81" s="6" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="C81" s="6" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="D81" s="6" t="s">
-        <v>381</v>
+        <v>395</v>
       </c>
       <c r="E81" s="6" t="s">
-        <v>382</v>
+        <v>396</v>
       </c>
       <c r="F81" s="6" t="s">
-        <v>372</v>
+        <v>386</v>
       </c>
       <c r="G81" s="2" t="s">
-        <v>383</v>
+        <v>397</v>
       </c>
     </row>
     <row r="82" spans="1:7">
       <c r="A82" s="6" t="s">
-        <v>384</v>
+        <v>398</v>
       </c>
       <c r="B82" s="6" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="C82" s="6" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="D82" s="6" t="s">
-        <v>385</v>
+        <v>399</v>
       </c>
       <c r="E82" s="6" t="s">
+        <v>400</v>
+      </c>
+      <c r="F82" s="6" t="s">
         <v>386</v>
       </c>
-      <c r="F82" s="6" t="s">
-        <v>372</v>
-      </c>
       <c r="G82" s="2" t="s">
-        <v>387</v>
+        <v>401</v>
       </c>
     </row>
     <row r="83" spans="1:7">
       <c r="A83" s="6" t="s">
-        <v>388</v>
+        <v>402</v>
       </c>
       <c r="B83" s="6" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="C83" s="6" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="D83" s="6" t="s">
-        <v>389</v>
+        <v>403</v>
       </c>
       <c r="E83" s="6" t="s">
-        <v>390</v>
+        <v>404</v>
       </c>
       <c r="F83" s="6" t="s">
-        <v>372</v>
+        <v>386</v>
       </c>
       <c r="G83" s="2" t="s">
-        <v>391</v>
+        <v>405</v>
       </c>
     </row>
     <row r="84" spans="1:7">
       <c r="A84" s="6" t="s">
-        <v>392</v>
+        <v>406</v>
       </c>
       <c r="B84" s="6" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="C84" s="6" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="D84" s="6" t="s">
-        <v>393</v>
+        <v>407</v>
       </c>
       <c r="E84" s="6" t="s">
-        <v>394</v>
+        <v>408</v>
       </c>
       <c r="F84" s="6" t="s">
-        <v>372</v>
+        <v>386</v>
       </c>
       <c r="G84" s="2" t="s">
-        <v>395</v>
+        <v>409</v>
       </c>
     </row>
     <row r="85" spans="1:9">
       <c r="A85" s="6" t="s">
-        <v>396</v>
+        <v>410</v>
       </c>
       <c r="B85" s="6" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="C85" s="6" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="D85" s="6" t="s">
-        <v>397</v>
+        <v>411</v>
       </c>
       <c r="E85" s="6" t="s">
-        <v>398</v>
+        <v>412</v>
       </c>
       <c r="F85" s="6" t="s">
-        <v>372</v>
+        <v>386</v>
       </c>
       <c r="G85" s="2" t="s">
-        <v>399</v>
+        <v>413</v>
       </c>
       <c r="H85" s="3" t="s">
-        <v>400</v>
+        <v>414</v>
       </c>
       <c r="I85" s="3" t="s">
-        <v>401</v>
+        <v>415</v>
       </c>
     </row>
     <row r="86" spans="1:7">
       <c r="A86" s="5" t="s">
-        <v>404</v>
+        <v>419</v>
       </c>
       <c r="B86" s="5" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="C86" s="5" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="D86" s="5" t="s">
-        <v>405</v>
+        <v>420</v>
       </c>
       <c r="E86" s="5" t="s">
-        <v>406</v>
+        <v>421</v>
       </c>
       <c r="F86" s="5" t="s">
-        <v>407</v>
+        <v>422</v>
       </c>
       <c r="G86" s="2" t="s">
-        <v>408</v>
+        <v>423</v>
       </c>
     </row>
     <row r="87" spans="1:7">
       <c r="A87" s="5" t="s">
-        <v>409</v>
+        <v>424</v>
       </c>
       <c r="B87" s="5" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="C87" s="5" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="D87" s="5" t="s">
-        <v>410</v>
+        <v>425</v>
       </c>
       <c r="E87" s="5" t="s">
-        <v>411</v>
+        <v>426</v>
       </c>
       <c r="F87" s="5" t="s">
-        <v>407</v>
+        <v>422</v>
       </c>
       <c r="G87" s="2" t="s">
-        <v>412</v>
+        <v>427</v>
       </c>
     </row>
     <row r="88" spans="1:7">
       <c r="A88" s="5" t="s">
-        <v>413</v>
+        <v>428</v>
       </c>
       <c r="B88" s="5" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="C88" s="5" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="D88" s="5" t="s">
-        <v>414</v>
+        <v>429</v>
       </c>
       <c r="E88" s="5" t="s">
-        <v>415</v>
+        <v>430</v>
       </c>
       <c r="F88" s="5" t="s">
-        <v>407</v>
+        <v>422</v>
       </c>
       <c r="G88" s="2" t="s">
-        <v>416</v>
+        <v>431</v>
       </c>
     </row>
     <row r="89" spans="1:7">
       <c r="A89" s="5" t="s">
-        <v>417</v>
+        <v>432</v>
       </c>
       <c r="B89" s="5" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="C89" s="5" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="D89" s="5" t="s">
-        <v>418</v>
+        <v>433</v>
       </c>
       <c r="E89" s="5" t="s">
-        <v>419</v>
+        <v>434</v>
       </c>
       <c r="F89" s="5" t="s">
-        <v>407</v>
+        <v>422</v>
       </c>
       <c r="G89" s="2" t="s">
-        <v>420</v>
+        <v>435</v>
       </c>
     </row>
     <row r="90" spans="1:9">
       <c r="A90" s="5" t="s">
-        <v>421</v>
+        <v>436</v>
       </c>
       <c r="B90" s="5" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="C90" s="5" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="D90" s="5" t="s">
+        <v>437</v>
+      </c>
+      <c r="E90" s="5" t="s">
+        <v>438</v>
+      </c>
+      <c r="F90" s="5" t="s">
         <v>422</v>
       </c>
-      <c r="E90" s="5" t="s">
-        <v>423</v>
-      </c>
-      <c r="F90" s="5" t="s">
-        <v>407</v>
-      </c>
       <c r="G90" s="2" t="s">
-        <v>424</v>
+        <v>439</v>
       </c>
       <c r="H90" s="3" t="s">
-        <v>425</v>
+        <v>440</v>
       </c>
       <c r="I90" s="3" t="s">
-        <v>426</v>
+        <v>441</v>
       </c>
     </row>
     <row r="91" spans="1:7">
       <c r="A91" s="6" t="s">
-        <v>427</v>
+        <v>443</v>
       </c>
       <c r="B91" s="6" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="C91" s="6" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="D91" s="6" t="s">
-        <v>428</v>
+        <v>444</v>
       </c>
       <c r="E91" s="6" t="s">
-        <v>429</v>
+        <v>445</v>
       </c>
       <c r="F91" s="6" t="s">
-        <v>430</v>
+        <v>446</v>
       </c>
       <c r="G91" s="2" t="s">
-        <v>288</v>
+        <v>299</v>
       </c>
     </row>
     <row r="92" spans="1:7">
       <c r="A92" s="6" t="s">
-        <v>431</v>
+        <v>447</v>
       </c>
       <c r="B92" s="6" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="C92" s="6" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="D92" s="6" t="s">
-        <v>432</v>
+        <v>448</v>
       </c>
       <c r="E92" s="6" t="s">
-        <v>433</v>
+        <v>449</v>
       </c>
       <c r="F92" s="6" t="s">
-        <v>430</v>
+        <v>446</v>
       </c>
       <c r="G92" s="2" t="s">
-        <v>434</v>
+        <v>450</v>
       </c>
     </row>
     <row r="93" spans="1:7">
       <c r="A93" s="6" t="s">
-        <v>435</v>
+        <v>451</v>
       </c>
       <c r="B93" s="6" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="C93" s="6" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="D93" s="6" t="s">
-        <v>436</v>
+        <v>452</v>
       </c>
       <c r="E93" s="6" t="s">
-        <v>437</v>
+        <v>453</v>
       </c>
       <c r="F93" s="6" t="s">
-        <v>430</v>
+        <v>446</v>
       </c>
       <c r="G93" s="2" t="s">
-        <v>438</v>
+        <v>454</v>
       </c>
     </row>
     <row r="94" spans="1:7">
       <c r="A94" s="6" t="s">
-        <v>439</v>
+        <v>455</v>
       </c>
       <c r="B94" s="6" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="C94" s="6" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="D94" s="6" t="s">
-        <v>440</v>
+        <v>456</v>
       </c>
       <c r="E94" s="6" t="s">
-        <v>441</v>
+        <v>457</v>
       </c>
       <c r="F94" s="6" t="s">
-        <v>430</v>
+        <v>446</v>
       </c>
       <c r="G94" s="2" t="s">
-        <v>442</v>
+        <v>458</v>
       </c>
     </row>
     <row r="95" spans="1:7">
       <c r="A95" s="6" t="s">
-        <v>443</v>
+        <v>459</v>
       </c>
       <c r="B95" s="6" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="C95" s="6" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="D95" s="6" t="s">
-        <v>444</v>
+        <v>460</v>
       </c>
       <c r="E95" s="6" t="s">
-        <v>445</v>
+        <v>461</v>
       </c>
       <c r="F95" s="6" t="s">
-        <v>430</v>
+        <v>446</v>
       </c>
       <c r="G95" s="2" t="s">
-        <v>446</v>
+        <v>462</v>
       </c>
     </row>
     <row r="96" spans="1:9">
       <c r="A96" s="6" t="s">
-        <v>447</v>
+        <v>463</v>
       </c>
       <c r="B96" s="6" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="C96" s="6" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="D96" s="6" t="s">
-        <v>448</v>
+        <v>464</v>
       </c>
       <c r="E96" s="6" t="s">
-        <v>449</v>
+        <v>465</v>
       </c>
       <c r="F96" s="6" t="s">
-        <v>430</v>
+        <v>446</v>
       </c>
       <c r="G96" s="2" t="s">
-        <v>450</v>
+        <v>466</v>
       </c>
       <c r="H96" s="3" t="s">
-        <v>451</v>
+        <v>467</v>
       </c>
       <c r="I96" s="3" t="s">
-        <v>452</v>
+        <v>468</v>
       </c>
     </row>
     <row r="97" spans="1:7">
       <c r="A97" s="5" t="s">
-        <v>453</v>
+        <v>470</v>
       </c>
       <c r="B97" s="5" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="C97" s="5" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="D97" s="5" t="s">
-        <v>454</v>
+        <v>471</v>
       </c>
       <c r="E97" s="5" t="s">
-        <v>285</v>
+        <v>296</v>
       </c>
       <c r="F97" s="5" t="s">
-        <v>455</v>
+        <v>472</v>
       </c>
       <c r="G97" s="2" t="s">
-        <v>147</v>
+        <v>154</v>
       </c>
     </row>
     <row r="98" spans="1:7">
       <c r="A98" s="5" t="s">
-        <v>456</v>
+        <v>473</v>
       </c>
       <c r="B98" s="5" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="C98" s="5" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="D98" s="5" t="s">
-        <v>457</v>
+        <v>474</v>
       </c>
       <c r="E98" s="5" t="s">
-        <v>458</v>
+        <v>475</v>
       </c>
       <c r="F98" s="5" t="s">
-        <v>455</v>
+        <v>472</v>
       </c>
       <c r="G98" s="2" t="s">
-        <v>459</v>
+        <v>476</v>
       </c>
     </row>
     <row r="99" spans="1:7">
       <c r="A99" s="5" t="s">
-        <v>460</v>
+        <v>477</v>
       </c>
       <c r="B99" s="5" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="C99" s="5" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="D99" s="5" t="s">
-        <v>461</v>
+        <v>478</v>
       </c>
       <c r="E99" s="5" t="s">
-        <v>462</v>
+        <v>479</v>
       </c>
       <c r="F99" s="5" t="s">
-        <v>455</v>
+        <v>472</v>
       </c>
       <c r="G99" s="2" t="s">
-        <v>463</v>
+        <v>480</v>
       </c>
     </row>
     <row r="100" spans="1:7">
       <c r="A100" s="5" t="s">
-        <v>464</v>
+        <v>481</v>
       </c>
       <c r="B100" s="5" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="C100" s="5" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="D100" s="5" t="s">
-        <v>465</v>
+        <v>482</v>
       </c>
       <c r="E100" s="5" t="s">
-        <v>466</v>
+        <v>483</v>
       </c>
       <c r="F100" s="5" t="s">
-        <v>455</v>
+        <v>472</v>
       </c>
       <c r="G100" s="2" t="s">
-        <v>467</v>
+        <v>484</v>
       </c>
     </row>
     <row r="101" spans="1:7">
       <c r="A101" s="5" t="s">
-        <v>468</v>
+        <v>485</v>
       </c>
       <c r="B101" s="5" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="C101" s="5" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="D101" s="5" t="s">
-        <v>469</v>
+        <v>486</v>
       </c>
       <c r="E101" s="5" t="s">
-        <v>470</v>
+        <v>487</v>
       </c>
       <c r="F101" s="5" t="s">
-        <v>455</v>
+        <v>472</v>
       </c>
       <c r="G101" s="2" t="s">
-        <v>471</v>
+        <v>488</v>
       </c>
     </row>
     <row r="102" spans="1:9">
       <c r="A102" s="5" t="s">
+        <v>489</v>
+      </c>
+      <c r="B102" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="C102" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="D102" s="5" t="s">
+        <v>490</v>
+      </c>
+      <c r="E102" s="5" t="s">
+        <v>491</v>
+      </c>
+      <c r="F102" s="5" t="s">
         <v>472</v>
       </c>
-      <c r="B102" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="C102" s="5" t="s">
-        <v>21</v>
-      </c>
-      <c r="D102" s="5" t="s">
-        <v>473</v>
-      </c>
-      <c r="E102" s="5" t="s">
-        <v>474</v>
-      </c>
-      <c r="F102" s="5" t="s">
-        <v>455</v>
-      </c>
       <c r="G102" s="2" t="s">
-        <v>475</v>
+        <v>492</v>
       </c>
       <c r="H102" s="3" t="s">
-        <v>476</v>
+        <v>493</v>
       </c>
       <c r="I102" s="3" t="s">
-        <v>477</v>
+        <v>494</v>
       </c>
     </row>
     <row r="103" spans="1:7">
       <c r="A103" s="6" t="s">
-        <v>479</v>
+        <v>497</v>
       </c>
       <c r="B103" s="6" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="C103" s="6" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="D103" s="6" t="s">
-        <v>480</v>
+        <v>498</v>
       </c>
       <c r="E103" s="6" t="s">
-        <v>481</v>
+        <v>499</v>
       </c>
       <c r="F103" s="6" t="s">
-        <v>482</v>
+        <v>500</v>
       </c>
       <c r="G103" s="2" t="s">
-        <v>483</v>
+        <v>501</v>
       </c>
     </row>
     <row r="104" spans="1:7">
       <c r="A104" s="6" t="s">
-        <v>484</v>
+        <v>502</v>
       </c>
       <c r="B104" s="6" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="C104" s="6" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="D104" s="6" t="s">
-        <v>485</v>
+        <v>503</v>
       </c>
       <c r="E104" s="6" t="s">
-        <v>486</v>
+        <v>504</v>
       </c>
       <c r="F104" s="6" t="s">
-        <v>482</v>
+        <v>500</v>
       </c>
       <c r="G104" s="2" t="s">
-        <v>487</v>
+        <v>505</v>
       </c>
     </row>
     <row r="105" spans="1:7">
       <c r="A105" s="6" t="s">
-        <v>488</v>
+        <v>506</v>
       </c>
       <c r="B105" s="6" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="C105" s="6" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="D105" s="6" t="s">
-        <v>489</v>
+        <v>507</v>
       </c>
       <c r="E105" s="6" t="s">
-        <v>490</v>
+        <v>508</v>
       </c>
       <c r="F105" s="6" t="s">
-        <v>482</v>
+        <v>500</v>
       </c>
       <c r="G105" s="2" t="s">
-        <v>491</v>
+        <v>509</v>
       </c>
     </row>
     <row r="106" spans="1:9">
       <c r="A106" s="6" t="s">
-        <v>492</v>
+        <v>510</v>
       </c>
       <c r="B106" s="6" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="C106" s="6" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="D106" s="6" t="s">
-        <v>493</v>
+        <v>511</v>
       </c>
       <c r="E106" s="6" t="s">
-        <v>494</v>
+        <v>512</v>
       </c>
       <c r="F106" s="6" t="s">
-        <v>482</v>
+        <v>500</v>
       </c>
       <c r="G106" s="2" t="s">
-        <v>495</v>
+        <v>513</v>
       </c>
       <c r="H106" s="3" t="s">
-        <v>496</v>
+        <v>514</v>
       </c>
       <c r="I106" s="3" t="s">
-        <v>497</v>
+        <v>515</v>
       </c>
     </row>
   </sheetData>
@@ -4158,13 +4215,13 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E32"/>
+  <dimension ref="A1:H32"/>
   <sheetViews>
     <sheetView showGridLines="1" workbookViewId="0" rightToLeft="0" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
   <sheetData>
-    <row r="1" spans="1:5">
+    <row r="1" spans="1:8">
       <c r="A1" s="1" t="s">
         <v>10</v>
       </c>
@@ -4180,532 +4237,631 @@
       <c r="E1" s="1" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="2" spans="1:5">
+      <c r="F1" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8">
       <c r="A2" s="1" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="E2" s="4" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5">
+        <v>41</v>
+      </c>
+      <c r="H2" s="4" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8">
       <c r="A3" s="1" t="s">
-        <v>39</v>
+        <v>43</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>40</v>
+        <v>44</v>
       </c>
       <c r="C3" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="E3" s="4" t="s">
         <v>41</v>
       </c>
-      <c r="D3" s="1" t="s">
+      <c r="H3" s="4" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8">
+      <c r="A4" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="E4" s="4" t="s">
         <v>41</v>
       </c>
-      <c r="E3" s="4" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5">
-      <c r="A4" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="B4" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="C4" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="D4" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="E4" s="4" t="s">
-        <v>38</v>
+      <c r="H4" s="4" t="s">
+        <v>46</v>
       </c>
     </row>
     <row r="5" spans="1:5">
       <c r="A5" s="1" t="s">
-        <v>75</v>
+        <v>80</v>
       </c>
       <c r="B5" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="E5" s="2" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8">
+      <c r="A6" s="1" t="s">
+        <v>117</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>115</v>
+      </c>
+      <c r="D6" s="1" t="s">
+        <v>116</v>
+      </c>
+      <c r="E6" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="H6" s="4" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6">
+      <c r="A7" s="1" t="s">
+        <v>146</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>122</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>144</v>
+      </c>
+      <c r="D7" s="1" t="s">
+        <v>145</v>
+      </c>
+      <c r="E7" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="F7" s="2" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8">
+      <c r="A8" s="1" t="s">
+        <v>148</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>149</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="D8" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="E8" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="H8" s="4" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6">
+      <c r="A9" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>153</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>183</v>
+      </c>
+      <c r="D9" s="1" t="s">
+        <v>184</v>
+      </c>
+      <c r="E9" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="F9" s="2" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8">
+      <c r="A10" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>186</v>
+      </c>
+      <c r="C10" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="D10" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="E10" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="H10" s="4" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8">
+      <c r="A11" s="1" t="s">
         <v>47</v>
       </c>
-      <c r="C5" s="1" t="s">
-        <v>73</v>
-      </c>
-      <c r="D5" s="1" t="s">
-        <v>74</v>
-      </c>
-      <c r="E5" s="4" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5">
-      <c r="A6" s="1" t="s">
-        <v>111</v>
-      </c>
-      <c r="B6" s="1" t="s">
-        <v>79</v>
-      </c>
-      <c r="C6" s="1" t="s">
-        <v>109</v>
-      </c>
-      <c r="D6" s="1" t="s">
-        <v>110</v>
-      </c>
-      <c r="E6" s="4" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5">
-      <c r="A7" s="1" t="s">
-        <v>139</v>
-      </c>
-      <c r="B7" s="1" t="s">
-        <v>115</v>
-      </c>
-      <c r="C7" s="1" t="s">
-        <v>137</v>
-      </c>
-      <c r="D7" s="1" t="s">
-        <v>138</v>
-      </c>
-      <c r="E7" s="2" t="s">
-        <v>140</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5">
-      <c r="A8" s="1" t="s">
-        <v>141</v>
-      </c>
-      <c r="B8" s="1" t="s">
-        <v>142</v>
-      </c>
-      <c r="C8" s="1" t="s">
+      <c r="B11" s="1" t="s">
+        <v>187</v>
+      </c>
+      <c r="C11" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="D11" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="E11" s="4" t="s">
         <v>41</v>
       </c>
-      <c r="D8" s="1" t="s">
+      <c r="H11" s="4" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8">
+      <c r="A12" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="B12" s="1" t="s">
+        <v>191</v>
+      </c>
+      <c r="C12" s="1" t="s">
+        <v>220</v>
+      </c>
+      <c r="D12" s="1" t="s">
+        <v>221</v>
+      </c>
+      <c r="E12" s="4" t="s">
         <v>41</v>
       </c>
-      <c r="E8" s="4" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5">
-      <c r="A9" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="B9" s="1" t="s">
+      <c r="H12" s="4" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7">
+      <c r="A13" s="1" t="s">
+        <v>117</v>
+      </c>
+      <c r="B13" s="1" t="s">
+        <v>226</v>
+      </c>
+      <c r="C13" s="1" t="s">
+        <v>247</v>
+      </c>
+      <c r="D13" s="1" t="s">
+        <v>248</v>
+      </c>
+      <c r="E13" s="4" t="s">
+        <v>249</v>
+      </c>
+      <c r="G13" s="4" t="s">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6">
+      <c r="A14" s="1" t="s">
         <v>146</v>
       </c>
-      <c r="C9" s="1" t="s">
-        <v>176</v>
-      </c>
-      <c r="D9" s="1" t="s">
-        <v>177</v>
-      </c>
-      <c r="E9" s="2" t="s">
-        <v>140</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5">
-      <c r="A10" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="B10" s="1" t="s">
-        <v>178</v>
-      </c>
-      <c r="C10" s="1" t="s">
+      <c r="B14" s="1" t="s">
+        <v>254</v>
+      </c>
+      <c r="C14" s="1" t="s">
+        <v>288</v>
+      </c>
+      <c r="D14" s="1" t="s">
+        <v>289</v>
+      </c>
+      <c r="E14" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="F14" s="2" t="s">
+        <v>290</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8">
+      <c r="A15" s="1" t="s">
+        <v>148</v>
+      </c>
+      <c r="B15" s="1" t="s">
+        <v>291</v>
+      </c>
+      <c r="C15" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="D15" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="E15" s="4" t="s">
         <v>41</v>
       </c>
-      <c r="D10" s="1" t="s">
+      <c r="H15" s="4" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8">
+      <c r="A16" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="B16" s="1" t="s">
+        <v>292</v>
+      </c>
+      <c r="C16" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="D16" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="E16" s="4" t="s">
         <v>41</v>
       </c>
-      <c r="E10" s="4" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5">
-      <c r="A11" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="B11" s="1" t="s">
-        <v>179</v>
-      </c>
-      <c r="C11" s="1" t="s">
+      <c r="H16" s="4" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8">
+      <c r="A17" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="B17" s="1" t="s">
+        <v>293</v>
+      </c>
+      <c r="C17" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="D17" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="E17" s="4" t="s">
         <v>41</v>
       </c>
-      <c r="D11" s="1" t="s">
+      <c r="H17" s="4" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8">
+      <c r="A18" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="B18" s="1" t="s">
+        <v>294</v>
+      </c>
+      <c r="C18" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="D18" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="E18" s="4" t="s">
         <v>41</v>
       </c>
-      <c r="E11" s="4" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="12" spans="1:5">
-      <c r="A12" s="1" t="s">
-        <v>75</v>
-      </c>
-      <c r="B12" s="1" t="s">
-        <v>183</v>
-      </c>
-      <c r="C12" s="1" t="s">
-        <v>212</v>
-      </c>
-      <c r="D12" s="1" t="s">
-        <v>213</v>
-      </c>
-      <c r="E12" s="4" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="13" spans="1:5">
-      <c r="A13" s="1" t="s">
-        <v>111</v>
-      </c>
-      <c r="B13" s="1" t="s">
-        <v>217</v>
-      </c>
-      <c r="C13" s="1" t="s">
-        <v>238</v>
-      </c>
-      <c r="D13" s="1" t="s">
-        <v>239</v>
-      </c>
-      <c r="E13" s="2" t="s">
-        <v>240</v>
-      </c>
-    </row>
-    <row r="14" spans="1:5">
-      <c r="A14" s="1" t="s">
-        <v>139</v>
-      </c>
-      <c r="B14" s="1" t="s">
-        <v>244</v>
-      </c>
-      <c r="C14" s="1" t="s">
-        <v>278</v>
-      </c>
-      <c r="D14" s="1" t="s">
-        <v>279</v>
-      </c>
-      <c r="E14" s="2" t="s">
-        <v>140</v>
-      </c>
-    </row>
-    <row r="15" spans="1:5">
-      <c r="A15" s="1" t="s">
-        <v>141</v>
-      </c>
-      <c r="B15" s="1" t="s">
-        <v>280</v>
-      </c>
-      <c r="C15" s="1" t="s">
+      <c r="H18" s="4" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7">
+      <c r="A19" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="B19" s="1" t="s">
+        <v>298</v>
+      </c>
+      <c r="C19" s="1" t="s">
+        <v>328</v>
+      </c>
+      <c r="D19" s="1" t="s">
+        <v>329</v>
+      </c>
+      <c r="E19" s="4" t="s">
+        <v>249</v>
+      </c>
+      <c r="G19" s="4" t="s">
+        <v>330</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8">
+      <c r="A20" s="1" t="s">
+        <v>117</v>
+      </c>
+      <c r="B20" s="1" t="s">
+        <v>334</v>
+      </c>
+      <c r="C20" s="1" t="s">
+        <v>351</v>
+      </c>
+      <c r="D20" s="1" t="s">
+        <v>352</v>
+      </c>
+      <c r="E20" s="4" t="s">
         <v>41</v>
       </c>
-      <c r="D15" s="1" t="s">
+      <c r="H20" s="4" t="s">
+        <v>353</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8">
+      <c r="A21" s="1" t="s">
+        <v>146</v>
+      </c>
+      <c r="B21" s="1" t="s">
+        <v>357</v>
+      </c>
+      <c r="C21" s="1" t="s">
+        <v>379</v>
+      </c>
+      <c r="D21" s="1" t="s">
+        <v>380</v>
+      </c>
+      <c r="E21" s="4" t="s">
         <v>41</v>
       </c>
-      <c r="E15" s="4" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="16" spans="1:5">
-      <c r="A16" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="B16" s="1" t="s">
-        <v>281</v>
-      </c>
-      <c r="C16" s="1" t="s">
+      <c r="H21" s="4" t="s">
+        <v>381</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8">
+      <c r="A22" s="1" t="s">
+        <v>148</v>
+      </c>
+      <c r="B22" s="1" t="s">
+        <v>382</v>
+      </c>
+      <c r="C22" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="D22" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="E22" s="4" t="s">
         <v>41</v>
       </c>
-      <c r="D16" s="1" t="s">
+      <c r="H22" s="4" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6">
+      <c r="A23" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="B23" s="1" t="s">
+        <v>386</v>
+      </c>
+      <c r="C23" s="1" t="s">
+        <v>414</v>
+      </c>
+      <c r="D23" s="1" t="s">
+        <v>415</v>
+      </c>
+      <c r="E23" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="F23" s="2" t="s">
+        <v>416</v>
+      </c>
+    </row>
+    <row r="24" spans="1:8">
+      <c r="A24" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="B24" s="1" t="s">
+        <v>417</v>
+      </c>
+      <c r="C24" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="D24" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="E24" s="4" t="s">
         <v>41</v>
       </c>
-      <c r="E16" s="4" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="17" spans="1:5">
-      <c r="A17" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="B17" s="1" t="s">
-        <v>282</v>
-      </c>
-      <c r="C17" s="1" t="s">
+      <c r="H24" s="4" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="25" spans="1:8">
+      <c r="A25" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="B25" s="1" t="s">
+        <v>418</v>
+      </c>
+      <c r="C25" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="D25" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="E25" s="4" t="s">
         <v>41</v>
       </c>
-      <c r="D17" s="1" t="s">
+      <c r="H25" s="4" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7">
+      <c r="A26" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="B26" s="1" t="s">
+        <v>422</v>
+      </c>
+      <c r="C26" s="1" t="s">
+        <v>440</v>
+      </c>
+      <c r="D26" s="1" t="s">
+        <v>441</v>
+      </c>
+      <c r="E26" s="4" t="s">
+        <v>249</v>
+      </c>
+      <c r="G26" s="4" t="s">
+        <v>442</v>
+      </c>
+    </row>
+    <row r="27" spans="1:8">
+      <c r="A27" s="1" t="s">
+        <v>117</v>
+      </c>
+      <c r="B27" s="1" t="s">
+        <v>446</v>
+      </c>
+      <c r="C27" s="1" t="s">
+        <v>467</v>
+      </c>
+      <c r="D27" s="1" t="s">
+        <v>468</v>
+      </c>
+      <c r="E27" s="4" t="s">
         <v>41</v>
       </c>
-      <c r="E17" s="4" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="18" spans="1:5">
-      <c r="A18" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="B18" s="1" t="s">
-        <v>283</v>
-      </c>
-      <c r="C18" s="1" t="s">
+      <c r="H27" s="4" t="s">
+        <v>469</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7">
+      <c r="A28" s="1" t="s">
+        <v>146</v>
+      </c>
+      <c r="B28" s="1" t="s">
+        <v>472</v>
+      </c>
+      <c r="C28" s="1" t="s">
+        <v>493</v>
+      </c>
+      <c r="D28" s="1" t="s">
+        <v>494</v>
+      </c>
+      <c r="E28" s="4" t="s">
+        <v>249</v>
+      </c>
+      <c r="G28" s="4" t="s">
+        <v>495</v>
+      </c>
+    </row>
+    <row r="29" spans="1:8">
+      <c r="A29" s="1" t="s">
+        <v>148</v>
+      </c>
+      <c r="B29" s="1" t="s">
+        <v>496</v>
+      </c>
+      <c r="C29" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="D29" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="E29" s="4" t="s">
         <v>41</v>
       </c>
-      <c r="D18" s="1" t="s">
+      <c r="H29" s="4" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="30" spans="1:7">
+      <c r="A30" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="B30" s="1" t="s">
+        <v>500</v>
+      </c>
+      <c r="C30" s="1" t="s">
+        <v>514</v>
+      </c>
+      <c r="D30" s="1" t="s">
+        <v>515</v>
+      </c>
+      <c r="E30" s="4" t="s">
+        <v>249</v>
+      </c>
+      <c r="G30" s="4" t="s">
+        <v>516</v>
+      </c>
+    </row>
+    <row r="31" spans="1:8">
+      <c r="A31" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="B31" s="1" t="s">
+        <v>517</v>
+      </c>
+      <c r="C31" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="D31" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="E31" s="4" t="s">
         <v>41</v>
       </c>
-      <c r="E18" s="4" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="19" spans="1:5">
-      <c r="A19" s="1" t="s">
-        <v>75</v>
-      </c>
-      <c r="B19" s="1" t="s">
-        <v>287</v>
-      </c>
-      <c r="C19" s="1" t="s">
-        <v>317</v>
-      </c>
-      <c r="D19" s="1" t="s">
-        <v>318</v>
-      </c>
-      <c r="E19" s="2" t="s">
-        <v>240</v>
-      </c>
-    </row>
-    <row r="20" spans="1:5">
-      <c r="A20" s="1" t="s">
-        <v>111</v>
-      </c>
-      <c r="B20" s="1" t="s">
-        <v>322</v>
-      </c>
-      <c r="C20" s="1" t="s">
-        <v>339</v>
-      </c>
-      <c r="D20" s="1" t="s">
-        <v>340</v>
-      </c>
-      <c r="E20" s="4" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="21" spans="1:5">
-      <c r="A21" s="1" t="s">
-        <v>139</v>
-      </c>
-      <c r="B21" s="1" t="s">
-        <v>344</v>
-      </c>
-      <c r="C21" s="1" t="s">
-        <v>366</v>
-      </c>
-      <c r="D21" s="1" t="s">
-        <v>367</v>
-      </c>
-      <c r="E21" s="4" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="22" spans="1:5">
-      <c r="A22" s="1" t="s">
-        <v>141</v>
-      </c>
-      <c r="B22" s="1" t="s">
-        <v>368</v>
-      </c>
-      <c r="C22" s="1" t="s">
+      <c r="H31" s="4" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="32" spans="1:8">
+      <c r="A32" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="B32" s="1" t="s">
+        <v>518</v>
+      </c>
+      <c r="C32" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="D32" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="E32" s="4" t="s">
         <v>41</v>
       </c>
-      <c r="D22" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="E22" s="4" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="23" spans="1:5">
-      <c r="A23" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="B23" s="1" t="s">
-        <v>372</v>
-      </c>
-      <c r="C23" s="1" t="s">
-        <v>400</v>
-      </c>
-      <c r="D23" s="1" t="s">
-        <v>401</v>
-      </c>
-      <c r="E23" s="2" t="s">
-        <v>140</v>
-      </c>
-    </row>
-    <row r="24" spans="1:5">
-      <c r="A24" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="B24" s="1" t="s">
-        <v>402</v>
-      </c>
-      <c r="C24" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="D24" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="E24" s="4" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="25" spans="1:5">
-      <c r="A25" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="B25" s="1" t="s">
-        <v>403</v>
-      </c>
-      <c r="C25" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="D25" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="E25" s="4" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="26" spans="1:5">
-      <c r="A26" s="1" t="s">
-        <v>75</v>
-      </c>
-      <c r="B26" s="1" t="s">
-        <v>407</v>
-      </c>
-      <c r="C26" s="1" t="s">
-        <v>425</v>
-      </c>
-      <c r="D26" s="1" t="s">
-        <v>426</v>
-      </c>
-      <c r="E26" s="2" t="s">
-        <v>240</v>
-      </c>
-    </row>
-    <row r="27" spans="1:5">
-      <c r="A27" s="1" t="s">
-        <v>111</v>
-      </c>
-      <c r="B27" s="1" t="s">
-        <v>430</v>
-      </c>
-      <c r="C27" s="1" t="s">
-        <v>451</v>
-      </c>
-      <c r="D27" s="1" t="s">
-        <v>452</v>
-      </c>
-      <c r="E27" s="4" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="28" spans="1:5">
-      <c r="A28" s="1" t="s">
-        <v>139</v>
-      </c>
-      <c r="B28" s="1" t="s">
-        <v>455</v>
-      </c>
-      <c r="C28" s="1" t="s">
-        <v>476</v>
-      </c>
-      <c r="D28" s="1" t="s">
-        <v>477</v>
-      </c>
-      <c r="E28" s="2" t="s">
-        <v>240</v>
-      </c>
-    </row>
-    <row r="29" spans="1:5">
-      <c r="A29" s="1" t="s">
-        <v>141</v>
-      </c>
-      <c r="B29" s="1" t="s">
-        <v>478</v>
-      </c>
-      <c r="C29" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="D29" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="E29" s="4" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="30" spans="1:5">
-      <c r="A30" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="B30" s="1" t="s">
-        <v>482</v>
-      </c>
-      <c r="C30" s="1" t="s">
-        <v>496</v>
-      </c>
-      <c r="D30" s="1" t="s">
-        <v>497</v>
-      </c>
-      <c r="E30" s="4" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="31" spans="1:5">
-      <c r="A31" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="B31" s="1" t="s">
-        <v>498</v>
-      </c>
-      <c r="C31" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="D31" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="E31" s="4" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="32" spans="1:5">
-      <c r="A32" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="B32" s="1" t="s">
-        <v>499</v>
-      </c>
-      <c r="C32" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="D32" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="E32" s="4" t="s">
-        <v>38</v>
+      <c r="H32" s="4" t="s">
+        <v>46</v>
       </c>
     </row>
   </sheetData>

--- a/public/output/personel-31/پرسنل31_اردیبهشت_1400.xlsx
+++ b/public/output/personel-31/پرسنل31_اردیبهشت_1400.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="520" uniqueCount="520">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="525" uniqueCount="525">
   <si>
     <t>ردیف</t>
   </si>
@@ -41,9 +41,6 @@
     <t>total</t>
   </si>
   <si>
-    <t>مجموع ماه</t>
-  </si>
-  <si>
     <t>روز</t>
   </si>
   <si>
@@ -71,16 +68,16 @@
     <t>3</t>
   </si>
   <si>
-    <t>8:52:28</t>
-  </si>
-  <si>
-    <t>8:54:14</t>
+    <t>08:52:28</t>
+  </si>
+  <si>
+    <t>08:54:14</t>
   </si>
   <si>
     <t>1400/2/1</t>
   </si>
   <si>
-    <t>0:1:46</t>
+    <t>00:01:46</t>
   </si>
   <si>
     <t>2</t>
@@ -89,13 +86,13 @@
     <t>4</t>
   </si>
   <si>
-    <t>9:2:56</t>
+    <t>09:02:56</t>
   </si>
   <si>
     <t>10:47:50</t>
   </si>
   <si>
-    <t>1:44:54</t>
+    <t>01:44:54</t>
   </si>
   <si>
     <t>10:53:41</t>
@@ -104,7 +101,7 @@
     <t>12:11:35</t>
   </si>
   <si>
-    <t>1:17:54</t>
+    <t>01:17:54</t>
   </si>
   <si>
     <t>12:20:49</t>
@@ -113,7 +110,7 @@
     <t>14:10:50</t>
   </si>
   <si>
-    <t>1:50:1</t>
+    <t>01:50:01</t>
   </si>
   <si>
     <t>5</t>
@@ -122,16 +119,16 @@
     <t>14:48:14</t>
   </si>
   <si>
-    <t>15:18:3</t>
-  </si>
-  <si>
-    <t>0:29:49</t>
-  </si>
-  <si>
-    <t>5:24:24</t>
-  </si>
-  <si>
-    <t>6:25:35</t>
+    <t>15:18:03</t>
+  </si>
+  <si>
+    <t>00:29:49</t>
+  </si>
+  <si>
+    <t>05:24:24</t>
+  </si>
+  <si>
+    <t>06:25:35</t>
   </si>
   <si>
     <t>چهارشنبه</t>
@@ -140,7 +137,7 @@
     <t>غیبت (ساعتی)</t>
   </si>
   <si>
-    <t>2:5:36</t>
+    <t>02:05:36</t>
   </si>
   <si>
     <t>پنج شنبه</t>
@@ -149,10 +146,10 @@
     <t>1400/2/2</t>
   </si>
   <si>
-    <t>0:0:0</t>
-  </si>
-  <si>
-    <t>7:30:0</t>
+    <t>00:00:00</t>
+  </si>
+  <si>
+    <t>تعطیل</t>
   </si>
   <si>
     <t>جمعه</t>
@@ -164,40 +161,40 @@
     <t>6</t>
   </si>
   <si>
-    <t>9:59:29</t>
-  </si>
-  <si>
-    <t>9:59:49</t>
+    <t>09:59:29</t>
+  </si>
+  <si>
+    <t>09:59:49</t>
   </si>
   <si>
     <t>1400/2/4</t>
   </si>
   <si>
-    <t>0:0:20</t>
+    <t>00:00:20</t>
   </si>
   <si>
     <t>7</t>
   </si>
   <si>
-    <t>10:0:58</t>
-  </si>
-  <si>
-    <t>10:4:6</t>
-  </si>
-  <si>
-    <t>0:3:8</t>
+    <t>10:00:58</t>
+  </si>
+  <si>
+    <t>10:04:06</t>
+  </si>
+  <si>
+    <t>00:03:08</t>
   </si>
   <si>
     <t>8</t>
   </si>
   <si>
-    <t>10:8:42</t>
+    <t>10:08:42</t>
   </si>
   <si>
     <t>10:37:25</t>
   </si>
   <si>
-    <t>0:28:43</t>
+    <t>00:28:43</t>
   </si>
   <si>
     <t>9</t>
@@ -206,22 +203,22 @@
     <t>10:43:20</t>
   </si>
   <si>
-    <t>12:44:4</t>
-  </si>
-  <si>
-    <t>2:0:44</t>
+    <t>12:44:04</t>
+  </si>
+  <si>
+    <t>02:00:44</t>
   </si>
   <si>
     <t>10</t>
   </si>
   <si>
-    <t>12:55:1</t>
+    <t>12:55:01</t>
   </si>
   <si>
     <t>14:18:57</t>
   </si>
   <si>
-    <t>1:23:56</t>
+    <t>01:23:56</t>
   </si>
   <si>
     <t>11</t>
@@ -233,7 +230,7 @@
     <t>17:46:49</t>
   </si>
   <si>
-    <t>3:3:23</t>
+    <t>03:03:23</t>
   </si>
   <si>
     <t>12</t>
@@ -245,13 +242,13 @@
     <t>18:46:15</t>
   </si>
   <si>
-    <t>0:53:56</t>
-  </si>
-  <si>
-    <t>7:54:10</t>
-  </si>
-  <si>
-    <t>8:46:46</t>
+    <t>00:53:56</t>
+  </si>
+  <si>
+    <t>07:54:10</t>
+  </si>
+  <si>
+    <t>08:46:46</t>
   </si>
   <si>
     <t>شنبه</t>
@@ -263,7 +260,7 @@
     <t>13</t>
   </si>
   <si>
-    <t>10:18:5</t>
+    <t>10:18:05</t>
   </si>
   <si>
     <t>10:18:29</t>
@@ -272,7 +269,7 @@
     <t>1400/2/5</t>
   </si>
   <si>
-    <t>0:0:24</t>
+    <t>00:00:24</t>
   </si>
   <si>
     <t>14</t>
@@ -284,7 +281,7 @@
     <t>10:22:33</t>
   </si>
   <si>
-    <t>0:3:19</t>
+    <t>00:03:19</t>
   </si>
   <si>
     <t>15</t>
@@ -296,19 +293,19 @@
     <t>12:55:48</t>
   </si>
   <si>
-    <t>2:27:55</t>
+    <t>02:27:55</t>
   </si>
   <si>
     <t>16</t>
   </si>
   <si>
-    <t>13:1:46</t>
+    <t>13:01:46</t>
   </si>
   <si>
     <t>14:27:25</t>
   </si>
   <si>
-    <t>1:25:39</t>
+    <t>01:25:39</t>
   </si>
   <si>
     <t>17</t>
@@ -320,7 +317,7 @@
     <t>14:35:40</t>
   </si>
   <si>
-    <t>0:1:56</t>
+    <t>00:01:56</t>
   </si>
   <si>
     <t>18</t>
@@ -332,19 +329,19 @@
     <t>16:49:12</t>
   </si>
   <si>
-    <t>1:31:35</t>
+    <t>01:31:35</t>
   </si>
   <si>
     <t>19</t>
   </si>
   <si>
-    <t>17:1:7</t>
+    <t>17:01:07</t>
   </si>
   <si>
     <t>17:52:42</t>
   </si>
   <si>
-    <t>0:51:35</t>
+    <t>00:51:35</t>
   </si>
   <si>
     <t>20</t>
@@ -356,58 +353,58 @@
     <t>17:53:50</t>
   </si>
   <si>
-    <t>0:0:9</t>
-  </si>
-  <si>
-    <t>6:22:32</t>
-  </si>
-  <si>
-    <t>7:35:45</t>
+    <t>00:00:09</t>
+  </si>
+  <si>
+    <t>06:22:32</t>
+  </si>
+  <si>
+    <t>07:35:45</t>
   </si>
   <si>
     <t>یکشنبه</t>
   </si>
   <si>
-    <t>1:7:28</t>
+    <t>01:07:28</t>
   </si>
   <si>
     <t>21</t>
   </si>
   <si>
-    <t>9:40:49</t>
-  </si>
-  <si>
-    <t>9:43:38</t>
+    <t>09:40:49</t>
+  </si>
+  <si>
+    <t>09:43:38</t>
   </si>
   <si>
     <t>1400/2/6</t>
   </si>
   <si>
-    <t>0:2:49</t>
+    <t>00:02:49</t>
   </si>
   <si>
     <t>22</t>
   </si>
   <si>
-    <t>9:48:11</t>
+    <t>09:48:11</t>
   </si>
   <si>
     <t>10:35:20</t>
   </si>
   <si>
-    <t>0:47:9</t>
+    <t>00:47:09</t>
   </si>
   <si>
     <t>23</t>
   </si>
   <si>
-    <t>10:39:1</t>
+    <t>10:39:01</t>
   </si>
   <si>
     <t>11:46:15</t>
   </si>
   <si>
-    <t>1:7:14</t>
+    <t>01:07:14</t>
   </si>
   <si>
     <t>24</t>
@@ -419,19 +416,19 @@
     <t>14:25:57</t>
   </si>
   <si>
-    <t>2:33:17</t>
+    <t>02:33:17</t>
   </si>
   <si>
     <t>25</t>
   </si>
   <si>
-    <t>15:6:2</t>
-  </si>
-  <si>
-    <t>18:7:15</t>
-  </si>
-  <si>
-    <t>3:1:13</t>
+    <t>15:06:02</t>
+  </si>
+  <si>
+    <t>18:07:15</t>
+  </si>
+  <si>
+    <t>03:01:13</t>
   </si>
   <si>
     <t>26</t>
@@ -443,19 +440,19 @@
     <t>19:21:55</t>
   </si>
   <si>
-    <t>0:40:40</t>
-  </si>
-  <si>
-    <t>8:12:22</t>
-  </si>
-  <si>
-    <t>9:41:6</t>
+    <t>00:40:40</t>
+  </si>
+  <si>
+    <t>08:12:22</t>
+  </si>
+  <si>
+    <t>09:41:06</t>
   </si>
   <si>
     <t>دوشنبه</t>
   </si>
   <si>
-    <t>0:42:22</t>
+    <t>00:42:22</t>
   </si>
   <si>
     <t>سه شنبه</t>
@@ -464,55 +461,58 @@
     <t>1400/2/7</t>
   </si>
   <si>
+    <t>07:30:00</t>
+  </si>
+  <si>
     <t>27</t>
   </si>
   <si>
-    <t>8:54:48</t>
-  </si>
-  <si>
-    <t>8:55:9</t>
+    <t>08:54:48</t>
+  </si>
+  <si>
+    <t>08:55:09</t>
   </si>
   <si>
     <t>1400/2/8</t>
   </si>
   <si>
-    <t>0:0:21</t>
+    <t>00:00:21</t>
   </si>
   <si>
     <t>28</t>
   </si>
   <si>
-    <t>8:55:50</t>
-  </si>
-  <si>
-    <t>8:59:21</t>
-  </si>
-  <si>
-    <t>0:3:31</t>
+    <t>08:55:50</t>
+  </si>
+  <si>
+    <t>08:59:21</t>
+  </si>
+  <si>
+    <t>00:03:31</t>
   </si>
   <si>
     <t>29</t>
   </si>
   <si>
-    <t>9:4:53</t>
-  </si>
-  <si>
-    <t>9:46:56</t>
-  </si>
-  <si>
-    <t>0:42:3</t>
+    <t>09:04:53</t>
+  </si>
+  <si>
+    <t>09:46:56</t>
+  </si>
+  <si>
+    <t>00:42:03</t>
   </si>
   <si>
     <t>30</t>
   </si>
   <si>
-    <t>10:8:17</t>
+    <t>10:08:17</t>
   </si>
   <si>
     <t>11:41:13</t>
   </si>
   <si>
-    <t>1:32:56</t>
+    <t>01:32:56</t>
   </si>
   <si>
     <t>31</t>
@@ -521,22 +521,22 @@
     <t>11:47:54</t>
   </si>
   <si>
-    <t>13:47:7</t>
-  </si>
-  <si>
-    <t>1:59:13</t>
+    <t>13:47:07</t>
+  </si>
+  <si>
+    <t>01:59:13</t>
   </si>
   <si>
     <t>32</t>
   </si>
   <si>
-    <t>14:12:8</t>
+    <t>14:12:08</t>
   </si>
   <si>
     <t>16:19:21</t>
   </si>
   <si>
-    <t>2:7:13</t>
+    <t>02:07:13</t>
   </si>
   <si>
     <t>33</t>
@@ -545,10 +545,10 @@
     <t>16:26:11</t>
   </si>
   <si>
-    <t>18:20:7</t>
-  </si>
-  <si>
-    <t>1:53:56</t>
+    <t>18:20:07</t>
+  </si>
+  <si>
+    <t>01:53:56</t>
   </si>
   <si>
     <t>34</t>
@@ -560,16 +560,16 @@
     <t>18:36:22</t>
   </si>
   <si>
-    <t>0:7:26</t>
-  </si>
-  <si>
-    <t>8:26:39</t>
-  </si>
-  <si>
-    <t>9:41:34</t>
-  </si>
-  <si>
-    <t>0:56:39</t>
+    <t>00:07:26</t>
+  </si>
+  <si>
+    <t>08:26:39</t>
+  </si>
+  <si>
+    <t>09:41:34</t>
+  </si>
+  <si>
+    <t>00:56:39</t>
   </si>
   <si>
     <t>1400/2/9</t>
@@ -581,10 +581,10 @@
     <t>35</t>
   </si>
   <si>
-    <t>9:38:18</t>
-  </si>
-  <si>
-    <t>9:38:38</t>
+    <t>09:38:18</t>
+  </si>
+  <si>
+    <t>09:38:38</t>
   </si>
   <si>
     <t>1400/2/11</t>
@@ -593,25 +593,25 @@
     <t>36</t>
   </si>
   <si>
-    <t>9:39:27</t>
-  </si>
-  <si>
-    <t>9:43:14</t>
-  </si>
-  <si>
-    <t>0:3:47</t>
+    <t>09:39:27</t>
+  </si>
+  <si>
+    <t>09:43:14</t>
+  </si>
+  <si>
+    <t>00:03:47</t>
   </si>
   <si>
     <t>37</t>
   </si>
   <si>
-    <t>9:52:26</t>
+    <t>09:52:26</t>
   </si>
   <si>
     <t>11:15:34</t>
   </si>
   <si>
-    <t>1:23:8</t>
+    <t>01:23:08</t>
   </si>
   <si>
     <t>38</t>
@@ -623,19 +623,19 @@
     <t>13:32:39</t>
   </si>
   <si>
-    <t>1:36:48</t>
+    <t>01:36:48</t>
   </si>
   <si>
     <t>39</t>
   </si>
   <si>
-    <t>13:37:9</t>
-  </si>
-  <si>
-    <t>14:2:18</t>
-  </si>
-  <si>
-    <t>0:25:9</t>
+    <t>13:37:09</t>
+  </si>
+  <si>
+    <t>14:02:18</t>
+  </si>
+  <si>
+    <t>00:25:09</t>
   </si>
   <si>
     <t>40</t>
@@ -647,7 +647,7 @@
     <t>16:30:56</t>
   </si>
   <si>
-    <t>1:37:18</t>
+    <t>01:37:18</t>
   </si>
   <si>
     <t>41</t>
@@ -656,10 +656,10 @@
     <t>16:35:57</t>
   </si>
   <si>
-    <t>17:28:9</t>
-  </si>
-  <si>
-    <t>0:52:12</t>
+    <t>17:28:09</t>
+  </si>
+  <si>
+    <t>00:52:12</t>
   </si>
   <si>
     <t>42</t>
@@ -671,22 +671,22 @@
     <t>18:42:10</t>
   </si>
   <si>
-    <t>0:43:38</t>
-  </si>
-  <si>
-    <t>6:42:20</t>
-  </si>
-  <si>
-    <t>9:3:52</t>
-  </si>
-  <si>
-    <t>0:47:40</t>
+    <t>00:43:38</t>
+  </si>
+  <si>
+    <t>06:42:20</t>
+  </si>
+  <si>
+    <t>09:03:52</t>
+  </si>
+  <si>
+    <t>00:47:40</t>
   </si>
   <si>
     <t>43</t>
   </si>
   <si>
-    <t>11:9:52</t>
+    <t>11:09:52</t>
   </si>
   <si>
     <t>11:12:26</t>
@@ -695,7 +695,7 @@
     <t>1400/2/12</t>
   </si>
   <si>
-    <t>0:2:34</t>
+    <t>00:02:34</t>
   </si>
   <si>
     <t>44</t>
@@ -707,16 +707,16 @@
     <t>13:55:27</t>
   </si>
   <si>
-    <t>2:37:14</t>
+    <t>02:37:14</t>
   </si>
   <si>
     <t>45</t>
   </si>
   <si>
-    <t>14:8:24</t>
-  </si>
-  <si>
-    <t>14:8:45</t>
+    <t>14:08:24</t>
+  </si>
+  <si>
+    <t>14:08:45</t>
   </si>
   <si>
     <t>46</t>
@@ -728,19 +728,19 @@
     <t>16:54:29</t>
   </si>
   <si>
-    <t>2:21:43</t>
+    <t>02:21:43</t>
   </si>
   <si>
     <t>47</t>
   </si>
   <si>
-    <t>17:1:25</t>
+    <t>17:01:25</t>
   </si>
   <si>
     <t>18:20:17</t>
   </si>
   <si>
-    <t>1:18:52</t>
+    <t>01:18:52</t>
   </si>
   <si>
     <t>48</t>
@@ -752,46 +752,46 @@
     <t>20:10:24</t>
   </si>
   <si>
-    <t>1:46:41</t>
-  </si>
-  <si>
-    <t>8:7:25</t>
-  </si>
-  <si>
-    <t>9:0:32</t>
+    <t>01:46:41</t>
+  </si>
+  <si>
+    <t>08:07:25</t>
+  </si>
+  <si>
+    <t>09:00:32</t>
   </si>
   <si>
     <t>غیبت (تاخیر در ورود)</t>
   </si>
   <si>
-    <t>1:9:52</t>
+    <t>01:09:52</t>
   </si>
   <si>
     <t>49</t>
   </si>
   <si>
-    <t>9:12:23</t>
-  </si>
-  <si>
-    <t>9:16:4</t>
+    <t>09:12:23</t>
+  </si>
+  <si>
+    <t>09:16:04</t>
   </si>
   <si>
     <t>1400/2/13</t>
   </si>
   <si>
-    <t>0:3:41</t>
+    <t>00:03:41</t>
   </si>
   <si>
     <t>50</t>
   </si>
   <si>
-    <t>9:21:58</t>
-  </si>
-  <si>
-    <t>9:59:10</t>
-  </si>
-  <si>
-    <t>0:37:12</t>
+    <t>09:21:58</t>
+  </si>
+  <si>
+    <t>09:59:10</t>
+  </si>
+  <si>
+    <t>00:37:12</t>
   </si>
   <si>
     <t>51</t>
@@ -803,7 +803,7 @@
     <t>12:34:56</t>
   </si>
   <si>
-    <t>2:23:8</t>
+    <t>02:23:08</t>
   </si>
   <si>
     <t>52</t>
@@ -812,10 +812,10 @@
     <t>12:41:37</t>
   </si>
   <si>
-    <t>14:31:8</t>
-  </si>
-  <si>
-    <t>1:49:31</t>
+    <t>14:31:08</t>
+  </si>
+  <si>
+    <t>01:49:31</t>
   </si>
   <si>
     <t>53</t>
@@ -827,7 +827,7 @@
     <t>17:13:50</t>
   </si>
   <si>
-    <t>1:58:39</t>
+    <t>01:58:39</t>
   </si>
   <si>
     <t>54</t>
@@ -839,52 +839,52 @@
     <t>18:53:41</t>
   </si>
   <si>
-    <t>1:20:15</t>
+    <t>01:20:15</t>
   </si>
   <si>
     <t>55</t>
   </si>
   <si>
-    <t>19:19:4</t>
+    <t>19:19:04</t>
   </si>
   <si>
     <t>19:57:33</t>
   </si>
   <si>
-    <t>0:38:29</t>
+    <t>00:38:29</t>
   </si>
   <si>
     <t>56</t>
   </si>
   <si>
-    <t>20:4:50</t>
+    <t>20:04:50</t>
   </si>
   <si>
     <t>20:44:28</t>
   </si>
   <si>
-    <t>0:39:38</t>
+    <t>00:39:38</t>
   </si>
   <si>
     <t>57</t>
   </si>
   <si>
-    <t>21:8:50</t>
+    <t>21:08:50</t>
   </si>
   <si>
     <t>21:38:29</t>
   </si>
   <si>
-    <t>0:29:39</t>
-  </si>
-  <si>
-    <t>10:0:12</t>
-  </si>
-  <si>
-    <t>12:26:6</t>
-  </si>
-  <si>
-    <t>2:30:12</t>
+    <t>00:29:39</t>
+  </si>
+  <si>
+    <t>10:00:12</t>
+  </si>
+  <si>
+    <t>12:26:06</t>
+  </si>
+  <si>
+    <t>02:30:12</t>
   </si>
   <si>
     <t>1400/2/14</t>
@@ -911,55 +911,55 @@
     <t>1400/2/18</t>
   </si>
   <si>
-    <t>0:0:23</t>
+    <t>00:00:23</t>
   </si>
   <si>
     <t>59</t>
   </si>
   <si>
-    <t>10:19:5</t>
-  </si>
-  <si>
-    <t>10:22:6</t>
-  </si>
-  <si>
-    <t>0:3:1</t>
+    <t>10:19:05</t>
+  </si>
+  <si>
+    <t>10:22:06</t>
+  </si>
+  <si>
+    <t>00:03:01</t>
   </si>
   <si>
     <t>60</t>
   </si>
   <si>
-    <t>10:32:1</t>
-  </si>
-  <si>
-    <t>13:12:9</t>
-  </si>
-  <si>
-    <t>2:40:8</t>
+    <t>10:32:01</t>
+  </si>
+  <si>
+    <t>13:12:09</t>
+  </si>
+  <si>
+    <t>02:40:08</t>
   </si>
   <si>
     <t>61</t>
   </si>
   <si>
-    <t>13:25:5</t>
+    <t>13:25:05</t>
   </si>
   <si>
     <t>14:22:41</t>
   </si>
   <si>
-    <t>0:57:36</t>
+    <t>00:57:36</t>
   </si>
   <si>
     <t>62</t>
   </si>
   <si>
-    <t>15:4:48</t>
+    <t>15:04:48</t>
   </si>
   <si>
     <t>16:11:25</t>
   </si>
   <si>
-    <t>1:6:37</t>
+    <t>01:06:37</t>
   </si>
   <si>
     <t>63</t>
@@ -971,7 +971,7 @@
     <t>16:47:16</t>
   </si>
   <si>
-    <t>0:30:49</t>
+    <t>00:30:49</t>
   </si>
   <si>
     <t>64</t>
@@ -983,37 +983,37 @@
     <t>17:55:33</t>
   </si>
   <si>
-    <t>0:55:54</t>
+    <t>00:55:54</t>
   </si>
   <si>
     <t>65</t>
   </si>
   <si>
-    <t>18:3:32</t>
+    <t>18:03:32</t>
   </si>
   <si>
     <t>19:42:27</t>
   </si>
   <si>
-    <t>1:38:55</t>
-  </si>
-  <si>
-    <t>7:53:23</t>
-  </si>
-  <si>
-    <t>9:24:39</t>
-  </si>
-  <si>
-    <t>0:17:48</t>
+    <t>01:38:55</t>
+  </si>
+  <si>
+    <t>07:53:23</t>
+  </si>
+  <si>
+    <t>09:24:39</t>
+  </si>
+  <si>
+    <t>00:17:48</t>
   </si>
   <si>
     <t>66</t>
   </si>
   <si>
-    <t>9:55:17</t>
-  </si>
-  <si>
-    <t>9:55:38</t>
+    <t>09:55:17</t>
+  </si>
+  <si>
+    <t>09:55:38</t>
   </si>
   <si>
     <t>1400/2/19</t>
@@ -1022,25 +1022,25 @@
     <t>67</t>
   </si>
   <si>
-    <t>10:1:19</t>
+    <t>10:01:19</t>
   </si>
   <si>
     <t>11:50:27</t>
   </si>
   <si>
-    <t>1:49:8</t>
+    <t>01:49:08</t>
   </si>
   <si>
     <t>68</t>
   </si>
   <si>
-    <t>12:2:27</t>
-  </si>
-  <si>
-    <t>14:0:0</t>
-  </si>
-  <si>
-    <t>1:57:33</t>
+    <t>12:02:27</t>
+  </si>
+  <si>
+    <t>14:00:00</t>
+  </si>
+  <si>
+    <t>01:57:33</t>
   </si>
   <si>
     <t>69</t>
@@ -1049,31 +1049,31 @@
     <t>14:38:56</t>
   </si>
   <si>
-    <t>17:3:9</t>
-  </si>
-  <si>
-    <t>2:24:13</t>
+    <t>17:03:09</t>
+  </si>
+  <si>
+    <t>02:24:13</t>
   </si>
   <si>
     <t>70</t>
   </si>
   <si>
-    <t>17:9:0</t>
+    <t>17:09:00</t>
   </si>
   <si>
     <t>17:18:25</t>
   </si>
   <si>
-    <t>0:9:25</t>
-  </si>
-  <si>
-    <t>6:20:40</t>
-  </si>
-  <si>
-    <t>7:23:8</t>
-  </si>
-  <si>
-    <t>1:9:20</t>
+    <t>00:09:25</t>
+  </si>
+  <si>
+    <t>06:20:40</t>
+  </si>
+  <si>
+    <t>07:23:08</t>
+  </si>
+  <si>
+    <t>01:09:20</t>
   </si>
   <si>
     <t>71</t>
@@ -1088,7 +1088,7 @@
     <t>1400/2/20</t>
   </si>
   <si>
-    <t>0:4:21</t>
+    <t>00:04:21</t>
   </si>
   <si>
     <t>72</t>
@@ -1100,19 +1100,19 @@
     <t>13:34:34</t>
   </si>
   <si>
-    <t>2:4:48</t>
+    <t>02:04:48</t>
   </si>
   <si>
     <t>73</t>
   </si>
   <si>
-    <t>13:45:2</t>
+    <t>13:45:02</t>
   </si>
   <si>
     <t>13:49:34</t>
   </si>
   <si>
-    <t>0:4:32</t>
+    <t>00:04:32</t>
   </si>
   <si>
     <t>74</t>
@@ -1121,10 +1121,10 @@
     <t>14:28:18</t>
   </si>
   <si>
-    <t>16:29:3</t>
-  </si>
-  <si>
-    <t>2:0:45</t>
+    <t>16:29:03</t>
+  </si>
+  <si>
+    <t>02:00:45</t>
   </si>
   <si>
     <t>75</t>
@@ -1136,7 +1136,7 @@
     <t>18:31:50</t>
   </si>
   <si>
-    <t>0:51:19</t>
+    <t>00:51:19</t>
   </si>
   <si>
     <t>76</t>
@@ -1148,16 +1148,16 @@
     <t>20:17:54</t>
   </si>
   <si>
-    <t>0:58:19</t>
-  </si>
-  <si>
-    <t>6:4:4</t>
-  </si>
-  <si>
-    <t>8:58:19</t>
-  </si>
-  <si>
-    <t>1:25:56</t>
+    <t>00:58:19</t>
+  </si>
+  <si>
+    <t>06:04:04</t>
+  </si>
+  <si>
+    <t>08:58:19</t>
+  </si>
+  <si>
+    <t>01:25:56</t>
   </si>
   <si>
     <t>1400/2/21</t>
@@ -1166,10 +1166,10 @@
     <t>77</t>
   </si>
   <si>
-    <t>9:40:21</t>
-  </si>
-  <si>
-    <t>9:40:42</t>
+    <t>09:40:21</t>
+  </si>
+  <si>
+    <t>09:40:42</t>
   </si>
   <si>
     <t>1400/2/22</t>
@@ -1178,19 +1178,19 @@
     <t>78</t>
   </si>
   <si>
-    <t>9:41:59</t>
-  </si>
-  <si>
-    <t>11:7:41</t>
-  </si>
-  <si>
-    <t>1:25:42</t>
+    <t>09:41:59</t>
+  </si>
+  <si>
+    <t>11:07:41</t>
+  </si>
+  <si>
+    <t>01:25:42</t>
   </si>
   <si>
     <t>79</t>
   </si>
   <si>
-    <t>11:14:1</t>
+    <t>11:14:01</t>
   </si>
   <si>
     <t>12:11:37</t>
@@ -1199,13 +1199,13 @@
     <t>80</t>
   </si>
   <si>
-    <t>12:32:7</t>
-  </si>
-  <si>
-    <t>13:49:7</t>
-  </si>
-  <si>
-    <t>1:17:0</t>
+    <t>12:32:07</t>
+  </si>
+  <si>
+    <t>13:49:07</t>
+  </si>
+  <si>
+    <t>01:17:00</t>
   </si>
   <si>
     <t>81</t>
@@ -1217,7 +1217,7 @@
     <t>16:58:57</t>
   </si>
   <si>
-    <t>2:28:16</t>
+    <t>02:28:16</t>
   </si>
   <si>
     <t>82</t>
@@ -1229,7 +1229,7 @@
     <t>17:21:53</t>
   </si>
   <si>
-    <t>0:0:27</t>
+    <t>00:00:27</t>
   </si>
   <si>
     <t>83</t>
@@ -1241,7 +1241,7 @@
     <t>19:57:43</t>
   </si>
   <si>
-    <t>2:22:12</t>
+    <t>02:22:12</t>
   </si>
   <si>
     <t>84</t>
@@ -1250,19 +1250,19 @@
     <t>19:58:45</t>
   </si>
   <si>
-    <t>20:0:23</t>
-  </si>
-  <si>
-    <t>0:1:38</t>
-  </si>
-  <si>
-    <t>8:33:12</t>
-  </si>
-  <si>
-    <t>10:20:2</t>
-  </si>
-  <si>
-    <t>1:3:12</t>
+    <t>20:00:23</t>
+  </si>
+  <si>
+    <t>00:01:38</t>
+  </si>
+  <si>
+    <t>08:33:12</t>
+  </si>
+  <si>
+    <t>10:20:02</t>
+  </si>
+  <si>
+    <t>01:03:12</t>
   </si>
   <si>
     <t>1400/2/23</t>
@@ -1283,19 +1283,19 @@
     <t>1400/2/25</t>
   </si>
   <si>
-    <t>2:34:48</t>
+    <t>02:34:48</t>
   </si>
   <si>
     <t>86</t>
   </si>
   <si>
-    <t>13:4:9</t>
-  </si>
-  <si>
-    <t>14:18:3</t>
-  </si>
-  <si>
-    <t>1:13:54</t>
+    <t>13:04:09</t>
+  </si>
+  <si>
+    <t>14:18:03</t>
+  </si>
+  <si>
+    <t>01:13:54</t>
   </si>
   <si>
     <t>87</t>
@@ -1307,19 +1307,19 @@
     <t>16:56:44</t>
   </si>
   <si>
-    <t>1:46:21</t>
+    <t>01:46:21</t>
   </si>
   <si>
     <t>88</t>
   </si>
   <si>
-    <t>17:3:52</t>
-  </si>
-  <si>
-    <t>18:5:23</t>
-  </si>
-  <si>
-    <t>1:1:31</t>
+    <t>17:03:52</t>
+  </si>
+  <si>
+    <t>18:05:23</t>
+  </si>
+  <si>
+    <t>01:01:31</t>
   </si>
   <si>
     <t>89</t>
@@ -1328,19 +1328,19 @@
     <t>18:38:45</t>
   </si>
   <si>
-    <t>20:6:33</t>
-  </si>
-  <si>
-    <t>1:27:48</t>
-  </si>
-  <si>
-    <t>8:4:22</t>
-  </si>
-  <si>
-    <t>9:48:9</t>
-  </si>
-  <si>
-    <t>0:18:24</t>
+    <t>20:06:33</t>
+  </si>
+  <si>
+    <t>01:27:48</t>
+  </si>
+  <si>
+    <t>08:04:22</t>
+  </si>
+  <si>
+    <t>09:48:09</t>
+  </si>
+  <si>
+    <t>00:18:24</t>
   </si>
   <si>
     <t>90</t>
@@ -1364,19 +1364,19 @@
     <t>11:24:47</t>
   </si>
   <si>
-    <t>0:10:51</t>
+    <t>00:10:51</t>
   </si>
   <si>
     <t>92</t>
   </si>
   <si>
-    <t>11:33:5</t>
-  </si>
-  <si>
-    <t>14:3:44</t>
-  </si>
-  <si>
-    <t>2:30:39</t>
+    <t>11:33:05</t>
+  </si>
+  <si>
+    <t>14:03:44</t>
+  </si>
+  <si>
+    <t>02:30:39</t>
   </si>
   <si>
     <t>93</t>
@@ -1385,43 +1385,43 @@
     <t>14:44:59</t>
   </si>
   <si>
-    <t>16:6:57</t>
-  </si>
-  <si>
-    <t>1:21:58</t>
+    <t>16:06:57</t>
+  </si>
+  <si>
+    <t>01:21:58</t>
   </si>
   <si>
     <t>94</t>
   </si>
   <si>
-    <t>17:5:14</t>
+    <t>17:05:14</t>
   </si>
   <si>
     <t>17:13:47</t>
   </si>
   <si>
-    <t>0:8:33</t>
+    <t>00:08:33</t>
   </si>
   <si>
     <t>95</t>
   </si>
   <si>
-    <t>17:17:7</t>
+    <t>17:17:07</t>
   </si>
   <si>
     <t>17:19:29</t>
   </si>
   <si>
-    <t>0:2:22</t>
-  </si>
-  <si>
-    <t>4:14:46</t>
-  </si>
-  <si>
-    <t>6:6:39</t>
-  </si>
-  <si>
-    <t>3:15:14</t>
+    <t>00:02:22</t>
+  </si>
+  <si>
+    <t>04:14:46</t>
+  </si>
+  <si>
+    <t>06:06:39</t>
+  </si>
+  <si>
+    <t>03:15:14</t>
   </si>
   <si>
     <t>96</t>
@@ -1442,7 +1442,7 @@
     <t>11:40:14</t>
   </si>
   <si>
-    <t>1:21:32</t>
+    <t>01:21:32</t>
   </si>
   <si>
     <t>98</t>
@@ -1454,7 +1454,7 @@
     <t>13:35:38</t>
   </si>
   <si>
-    <t>1:48:42</t>
+    <t>01:48:42</t>
   </si>
   <si>
     <t>99</t>
@@ -1466,7 +1466,7 @@
     <t>15:18:17</t>
   </si>
   <si>
-    <t>0:40:37</t>
+    <t>00:40:37</t>
   </si>
   <si>
     <t>100</t>
@@ -1475,10 +1475,10 @@
     <t>15:26:17</t>
   </si>
   <si>
-    <t>16:31:2</t>
-  </si>
-  <si>
-    <t>1:4:45</t>
+    <t>16:31:02</t>
+  </si>
+  <si>
+    <t>01:04:45</t>
   </si>
   <si>
     <t>101</t>
@@ -1490,16 +1490,16 @@
     <t>20:22:44</t>
   </si>
   <si>
-    <t>3:40:27</t>
-  </si>
-  <si>
-    <t>8:36:24</t>
-  </si>
-  <si>
-    <t>10:5:17</t>
-  </si>
-  <si>
-    <t>0:17:27</t>
+    <t>03:40:27</t>
+  </si>
+  <si>
+    <t>08:36:24</t>
+  </si>
+  <si>
+    <t>10:05:17</t>
+  </si>
+  <si>
+    <t>00:17:27</t>
   </si>
   <si>
     <t>1400/2/28</t>
@@ -1508,40 +1508,40 @@
     <t>102</t>
   </si>
   <si>
-    <t>10:52:7</t>
-  </si>
-  <si>
-    <t>12:1:54</t>
+    <t>10:52:07</t>
+  </si>
+  <si>
+    <t>12:01:54</t>
   </si>
   <si>
     <t>1400/2/29</t>
   </si>
   <si>
-    <t>1:9:47</t>
+    <t>01:09:47</t>
   </si>
   <si>
     <t>103</t>
   </si>
   <si>
-    <t>12:6:34</t>
+    <t>12:06:34</t>
   </si>
   <si>
     <t>13:37:50</t>
   </si>
   <si>
-    <t>1:31:16</t>
+    <t>01:31:16</t>
   </si>
   <si>
     <t>104</t>
   </si>
   <si>
-    <t>14:3:41</t>
+    <t>14:03:41</t>
   </si>
   <si>
     <t>19:15:12</t>
   </si>
   <si>
-    <t>5:11:31</t>
+    <t>05:11:31</t>
   </si>
   <si>
     <t>105</t>
@@ -1553,16 +1553,16 @@
     <t>19:15:59</t>
   </si>
   <si>
-    <t>0:0:3</t>
-  </si>
-  <si>
-    <t>7:52:37</t>
-  </si>
-  <si>
-    <t>8:23:52</t>
-  </si>
-  <si>
-    <t>0:52:7</t>
+    <t>00:00:03</t>
+  </si>
+  <si>
+    <t>07:52:37</t>
+  </si>
+  <si>
+    <t>08:23:52</t>
+  </si>
+  <si>
+    <t>00:52:07</t>
   </si>
   <si>
     <t>1400/2/30</t>
@@ -1571,7 +1571,22 @@
     <t>1400/2/31</t>
   </si>
   <si>
+    <t>مجموع</t>
+  </si>
+  <si>
     <t>118:49:32</t>
+  </si>
+  <si>
+    <t>143:11:21</t>
+  </si>
+  <si>
+    <t>05:12:25</t>
+  </si>
+  <si>
+    <t>02:55:38</t>
+  </si>
+  <si>
+    <t>47:21:14</t>
   </si>
 </sst>
 </file>
@@ -1581,7 +1596,7 @@
   <numFmts count="1">
     <numFmt formatCode="$#,##0.00; ($#,##0.00); -" numFmtId="164"/>
   </numFmts>
-  <fonts count="5">
+  <fonts count="6">
     <font>
       <sz val="12"/>
       <color rgb="FF000000"/>
@@ -1609,6 +1624,12 @@
     <font>
       <sz val="12"/>
       <color rgb="FFAA0000"/>
+      <name val="Calibri"/>
+      <family val="1"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FFCCCCCC"/>
       <name val="Calibri"/>
       <family val="1"/>
     </font>
@@ -1642,12 +1663,13 @@
       <diagonal/>
     </border>
   </borders>
-  <cellXfs count="7">
+  <cellXfs count="8">
     <xf applyFont="1" fontId="0"/>
     <xf applyFont="1" fontId="1" applyNumberFormat="1" numFmtId="164"/>
     <xf applyFont="1" fontId="2" applyNumberFormat="1" numFmtId="164"/>
     <xf applyFont="1" fontId="3" applyNumberFormat="1" numFmtId="164"/>
     <xf applyFont="1" fontId="4" applyNumberFormat="1" numFmtId="164"/>
+    <xf applyFont="1" fontId="5" applyNumberFormat="1" numFmtId="164"/>
     <xf applyFont="1" fontId="1" applyFill="1" fillId="2" applyNumberFormat="1" numFmtId="164"/>
     <xf applyFont="1" fontId="1" applyFill="1" fillId="3" applyNumberFormat="1" numFmtId="164"/>
   </cellXfs>
@@ -1656,13 +1678,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:J106"/>
+  <dimension ref="A1:I108"/>
   <sheetViews>
     <sheetView showGridLines="1" workbookViewId="0" rightToLeft="0" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
   <sheetData>
-    <row r="1" spans="1:10">
+    <row r="1" spans="1:9">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1690,652 +1712,646 @@
       <c r="I1" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="1" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="2" spans="1:10">
-      <c r="A2" s="5" t="s">
-        <v>17</v>
-      </c>
-      <c r="B2" s="5" t="s">
+    </row>
+    <row r="2" spans="1:7">
+      <c r="A2" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="B2" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="C2" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="D2" s="6" t="s">
         <v>18</v>
       </c>
-      <c r="C2" s="5" t="s">
-        <v>17</v>
-      </c>
-      <c r="D2" s="5" t="s">
+      <c r="E2" s="6" t="s">
         <v>19</v>
       </c>
-      <c r="E2" s="5" t="s">
+      <c r="F2" s="6" t="s">
         <v>20</v>
       </c>
-      <c r="F2" s="5" t="s">
+      <c r="G2" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="G2" s="2" t="s">
+    </row>
+    <row r="3" spans="1:7">
+      <c r="A3" s="6" t="s">
         <v>22</v>
       </c>
-      <c r="J2" s="4" t="s">
-        <v>519</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7">
-      <c r="A3" s="5" t="s">
-        <v>23</v>
-      </c>
-      <c r="B3" s="5" t="s">
-        <v>18</v>
-      </c>
-      <c r="C3" s="5" t="s">
+      <c r="B3" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="C3" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="D3" s="6" t="s">
         <v>24</v>
       </c>
-      <c r="D3" s="5" t="s">
+      <c r="E3" s="6" t="s">
         <v>25</v>
       </c>
-      <c r="E3" s="5" t="s">
+      <c r="F3" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="G3" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="F3" s="5" t="s">
-        <v>21</v>
-      </c>
-      <c r="G3" s="2" t="s">
+    </row>
+    <row r="4" spans="1:7">
+      <c r="A4" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="B4" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="C4" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="D4" s="6" t="s">
         <v>27</v>
       </c>
-    </row>
-    <row r="4" spans="1:7">
-      <c r="A4" s="5" t="s">
-        <v>18</v>
-      </c>
-      <c r="B4" s="5" t="s">
-        <v>18</v>
-      </c>
-      <c r="C4" s="5" t="s">
-        <v>24</v>
-      </c>
-      <c r="D4" s="5" t="s">
+      <c r="E4" s="6" t="s">
         <v>28</v>
       </c>
-      <c r="E4" s="5" t="s">
+      <c r="F4" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="G4" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="F4" s="5" t="s">
-        <v>21</v>
-      </c>
-      <c r="G4" s="2" t="s">
+    </row>
+    <row r="5" spans="1:7">
+      <c r="A5" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="B5" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="C5" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="D5" s="6" t="s">
         <v>30</v>
       </c>
-    </row>
-    <row r="5" spans="1:7">
-      <c r="A5" s="5" t="s">
-        <v>24</v>
-      </c>
-      <c r="B5" s="5" t="s">
-        <v>18</v>
-      </c>
-      <c r="C5" s="5" t="s">
-        <v>17</v>
-      </c>
-      <c r="D5" s="5" t="s">
+      <c r="E5" s="6" t="s">
         <v>31</v>
       </c>
-      <c r="E5" s="5" t="s">
+      <c r="F5" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="G5" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="F5" s="5" t="s">
-        <v>21</v>
-      </c>
-      <c r="G5" s="2" t="s">
+    </row>
+    <row r="6" spans="1:9">
+      <c r="A6" s="6" t="s">
         <v>33</v>
       </c>
-    </row>
-    <row r="6" spans="1:9">
-      <c r="A6" s="5" t="s">
+      <c r="B6" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="C6" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="D6" s="6" t="s">
         <v>34</v>
       </c>
-      <c r="B6" s="5" t="s">
-        <v>18</v>
-      </c>
-      <c r="C6" s="5" t="s">
-        <v>24</v>
-      </c>
-      <c r="D6" s="5" t="s">
+      <c r="E6" s="6" t="s">
         <v>35</v>
       </c>
-      <c r="E6" s="5" t="s">
+      <c r="F6" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="G6" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="F6" s="5" t="s">
-        <v>21</v>
-      </c>
-      <c r="G6" s="2" t="s">
+      <c r="H6" s="3" t="s">
         <v>37</v>
       </c>
-      <c r="H6" s="3" t="s">
+      <c r="I6" s="3" t="s">
         <v>38</v>
       </c>
-      <c r="I6" s="3" t="s">
-        <v>39</v>
-      </c>
     </row>
     <row r="7" spans="1:7">
-      <c r="A7" s="6" t="s">
+      <c r="A7" s="7" t="s">
+        <v>48</v>
+      </c>
+      <c r="B7" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="C7" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="D7" s="7" t="s">
         <v>49</v>
       </c>
-      <c r="B7" s="6" t="s">
-        <v>18</v>
-      </c>
-      <c r="C7" s="6" t="s">
-        <v>17</v>
-      </c>
-      <c r="D7" s="6" t="s">
+      <c r="E7" s="7" t="s">
         <v>50</v>
       </c>
-      <c r="E7" s="6" t="s">
+      <c r="F7" s="7" t="s">
         <v>51</v>
       </c>
-      <c r="F7" s="6" t="s">
+      <c r="G7" s="2" t="s">
         <v>52</v>
       </c>
-      <c r="G7" s="2" t="s">
+    </row>
+    <row r="8" spans="1:7">
+      <c r="A8" s="7" t="s">
         <v>53</v>
       </c>
-    </row>
-    <row r="8" spans="1:7">
-      <c r="A8" s="6" t="s">
+      <c r="B8" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="C8" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="D8" s="7" t="s">
         <v>54</v>
       </c>
-      <c r="B8" s="6" t="s">
-        <v>23</v>
-      </c>
-      <c r="C8" s="6" t="s">
-        <v>24</v>
-      </c>
-      <c r="D8" s="6" t="s">
+      <c r="E8" s="7" t="s">
         <v>55</v>
       </c>
-      <c r="E8" s="6" t="s">
+      <c r="F8" s="7" t="s">
+        <v>51</v>
+      </c>
+      <c r="G8" s="2" t="s">
         <v>56</v>
       </c>
-      <c r="F8" s="6" t="s">
-        <v>52</v>
-      </c>
-      <c r="G8" s="2" t="s">
+    </row>
+    <row r="9" spans="1:7">
+      <c r="A9" s="7" t="s">
         <v>57</v>
       </c>
-    </row>
-    <row r="9" spans="1:7">
-      <c r="A9" s="6" t="s">
+      <c r="B9" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="C9" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="D9" s="7" t="s">
         <v>58</v>
       </c>
-      <c r="B9" s="6" t="s">
-        <v>18</v>
-      </c>
-      <c r="C9" s="6" t="s">
-        <v>24</v>
-      </c>
-      <c r="D9" s="6" t="s">
+      <c r="E9" s="7" t="s">
         <v>59</v>
       </c>
-      <c r="E9" s="6" t="s">
+      <c r="F9" s="7" t="s">
+        <v>51</v>
+      </c>
+      <c r="G9" s="2" t="s">
         <v>60</v>
       </c>
-      <c r="F9" s="6" t="s">
-        <v>52</v>
-      </c>
-      <c r="G9" s="2" t="s">
+    </row>
+    <row r="10" spans="1:7">
+      <c r="A10" s="7" t="s">
         <v>61</v>
       </c>
-    </row>
-    <row r="10" spans="1:7">
-      <c r="A10" s="6" t="s">
+      <c r="B10" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="C10" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="D10" s="7" t="s">
         <v>62</v>
       </c>
-      <c r="B10" s="6" t="s">
-        <v>18</v>
-      </c>
-      <c r="C10" s="6" t="s">
-        <v>24</v>
-      </c>
-      <c r="D10" s="6" t="s">
+      <c r="E10" s="7" t="s">
         <v>63</v>
       </c>
-      <c r="E10" s="6" t="s">
+      <c r="F10" s="7" t="s">
+        <v>51</v>
+      </c>
+      <c r="G10" s="2" t="s">
         <v>64</v>
       </c>
-      <c r="F10" s="6" t="s">
-        <v>52</v>
-      </c>
-      <c r="G10" s="2" t="s">
+    </row>
+    <row r="11" spans="1:7">
+      <c r="A11" s="7" t="s">
         <v>65</v>
       </c>
-    </row>
-    <row r="11" spans="1:7">
-      <c r="A11" s="6" t="s">
+      <c r="B11" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="C11" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="D11" s="7" t="s">
         <v>66</v>
       </c>
-      <c r="B11" s="6" t="s">
-        <v>18</v>
-      </c>
-      <c r="C11" s="6" t="s">
-        <v>17</v>
-      </c>
-      <c r="D11" s="6" t="s">
+      <c r="E11" s="7" t="s">
         <v>67</v>
       </c>
-      <c r="E11" s="6" t="s">
+      <c r="F11" s="7" t="s">
+        <v>51</v>
+      </c>
+      <c r="G11" s="2" t="s">
         <v>68</v>
       </c>
-      <c r="F11" s="6" t="s">
-        <v>52</v>
-      </c>
-      <c r="G11" s="2" t="s">
+    </row>
+    <row r="12" spans="1:7">
+      <c r="A12" s="7" t="s">
         <v>69</v>
       </c>
-    </row>
-    <row r="12" spans="1:7">
-      <c r="A12" s="6" t="s">
+      <c r="B12" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="C12" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="D12" s="7" t="s">
         <v>70</v>
       </c>
-      <c r="B12" s="6" t="s">
-        <v>18</v>
-      </c>
-      <c r="C12" s="6" t="s">
-        <v>17</v>
-      </c>
-      <c r="D12" s="6" t="s">
+      <c r="E12" s="7" t="s">
         <v>71</v>
       </c>
-      <c r="E12" s="6" t="s">
+      <c r="F12" s="7" t="s">
+        <v>51</v>
+      </c>
+      <c r="G12" s="2" t="s">
         <v>72</v>
       </c>
-      <c r="F12" s="6" t="s">
-        <v>52</v>
-      </c>
-      <c r="G12" s="2" t="s">
+    </row>
+    <row r="13" spans="1:9">
+      <c r="A13" s="7" t="s">
         <v>73</v>
       </c>
-    </row>
-    <row r="13" spans="1:9">
-      <c r="A13" s="6" t="s">
+      <c r="B13" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="C13" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="D13" s="7" t="s">
         <v>74</v>
       </c>
-      <c r="B13" s="6" t="s">
-        <v>23</v>
-      </c>
-      <c r="C13" s="6" t="s">
-        <v>24</v>
-      </c>
-      <c r="D13" s="6" t="s">
+      <c r="E13" s="7" t="s">
         <v>75</v>
       </c>
-      <c r="E13" s="6" t="s">
+      <c r="F13" s="7" t="s">
+        <v>51</v>
+      </c>
+      <c r="G13" s="2" t="s">
         <v>76</v>
       </c>
-      <c r="F13" s="6" t="s">
-        <v>52</v>
-      </c>
-      <c r="G13" s="2" t="s">
+      <c r="H13" s="3" t="s">
         <v>77</v>
       </c>
-      <c r="H13" s="3" t="s">
+      <c r="I13" s="3" t="s">
         <v>78</v>
       </c>
-      <c r="I13" s="3" t="s">
-        <v>79</v>
-      </c>
     </row>
     <row r="14" spans="1:7">
-      <c r="A14" s="5" t="s">
+      <c r="A14" s="6" t="s">
+        <v>81</v>
+      </c>
+      <c r="B14" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="C14" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="D14" s="6" t="s">
         <v>82</v>
       </c>
-      <c r="B14" s="5" t="s">
-        <v>18</v>
-      </c>
-      <c r="C14" s="5" t="s">
-        <v>17</v>
-      </c>
-      <c r="D14" s="5" t="s">
+      <c r="E14" s="6" t="s">
         <v>83</v>
       </c>
-      <c r="E14" s="5" t="s">
+      <c r="F14" s="6" t="s">
         <v>84</v>
       </c>
-      <c r="F14" s="5" t="s">
+      <c r="G14" s="2" t="s">
         <v>85</v>
       </c>
-      <c r="G14" s="2" t="s">
+    </row>
+    <row r="15" spans="1:7">
+      <c r="A15" s="6" t="s">
         <v>86</v>
       </c>
-    </row>
-    <row r="15" spans="1:7">
-      <c r="A15" s="5" t="s">
+      <c r="B15" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="C15" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="D15" s="6" t="s">
         <v>87</v>
       </c>
-      <c r="B15" s="5" t="s">
-        <v>23</v>
-      </c>
-      <c r="C15" s="5" t="s">
-        <v>24</v>
-      </c>
-      <c r="D15" s="5" t="s">
+      <c r="E15" s="6" t="s">
         <v>88</v>
       </c>
-      <c r="E15" s="5" t="s">
+      <c r="F15" s="6" t="s">
+        <v>84</v>
+      </c>
+      <c r="G15" s="2" t="s">
         <v>89</v>
       </c>
-      <c r="F15" s="5" t="s">
-        <v>85</v>
-      </c>
-      <c r="G15" s="2" t="s">
+    </row>
+    <row r="16" spans="1:7">
+      <c r="A16" s="6" t="s">
         <v>90</v>
       </c>
-    </row>
-    <row r="16" spans="1:7">
-      <c r="A16" s="5" t="s">
+      <c r="B16" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="C16" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="D16" s="6" t="s">
         <v>91</v>
       </c>
-      <c r="B16" s="5" t="s">
-        <v>18</v>
-      </c>
-      <c r="C16" s="5" t="s">
-        <v>24</v>
-      </c>
-      <c r="D16" s="5" t="s">
+      <c r="E16" s="6" t="s">
         <v>92</v>
       </c>
-      <c r="E16" s="5" t="s">
+      <c r="F16" s="6" t="s">
+        <v>84</v>
+      </c>
+      <c r="G16" s="2" t="s">
         <v>93</v>
       </c>
-      <c r="F16" s="5" t="s">
-        <v>85</v>
-      </c>
-      <c r="G16" s="2" t="s">
+    </row>
+    <row r="17" spans="1:7">
+      <c r="A17" s="6" t="s">
         <v>94</v>
       </c>
-    </row>
-    <row r="17" spans="1:7">
-      <c r="A17" s="5" t="s">
+      <c r="B17" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="C17" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="D17" s="6" t="s">
         <v>95</v>
       </c>
-      <c r="B17" s="5" t="s">
-        <v>18</v>
-      </c>
-      <c r="C17" s="5" t="s">
-        <v>17</v>
-      </c>
-      <c r="D17" s="5" t="s">
+      <c r="E17" s="6" t="s">
         <v>96</v>
       </c>
-      <c r="E17" s="5" t="s">
+      <c r="F17" s="6" t="s">
+        <v>84</v>
+      </c>
+      <c r="G17" s="2" t="s">
         <v>97</v>
       </c>
-      <c r="F17" s="5" t="s">
-        <v>85</v>
-      </c>
-      <c r="G17" s="2" t="s">
+    </row>
+    <row r="18" spans="1:7">
+      <c r="A18" s="6" t="s">
         <v>98</v>
       </c>
-    </row>
-    <row r="18" spans="1:7">
-      <c r="A18" s="5" t="s">
+      <c r="B18" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="C18" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="D18" s="6" t="s">
         <v>99</v>
       </c>
-      <c r="B18" s="5" t="s">
-        <v>18</v>
-      </c>
-      <c r="C18" s="5" t="s">
-        <v>17</v>
-      </c>
-      <c r="D18" s="5" t="s">
+      <c r="E18" s="6" t="s">
         <v>100</v>
       </c>
-      <c r="E18" s="5" t="s">
+      <c r="F18" s="6" t="s">
+        <v>84</v>
+      </c>
+      <c r="G18" s="2" t="s">
         <v>101</v>
       </c>
-      <c r="F18" s="5" t="s">
-        <v>85</v>
-      </c>
-      <c r="G18" s="2" t="s">
+    </row>
+    <row r="19" spans="1:7">
+      <c r="A19" s="6" t="s">
         <v>102</v>
       </c>
-    </row>
-    <row r="19" spans="1:7">
-      <c r="A19" s="5" t="s">
+      <c r="B19" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="C19" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="D19" s="6" t="s">
         <v>103</v>
       </c>
-      <c r="B19" s="5" t="s">
-        <v>18</v>
-      </c>
-      <c r="C19" s="5" t="s">
-        <v>24</v>
-      </c>
-      <c r="D19" s="5" t="s">
+      <c r="E19" s="6" t="s">
         <v>104</v>
       </c>
-      <c r="E19" s="5" t="s">
+      <c r="F19" s="6" t="s">
+        <v>84</v>
+      </c>
+      <c r="G19" s="2" t="s">
         <v>105</v>
       </c>
-      <c r="F19" s="5" t="s">
-        <v>85</v>
-      </c>
-      <c r="G19" s="2" t="s">
+    </row>
+    <row r="20" spans="1:7">
+      <c r="A20" s="6" t="s">
         <v>106</v>
       </c>
-    </row>
-    <row r="20" spans="1:7">
-      <c r="A20" s="5" t="s">
+      <c r="B20" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="C20" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="D20" s="6" t="s">
         <v>107</v>
       </c>
-      <c r="B20" s="5" t="s">
-        <v>18</v>
-      </c>
-      <c r="C20" s="5" t="s">
-        <v>17</v>
-      </c>
-      <c r="D20" s="5" t="s">
+      <c r="E20" s="6" t="s">
         <v>108</v>
       </c>
-      <c r="E20" s="5" t="s">
+      <c r="F20" s="6" t="s">
+        <v>84</v>
+      </c>
+      <c r="G20" s="2" t="s">
         <v>109</v>
       </c>
-      <c r="F20" s="5" t="s">
-        <v>85</v>
-      </c>
-      <c r="G20" s="2" t="s">
+    </row>
+    <row r="21" spans="1:9">
+      <c r="A21" s="6" t="s">
         <v>110</v>
       </c>
-    </row>
-    <row r="21" spans="1:9">
-      <c r="A21" s="5" t="s">
+      <c r="B21" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="C21" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="D21" s="6" t="s">
         <v>111</v>
       </c>
-      <c r="B21" s="5" t="s">
-        <v>23</v>
-      </c>
-      <c r="C21" s="5" t="s">
-        <v>24</v>
-      </c>
-      <c r="D21" s="5" t="s">
+      <c r="E21" s="6" t="s">
         <v>112</v>
       </c>
-      <c r="E21" s="5" t="s">
+      <c r="F21" s="6" t="s">
+        <v>84</v>
+      </c>
+      <c r="G21" s="2" t="s">
         <v>113</v>
       </c>
-      <c r="F21" s="5" t="s">
-        <v>85</v>
-      </c>
-      <c r="G21" s="2" t="s">
+      <c r="H21" s="3" t="s">
         <v>114</v>
       </c>
-      <c r="H21" s="3" t="s">
+      <c r="I21" s="3" t="s">
         <v>115</v>
       </c>
-      <c r="I21" s="3" t="s">
-        <v>116</v>
-      </c>
     </row>
     <row r="22" spans="1:7">
-      <c r="A22" s="6" t="s">
+      <c r="A22" s="7" t="s">
+        <v>118</v>
+      </c>
+      <c r="B22" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="C22" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="D22" s="7" t="s">
         <v>119</v>
       </c>
-      <c r="B22" s="6" t="s">
-        <v>18</v>
-      </c>
-      <c r="C22" s="6" t="s">
-        <v>17</v>
-      </c>
-      <c r="D22" s="6" t="s">
+      <c r="E22" s="7" t="s">
         <v>120</v>
       </c>
-      <c r="E22" s="6" t="s">
+      <c r="F22" s="7" t="s">
         <v>121</v>
       </c>
-      <c r="F22" s="6" t="s">
+      <c r="G22" s="2" t="s">
         <v>122</v>
       </c>
-      <c r="G22" s="2" t="s">
+    </row>
+    <row r="23" spans="1:7">
+      <c r="A23" s="7" t="s">
         <v>123</v>
       </c>
-    </row>
-    <row r="23" spans="1:7">
-      <c r="A23" s="6" t="s">
+      <c r="B23" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="C23" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="D23" s="7" t="s">
         <v>124</v>
       </c>
-      <c r="B23" s="6" t="s">
-        <v>18</v>
-      </c>
-      <c r="C23" s="6" t="s">
-        <v>24</v>
-      </c>
-      <c r="D23" s="6" t="s">
+      <c r="E23" s="7" t="s">
         <v>125</v>
       </c>
-      <c r="E23" s="6" t="s">
+      <c r="F23" s="7" t="s">
+        <v>121</v>
+      </c>
+      <c r="G23" s="2" t="s">
         <v>126</v>
       </c>
-      <c r="F23" s="6" t="s">
-        <v>122</v>
-      </c>
-      <c r="G23" s="2" t="s">
+    </row>
+    <row r="24" spans="1:7">
+      <c r="A24" s="7" t="s">
         <v>127</v>
       </c>
-    </row>
-    <row r="24" spans="1:7">
-      <c r="A24" s="6" t="s">
+      <c r="B24" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="C24" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="D24" s="7" t="s">
         <v>128</v>
       </c>
-      <c r="B24" s="6" t="s">
-        <v>18</v>
-      </c>
-      <c r="C24" s="6" t="s">
-        <v>24</v>
-      </c>
-      <c r="D24" s="6" t="s">
+      <c r="E24" s="7" t="s">
         <v>129</v>
       </c>
-      <c r="E24" s="6" t="s">
+      <c r="F24" s="7" t="s">
+        <v>121</v>
+      </c>
+      <c r="G24" s="2" t="s">
         <v>130</v>
       </c>
-      <c r="F24" s="6" t="s">
-        <v>122</v>
-      </c>
-      <c r="G24" s="2" t="s">
+    </row>
+    <row r="25" spans="1:7">
+      <c r="A25" s="7" t="s">
         <v>131</v>
       </c>
-    </row>
-    <row r="25" spans="1:7">
-      <c r="A25" s="6" t="s">
+      <c r="B25" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="C25" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="D25" s="7" t="s">
         <v>132</v>
       </c>
-      <c r="B25" s="6" t="s">
-        <v>18</v>
-      </c>
-      <c r="C25" s="6" t="s">
-        <v>17</v>
-      </c>
-      <c r="D25" s="6" t="s">
+      <c r="E25" s="7" t="s">
         <v>133</v>
       </c>
-      <c r="E25" s="6" t="s">
+      <c r="F25" s="7" t="s">
+        <v>121</v>
+      </c>
+      <c r="G25" s="2" t="s">
         <v>134</v>
       </c>
-      <c r="F25" s="6" t="s">
-        <v>122</v>
-      </c>
-      <c r="G25" s="2" t="s">
+    </row>
+    <row r="26" spans="1:7">
+      <c r="A26" s="7" t="s">
         <v>135</v>
       </c>
-    </row>
-    <row r="26" spans="1:7">
-      <c r="A26" s="6" t="s">
+      <c r="B26" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="C26" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="D26" s="7" t="s">
         <v>136</v>
       </c>
-      <c r="B26" s="6" t="s">
-        <v>18</v>
-      </c>
-      <c r="C26" s="6" t="s">
-        <v>24</v>
-      </c>
-      <c r="D26" s="6" t="s">
+      <c r="E26" s="7" t="s">
         <v>137</v>
       </c>
-      <c r="E26" s="6" t="s">
+      <c r="F26" s="7" t="s">
+        <v>121</v>
+      </c>
+      <c r="G26" s="2" t="s">
         <v>138</v>
       </c>
-      <c r="F26" s="6" t="s">
-        <v>122</v>
-      </c>
-      <c r="G26" s="2" t="s">
+    </row>
+    <row r="27" spans="1:9">
+      <c r="A27" s="7" t="s">
         <v>139</v>
       </c>
-    </row>
-    <row r="27" spans="1:9">
-      <c r="A27" s="6" t="s">
+      <c r="B27" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="C27" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="D27" s="7" t="s">
         <v>140</v>
       </c>
-      <c r="B27" s="6" t="s">
-        <v>23</v>
-      </c>
-      <c r="C27" s="6" t="s">
-        <v>24</v>
-      </c>
-      <c r="D27" s="6" t="s">
+      <c r="E27" s="7" t="s">
         <v>141</v>
       </c>
-      <c r="E27" s="6" t="s">
+      <c r="F27" s="7" t="s">
+        <v>121</v>
+      </c>
+      <c r="G27" s="2" t="s">
         <v>142</v>
       </c>
-      <c r="F27" s="6" t="s">
-        <v>122</v>
-      </c>
-      <c r="G27" s="2" t="s">
+      <c r="H27" s="3" t="s">
         <v>143</v>
       </c>
-      <c r="H27" s="3" t="s">
+      <c r="I27" s="3" t="s">
         <v>144</v>
       </c>
-      <c r="I27" s="3" t="s">
-        <v>145</v>
-      </c>
     </row>
     <row r="28" spans="1:7">
-      <c r="A28" s="5" t="s">
+      <c r="A28" s="6" t="s">
         <v>150</v>
       </c>
-      <c r="B28" s="5" t="s">
-        <v>18</v>
-      </c>
-      <c r="C28" s="5" t="s">
-        <v>17</v>
-      </c>
-      <c r="D28" s="5" t="s">
+      <c r="B28" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="C28" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="D28" s="6" t="s">
         <v>151</v>
       </c>
-      <c r="E28" s="5" t="s">
+      <c r="E28" s="6" t="s">
         <v>152</v>
       </c>
-      <c r="F28" s="5" t="s">
+      <c r="F28" s="6" t="s">
         <v>153</v>
       </c>
       <c r="G28" s="2" t="s">
@@ -2343,22 +2359,22 @@
       </c>
     </row>
     <row r="29" spans="1:7">
-      <c r="A29" s="5" t="s">
+      <c r="A29" s="6" t="s">
         <v>155</v>
       </c>
-      <c r="B29" s="5" t="s">
-        <v>23</v>
-      </c>
-      <c r="C29" s="5" t="s">
-        <v>24</v>
-      </c>
-      <c r="D29" s="5" t="s">
+      <c r="B29" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="C29" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="D29" s="6" t="s">
         <v>156</v>
       </c>
-      <c r="E29" s="5" t="s">
+      <c r="E29" s="6" t="s">
         <v>157</v>
       </c>
-      <c r="F29" s="5" t="s">
+      <c r="F29" s="6" t="s">
         <v>153</v>
       </c>
       <c r="G29" s="2" t="s">
@@ -2366,22 +2382,22 @@
       </c>
     </row>
     <row r="30" spans="1:7">
-      <c r="A30" s="5" t="s">
+      <c r="A30" s="6" t="s">
         <v>159</v>
       </c>
-      <c r="B30" s="5" t="s">
-        <v>18</v>
-      </c>
-      <c r="C30" s="5" t="s">
-        <v>24</v>
-      </c>
-      <c r="D30" s="5" t="s">
+      <c r="B30" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="C30" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="D30" s="6" t="s">
         <v>160</v>
       </c>
-      <c r="E30" s="5" t="s">
+      <c r="E30" s="6" t="s">
         <v>161</v>
       </c>
-      <c r="F30" s="5" t="s">
+      <c r="F30" s="6" t="s">
         <v>153</v>
       </c>
       <c r="G30" s="2" t="s">
@@ -2389,22 +2405,22 @@
       </c>
     </row>
     <row r="31" spans="1:7">
-      <c r="A31" s="5" t="s">
+      <c r="A31" s="6" t="s">
         <v>163</v>
       </c>
-      <c r="B31" s="5" t="s">
-        <v>18</v>
-      </c>
-      <c r="C31" s="5" t="s">
-        <v>24</v>
-      </c>
-      <c r="D31" s="5" t="s">
+      <c r="B31" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="C31" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="D31" s="6" t="s">
         <v>164</v>
       </c>
-      <c r="E31" s="5" t="s">
+      <c r="E31" s="6" t="s">
         <v>165</v>
       </c>
-      <c r="F31" s="5" t="s">
+      <c r="F31" s="6" t="s">
         <v>153</v>
       </c>
       <c r="G31" s="2" t="s">
@@ -2412,22 +2428,22 @@
       </c>
     </row>
     <row r="32" spans="1:7">
-      <c r="A32" s="5" t="s">
+      <c r="A32" s="6" t="s">
         <v>167</v>
       </c>
-      <c r="B32" s="5" t="s">
-        <v>18</v>
-      </c>
-      <c r="C32" s="5" t="s">
-        <v>17</v>
-      </c>
-      <c r="D32" s="5" t="s">
+      <c r="B32" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="C32" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="D32" s="6" t="s">
         <v>168</v>
       </c>
-      <c r="E32" s="5" t="s">
+      <c r="E32" s="6" t="s">
         <v>169</v>
       </c>
-      <c r="F32" s="5" t="s">
+      <c r="F32" s="6" t="s">
         <v>153</v>
       </c>
       <c r="G32" s="2" t="s">
@@ -2435,22 +2451,22 @@
       </c>
     </row>
     <row r="33" spans="1:7">
-      <c r="A33" s="5" t="s">
+      <c r="A33" s="6" t="s">
         <v>171</v>
       </c>
-      <c r="B33" s="5" t="s">
-        <v>18</v>
-      </c>
-      <c r="C33" s="5" t="s">
-        <v>24</v>
-      </c>
-      <c r="D33" s="5" t="s">
+      <c r="B33" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="C33" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="D33" s="6" t="s">
         <v>172</v>
       </c>
-      <c r="E33" s="5" t="s">
+      <c r="E33" s="6" t="s">
         <v>173</v>
       </c>
-      <c r="F33" s="5" t="s">
+      <c r="F33" s="6" t="s">
         <v>153</v>
       </c>
       <c r="G33" s="2" t="s">
@@ -2458,22 +2474,22 @@
       </c>
     </row>
     <row r="34" spans="1:7">
-      <c r="A34" s="5" t="s">
+      <c r="A34" s="6" t="s">
         <v>175</v>
       </c>
-      <c r="B34" s="5" t="s">
-        <v>18</v>
-      </c>
-      <c r="C34" s="5" t="s">
-        <v>24</v>
-      </c>
-      <c r="D34" s="5" t="s">
+      <c r="B34" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="C34" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="D34" s="6" t="s">
         <v>176</v>
       </c>
-      <c r="E34" s="5" t="s">
+      <c r="E34" s="6" t="s">
         <v>177</v>
       </c>
-      <c r="F34" s="5" t="s">
+      <c r="F34" s="6" t="s">
         <v>153</v>
       </c>
       <c r="G34" s="2" t="s">
@@ -2481,22 +2497,22 @@
       </c>
     </row>
     <row r="35" spans="1:9">
-      <c r="A35" s="5" t="s">
+      <c r="A35" s="6" t="s">
         <v>179</v>
       </c>
-      <c r="B35" s="5" t="s">
-        <v>18</v>
-      </c>
-      <c r="C35" s="5" t="s">
-        <v>24</v>
-      </c>
-      <c r="D35" s="5" t="s">
+      <c r="B35" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="C35" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="D35" s="6" t="s">
         <v>180</v>
       </c>
-      <c r="E35" s="5" t="s">
+      <c r="E35" s="6" t="s">
         <v>181</v>
       </c>
-      <c r="F35" s="5" t="s">
+      <c r="F35" s="6" t="s">
         <v>153</v>
       </c>
       <c r="G35" s="2" t="s">
@@ -2510,45 +2526,45 @@
       </c>
     </row>
     <row r="36" spans="1:7">
-      <c r="A36" s="6" t="s">
+      <c r="A36" s="7" t="s">
         <v>188</v>
       </c>
-      <c r="B36" s="6" t="s">
-        <v>18</v>
-      </c>
-      <c r="C36" s="6" t="s">
-        <v>17</v>
-      </c>
-      <c r="D36" s="6" t="s">
+      <c r="B36" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="C36" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="D36" s="7" t="s">
         <v>189</v>
       </c>
-      <c r="E36" s="6" t="s">
+      <c r="E36" s="7" t="s">
         <v>190</v>
       </c>
-      <c r="F36" s="6" t="s">
+      <c r="F36" s="7" t="s">
         <v>191</v>
       </c>
       <c r="G36" s="2" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
     </row>
     <row r="37" spans="1:7">
-      <c r="A37" s="6" t="s">
+      <c r="A37" s="7" t="s">
         <v>192</v>
       </c>
-      <c r="B37" s="6" t="s">
-        <v>23</v>
-      </c>
-      <c r="C37" s="6" t="s">
-        <v>24</v>
-      </c>
-      <c r="D37" s="6" t="s">
+      <c r="B37" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="C37" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="D37" s="7" t="s">
         <v>193</v>
       </c>
-      <c r="E37" s="6" t="s">
+      <c r="E37" s="7" t="s">
         <v>194</v>
       </c>
-      <c r="F37" s="6" t="s">
+      <c r="F37" s="7" t="s">
         <v>191</v>
       </c>
       <c r="G37" s="2" t="s">
@@ -2556,22 +2572,22 @@
       </c>
     </row>
     <row r="38" spans="1:7">
-      <c r="A38" s="6" t="s">
+      <c r="A38" s="7" t="s">
         <v>196</v>
       </c>
-      <c r="B38" s="6" t="s">
-        <v>18</v>
-      </c>
-      <c r="C38" s="6" t="s">
-        <v>17</v>
-      </c>
-      <c r="D38" s="6" t="s">
+      <c r="B38" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="C38" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="D38" s="7" t="s">
         <v>197</v>
       </c>
-      <c r="E38" s="6" t="s">
+      <c r="E38" s="7" t="s">
         <v>198</v>
       </c>
-      <c r="F38" s="6" t="s">
+      <c r="F38" s="7" t="s">
         <v>191</v>
       </c>
       <c r="G38" s="2" t="s">
@@ -2579,22 +2595,22 @@
       </c>
     </row>
     <row r="39" spans="1:7">
-      <c r="A39" s="6" t="s">
+      <c r="A39" s="7" t="s">
         <v>200</v>
       </c>
-      <c r="B39" s="6" t="s">
-        <v>18</v>
-      </c>
-      <c r="C39" s="6" t="s">
-        <v>24</v>
-      </c>
-      <c r="D39" s="6" t="s">
+      <c r="B39" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="C39" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="D39" s="7" t="s">
         <v>201</v>
       </c>
-      <c r="E39" s="6" t="s">
+      <c r="E39" s="7" t="s">
         <v>202</v>
       </c>
-      <c r="F39" s="6" t="s">
+      <c r="F39" s="7" t="s">
         <v>191</v>
       </c>
       <c r="G39" s="2" t="s">
@@ -2602,22 +2618,22 @@
       </c>
     </row>
     <row r="40" spans="1:7">
-      <c r="A40" s="6" t="s">
+      <c r="A40" s="7" t="s">
         <v>204</v>
       </c>
-      <c r="B40" s="6" t="s">
-        <v>18</v>
-      </c>
-      <c r="C40" s="6" t="s">
-        <v>17</v>
-      </c>
-      <c r="D40" s="6" t="s">
+      <c r="B40" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="C40" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="D40" s="7" t="s">
         <v>205</v>
       </c>
-      <c r="E40" s="6" t="s">
+      <c r="E40" s="7" t="s">
         <v>206</v>
       </c>
-      <c r="F40" s="6" t="s">
+      <c r="F40" s="7" t="s">
         <v>191</v>
       </c>
       <c r="G40" s="2" t="s">
@@ -2625,22 +2641,22 @@
       </c>
     </row>
     <row r="41" spans="1:7">
-      <c r="A41" s="6" t="s">
+      <c r="A41" s="7" t="s">
         <v>208</v>
       </c>
-      <c r="B41" s="6" t="s">
-        <v>18</v>
-      </c>
-      <c r="C41" s="6" t="s">
-        <v>24</v>
-      </c>
-      <c r="D41" s="6" t="s">
+      <c r="B41" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="C41" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="D41" s="7" t="s">
         <v>209</v>
       </c>
-      <c r="E41" s="6" t="s">
+      <c r="E41" s="7" t="s">
         <v>210</v>
       </c>
-      <c r="F41" s="6" t="s">
+      <c r="F41" s="7" t="s">
         <v>191</v>
       </c>
       <c r="G41" s="2" t="s">
@@ -2648,22 +2664,22 @@
       </c>
     </row>
     <row r="42" spans="1:7">
-      <c r="A42" s="6" t="s">
+      <c r="A42" s="7" t="s">
         <v>212</v>
       </c>
-      <c r="B42" s="6" t="s">
-        <v>18</v>
-      </c>
-      <c r="C42" s="6" t="s">
-        <v>24</v>
-      </c>
-      <c r="D42" s="6" t="s">
+      <c r="B42" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="C42" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="D42" s="7" t="s">
         <v>213</v>
       </c>
-      <c r="E42" s="6" t="s">
+      <c r="E42" s="7" t="s">
         <v>214</v>
       </c>
-      <c r="F42" s="6" t="s">
+      <c r="F42" s="7" t="s">
         <v>191</v>
       </c>
       <c r="G42" s="2" t="s">
@@ -2671,22 +2687,22 @@
       </c>
     </row>
     <row r="43" spans="1:9">
-      <c r="A43" s="6" t="s">
+      <c r="A43" s="7" t="s">
         <v>216</v>
       </c>
-      <c r="B43" s="6" t="s">
-        <v>18</v>
-      </c>
-      <c r="C43" s="6" t="s">
-        <v>24</v>
-      </c>
-      <c r="D43" s="6" t="s">
+      <c r="B43" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="C43" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="D43" s="7" t="s">
         <v>217</v>
       </c>
-      <c r="E43" s="6" t="s">
+      <c r="E43" s="7" t="s">
         <v>218</v>
       </c>
-      <c r="F43" s="6" t="s">
+      <c r="F43" s="7" t="s">
         <v>191</v>
       </c>
       <c r="G43" s="2" t="s">
@@ -2700,22 +2716,22 @@
       </c>
     </row>
     <row r="44" spans="1:7">
-      <c r="A44" s="5" t="s">
+      <c r="A44" s="6" t="s">
         <v>223</v>
       </c>
-      <c r="B44" s="5" t="s">
-        <v>18</v>
-      </c>
-      <c r="C44" s="5" t="s">
-        <v>24</v>
-      </c>
-      <c r="D44" s="5" t="s">
+      <c r="B44" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="C44" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="D44" s="6" t="s">
         <v>224</v>
       </c>
-      <c r="E44" s="5" t="s">
+      <c r="E44" s="6" t="s">
         <v>225</v>
       </c>
-      <c r="F44" s="5" t="s">
+      <c r="F44" s="6" t="s">
         <v>226</v>
       </c>
       <c r="G44" s="2" t="s">
@@ -2723,22 +2739,22 @@
       </c>
     </row>
     <row r="45" spans="1:7">
-      <c r="A45" s="5" t="s">
+      <c r="A45" s="6" t="s">
         <v>228</v>
       </c>
-      <c r="B45" s="5" t="s">
-        <v>18</v>
-      </c>
-      <c r="C45" s="5" t="s">
-        <v>24</v>
-      </c>
-      <c r="D45" s="5" t="s">
+      <c r="B45" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="C45" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="D45" s="6" t="s">
         <v>229</v>
       </c>
-      <c r="E45" s="5" t="s">
+      <c r="E45" s="6" t="s">
         <v>230</v>
       </c>
-      <c r="F45" s="5" t="s">
+      <c r="F45" s="6" t="s">
         <v>226</v>
       </c>
       <c r="G45" s="2" t="s">
@@ -2746,22 +2762,22 @@
       </c>
     </row>
     <row r="46" spans="1:7">
-      <c r="A46" s="5" t="s">
+      <c r="A46" s="6" t="s">
         <v>232</v>
       </c>
-      <c r="B46" s="5" t="s">
-        <v>18</v>
-      </c>
-      <c r="C46" s="5" t="s">
-        <v>17</v>
-      </c>
-      <c r="D46" s="5" t="s">
+      <c r="B46" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="C46" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="D46" s="6" t="s">
         <v>233</v>
       </c>
-      <c r="E46" s="5" t="s">
+      <c r="E46" s="6" t="s">
         <v>234</v>
       </c>
-      <c r="F46" s="5" t="s">
+      <c r="F46" s="6" t="s">
         <v>226</v>
       </c>
       <c r="G46" s="2" t="s">
@@ -2769,22 +2785,22 @@
       </c>
     </row>
     <row r="47" spans="1:7">
-      <c r="A47" s="5" t="s">
+      <c r="A47" s="6" t="s">
         <v>235</v>
       </c>
-      <c r="B47" s="5" t="s">
-        <v>18</v>
-      </c>
-      <c r="C47" s="5" t="s">
-        <v>24</v>
-      </c>
-      <c r="D47" s="5" t="s">
+      <c r="B47" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="C47" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="D47" s="6" t="s">
         <v>236</v>
       </c>
-      <c r="E47" s="5" t="s">
+      <c r="E47" s="6" t="s">
         <v>237</v>
       </c>
-      <c r="F47" s="5" t="s">
+      <c r="F47" s="6" t="s">
         <v>226</v>
       </c>
       <c r="G47" s="2" t="s">
@@ -2792,22 +2808,22 @@
       </c>
     </row>
     <row r="48" spans="1:7">
-      <c r="A48" s="5" t="s">
+      <c r="A48" s="6" t="s">
         <v>239</v>
       </c>
-      <c r="B48" s="5" t="s">
-        <v>18</v>
-      </c>
-      <c r="C48" s="5" t="s">
-        <v>24</v>
-      </c>
-      <c r="D48" s="5" t="s">
+      <c r="B48" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="C48" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="D48" s="6" t="s">
         <v>240</v>
       </c>
-      <c r="E48" s="5" t="s">
+      <c r="E48" s="6" t="s">
         <v>241</v>
       </c>
-      <c r="F48" s="5" t="s">
+      <c r="F48" s="6" t="s">
         <v>226</v>
       </c>
       <c r="G48" s="2" t="s">
@@ -2815,22 +2831,22 @@
       </c>
     </row>
     <row r="49" spans="1:9">
-      <c r="A49" s="5" t="s">
+      <c r="A49" s="6" t="s">
         <v>243</v>
       </c>
-      <c r="B49" s="5" t="s">
-        <v>18</v>
-      </c>
-      <c r="C49" s="5" t="s">
-        <v>24</v>
-      </c>
-      <c r="D49" s="5" t="s">
+      <c r="B49" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="C49" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="D49" s="6" t="s">
         <v>244</v>
       </c>
-      <c r="E49" s="5" t="s">
+      <c r="E49" s="6" t="s">
         <v>245</v>
       </c>
-      <c r="F49" s="5" t="s">
+      <c r="F49" s="6" t="s">
         <v>226</v>
       </c>
       <c r="G49" s="2" t="s">
@@ -2844,22 +2860,22 @@
       </c>
     </row>
     <row r="50" spans="1:7">
-      <c r="A50" s="6" t="s">
+      <c r="A50" s="7" t="s">
         <v>251</v>
       </c>
-      <c r="B50" s="6" t="s">
-        <v>18</v>
-      </c>
-      <c r="C50" s="6" t="s">
-        <v>24</v>
-      </c>
-      <c r="D50" s="6" t="s">
+      <c r="B50" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="C50" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="D50" s="7" t="s">
         <v>252</v>
       </c>
-      <c r="E50" s="6" t="s">
+      <c r="E50" s="7" t="s">
         <v>253</v>
       </c>
-      <c r="F50" s="6" t="s">
+      <c r="F50" s="7" t="s">
         <v>254</v>
       </c>
       <c r="G50" s="2" t="s">
@@ -2867,22 +2883,22 @@
       </c>
     </row>
     <row r="51" spans="1:7">
-      <c r="A51" s="6" t="s">
+      <c r="A51" s="7" t="s">
         <v>256</v>
       </c>
-      <c r="B51" s="6" t="s">
-        <v>18</v>
-      </c>
-      <c r="C51" s="6" t="s">
-        <v>24</v>
-      </c>
-      <c r="D51" s="6" t="s">
+      <c r="B51" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="C51" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="D51" s="7" t="s">
         <v>257</v>
       </c>
-      <c r="E51" s="6" t="s">
+      <c r="E51" s="7" t="s">
         <v>258</v>
       </c>
-      <c r="F51" s="6" t="s">
+      <c r="F51" s="7" t="s">
         <v>254</v>
       </c>
       <c r="G51" s="2" t="s">
@@ -2890,22 +2906,22 @@
       </c>
     </row>
     <row r="52" spans="1:7">
-      <c r="A52" s="6" t="s">
+      <c r="A52" s="7" t="s">
         <v>260</v>
       </c>
-      <c r="B52" s="6" t="s">
-        <v>18</v>
-      </c>
-      <c r="C52" s="6" t="s">
-        <v>24</v>
-      </c>
-      <c r="D52" s="6" t="s">
+      <c r="B52" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="C52" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="D52" s="7" t="s">
         <v>261</v>
       </c>
-      <c r="E52" s="6" t="s">
+      <c r="E52" s="7" t="s">
         <v>262</v>
       </c>
-      <c r="F52" s="6" t="s">
+      <c r="F52" s="7" t="s">
         <v>254</v>
       </c>
       <c r="G52" s="2" t="s">
@@ -2913,22 +2929,22 @@
       </c>
     </row>
     <row r="53" spans="1:7">
-      <c r="A53" s="6" t="s">
+      <c r="A53" s="7" t="s">
         <v>264</v>
       </c>
-      <c r="B53" s="6" t="s">
-        <v>18</v>
-      </c>
-      <c r="C53" s="6" t="s">
-        <v>17</v>
-      </c>
-      <c r="D53" s="6" t="s">
+      <c r="B53" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="C53" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="D53" s="7" t="s">
         <v>265</v>
       </c>
-      <c r="E53" s="6" t="s">
+      <c r="E53" s="7" t="s">
         <v>266</v>
       </c>
-      <c r="F53" s="6" t="s">
+      <c r="F53" s="7" t="s">
         <v>254</v>
       </c>
       <c r="G53" s="2" t="s">
@@ -2936,22 +2952,22 @@
       </c>
     </row>
     <row r="54" spans="1:7">
-      <c r="A54" s="6" t="s">
+      <c r="A54" s="7" t="s">
         <v>268</v>
       </c>
-      <c r="B54" s="6" t="s">
-        <v>23</v>
-      </c>
-      <c r="C54" s="6" t="s">
-        <v>24</v>
-      </c>
-      <c r="D54" s="6" t="s">
+      <c r="B54" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="C54" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="D54" s="7" t="s">
         <v>269</v>
       </c>
-      <c r="E54" s="6" t="s">
+      <c r="E54" s="7" t="s">
         <v>270</v>
       </c>
-      <c r="F54" s="6" t="s">
+      <c r="F54" s="7" t="s">
         <v>254</v>
       </c>
       <c r="G54" s="2" t="s">
@@ -2959,22 +2975,22 @@
       </c>
     </row>
     <row r="55" spans="1:7">
-      <c r="A55" s="6" t="s">
+      <c r="A55" s="7" t="s">
         <v>272</v>
       </c>
-      <c r="B55" s="6" t="s">
-        <v>23</v>
-      </c>
-      <c r="C55" s="6" t="s">
-        <v>24</v>
-      </c>
-      <c r="D55" s="6" t="s">
+      <c r="B55" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="C55" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="D55" s="7" t="s">
         <v>273</v>
       </c>
-      <c r="E55" s="6" t="s">
+      <c r="E55" s="7" t="s">
         <v>274</v>
       </c>
-      <c r="F55" s="6" t="s">
+      <c r="F55" s="7" t="s">
         <v>254</v>
       </c>
       <c r="G55" s="2" t="s">
@@ -2982,22 +2998,22 @@
       </c>
     </row>
     <row r="56" spans="1:7">
-      <c r="A56" s="6" t="s">
+      <c r="A56" s="7" t="s">
         <v>276</v>
       </c>
-      <c r="B56" s="6" t="s">
-        <v>18</v>
-      </c>
-      <c r="C56" s="6" t="s">
-        <v>24</v>
-      </c>
-      <c r="D56" s="6" t="s">
+      <c r="B56" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="C56" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="D56" s="7" t="s">
         <v>277</v>
       </c>
-      <c r="E56" s="6" t="s">
+      <c r="E56" s="7" t="s">
         <v>278</v>
       </c>
-      <c r="F56" s="6" t="s">
+      <c r="F56" s="7" t="s">
         <v>254</v>
       </c>
       <c r="G56" s="2" t="s">
@@ -3005,22 +3021,22 @@
       </c>
     </row>
     <row r="57" spans="1:7">
-      <c r="A57" s="6" t="s">
+      <c r="A57" s="7" t="s">
         <v>280</v>
       </c>
-      <c r="B57" s="6" t="s">
-        <v>18</v>
-      </c>
-      <c r="C57" s="6" t="s">
-        <v>24</v>
-      </c>
-      <c r="D57" s="6" t="s">
+      <c r="B57" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="C57" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="D57" s="7" t="s">
         <v>281</v>
       </c>
-      <c r="E57" s="6" t="s">
+      <c r="E57" s="7" t="s">
         <v>282</v>
       </c>
-      <c r="F57" s="6" t="s">
+      <c r="F57" s="7" t="s">
         <v>254</v>
       </c>
       <c r="G57" s="2" t="s">
@@ -3028,22 +3044,22 @@
       </c>
     </row>
     <row r="58" spans="1:9">
-      <c r="A58" s="6" t="s">
+      <c r="A58" s="7" t="s">
         <v>284</v>
       </c>
-      <c r="B58" s="6" t="s">
-        <v>18</v>
-      </c>
-      <c r="C58" s="6" t="s">
-        <v>24</v>
-      </c>
-      <c r="D58" s="6" t="s">
+      <c r="B58" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="C58" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="D58" s="7" t="s">
         <v>285</v>
       </c>
-      <c r="E58" s="6" t="s">
+      <c r="E58" s="7" t="s">
         <v>286</v>
       </c>
-      <c r="F58" s="6" t="s">
+      <c r="F58" s="7" t="s">
         <v>254</v>
       </c>
       <c r="G58" s="2" t="s">
@@ -3057,22 +3073,22 @@
       </c>
     </row>
     <row r="59" spans="1:7">
-      <c r="A59" s="5" t="s">
+      <c r="A59" s="6" t="s">
         <v>295</v>
       </c>
-      <c r="B59" s="5" t="s">
-        <v>18</v>
-      </c>
-      <c r="C59" s="5" t="s">
-        <v>17</v>
-      </c>
-      <c r="D59" s="5" t="s">
+      <c r="B59" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="C59" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="D59" s="6" t="s">
         <v>296</v>
       </c>
-      <c r="E59" s="5" t="s">
+      <c r="E59" s="6" t="s">
         <v>297</v>
       </c>
-      <c r="F59" s="5" t="s">
+      <c r="F59" s="6" t="s">
         <v>298</v>
       </c>
       <c r="G59" s="2" t="s">
@@ -3080,22 +3096,22 @@
       </c>
     </row>
     <row r="60" spans="1:7">
-      <c r="A60" s="5" t="s">
+      <c r="A60" s="6" t="s">
         <v>300</v>
       </c>
-      <c r="B60" s="5" t="s">
-        <v>23</v>
-      </c>
-      <c r="C60" s="5" t="s">
-        <v>24</v>
-      </c>
-      <c r="D60" s="5" t="s">
+      <c r="B60" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="C60" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="D60" s="6" t="s">
         <v>301</v>
       </c>
-      <c r="E60" s="5" t="s">
+      <c r="E60" s="6" t="s">
         <v>302</v>
       </c>
-      <c r="F60" s="5" t="s">
+      <c r="F60" s="6" t="s">
         <v>298</v>
       </c>
       <c r="G60" s="2" t="s">
@@ -3103,22 +3119,22 @@
       </c>
     </row>
     <row r="61" spans="1:7">
-      <c r="A61" s="5" t="s">
+      <c r="A61" s="6" t="s">
         <v>304</v>
       </c>
-      <c r="B61" s="5" t="s">
-        <v>18</v>
-      </c>
-      <c r="C61" s="5" t="s">
-        <v>24</v>
-      </c>
-      <c r="D61" s="5" t="s">
+      <c r="B61" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="C61" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="D61" s="6" t="s">
         <v>305</v>
       </c>
-      <c r="E61" s="5" t="s">
+      <c r="E61" s="6" t="s">
         <v>306</v>
       </c>
-      <c r="F61" s="5" t="s">
+      <c r="F61" s="6" t="s">
         <v>298</v>
       </c>
       <c r="G61" s="2" t="s">
@@ -3126,22 +3142,22 @@
       </c>
     </row>
     <row r="62" spans="1:7">
-      <c r="A62" s="5" t="s">
+      <c r="A62" s="6" t="s">
         <v>308</v>
       </c>
-      <c r="B62" s="5" t="s">
-        <v>18</v>
-      </c>
-      <c r="C62" s="5" t="s">
-        <v>17</v>
-      </c>
-      <c r="D62" s="5" t="s">
+      <c r="B62" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="C62" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="D62" s="6" t="s">
         <v>309</v>
       </c>
-      <c r="E62" s="5" t="s">
+      <c r="E62" s="6" t="s">
         <v>310</v>
       </c>
-      <c r="F62" s="5" t="s">
+      <c r="F62" s="6" t="s">
         <v>298</v>
       </c>
       <c r="G62" s="2" t="s">
@@ -3149,22 +3165,22 @@
       </c>
     </row>
     <row r="63" spans="1:7">
-      <c r="A63" s="5" t="s">
+      <c r="A63" s="6" t="s">
         <v>312</v>
       </c>
-      <c r="B63" s="5" t="s">
-        <v>23</v>
-      </c>
-      <c r="C63" s="5" t="s">
-        <v>24</v>
-      </c>
-      <c r="D63" s="5" t="s">
+      <c r="B63" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="C63" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="D63" s="6" t="s">
         <v>313</v>
       </c>
-      <c r="E63" s="5" t="s">
+      <c r="E63" s="6" t="s">
         <v>314</v>
       </c>
-      <c r="F63" s="5" t="s">
+      <c r="F63" s="6" t="s">
         <v>298</v>
       </c>
       <c r="G63" s="2" t="s">
@@ -3172,22 +3188,22 @@
       </c>
     </row>
     <row r="64" spans="1:7">
-      <c r="A64" s="5" t="s">
+      <c r="A64" s="6" t="s">
         <v>316</v>
       </c>
-      <c r="B64" s="5" t="s">
-        <v>18</v>
-      </c>
-      <c r="C64" s="5" t="s">
-        <v>24</v>
-      </c>
-      <c r="D64" s="5" t="s">
+      <c r="B64" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="C64" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="D64" s="6" t="s">
         <v>317</v>
       </c>
-      <c r="E64" s="5" t="s">
+      <c r="E64" s="6" t="s">
         <v>318</v>
       </c>
-      <c r="F64" s="5" t="s">
+      <c r="F64" s="6" t="s">
         <v>298</v>
       </c>
       <c r="G64" s="2" t="s">
@@ -3195,22 +3211,22 @@
       </c>
     </row>
     <row r="65" spans="1:7">
-      <c r="A65" s="5" t="s">
+      <c r="A65" s="6" t="s">
         <v>320</v>
       </c>
-      <c r="B65" s="5" t="s">
-        <v>18</v>
-      </c>
-      <c r="C65" s="5" t="s">
-        <v>24</v>
-      </c>
-      <c r="D65" s="5" t="s">
+      <c r="B65" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="C65" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="D65" s="6" t="s">
         <v>321</v>
       </c>
-      <c r="E65" s="5" t="s">
+      <c r="E65" s="6" t="s">
         <v>322</v>
       </c>
-      <c r="F65" s="5" t="s">
+      <c r="F65" s="6" t="s">
         <v>298</v>
       </c>
       <c r="G65" s="2" t="s">
@@ -3218,22 +3234,22 @@
       </c>
     </row>
     <row r="66" spans="1:9">
-      <c r="A66" s="5" t="s">
+      <c r="A66" s="6" t="s">
         <v>324</v>
       </c>
-      <c r="B66" s="5" t="s">
-        <v>18</v>
-      </c>
-      <c r="C66" s="5" t="s">
-        <v>24</v>
-      </c>
-      <c r="D66" s="5" t="s">
+      <c r="B66" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="C66" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="D66" s="6" t="s">
         <v>325</v>
       </c>
-      <c r="E66" s="5" t="s">
+      <c r="E66" s="6" t="s">
         <v>326</v>
       </c>
-      <c r="F66" s="5" t="s">
+      <c r="F66" s="6" t="s">
         <v>298</v>
       </c>
       <c r="G66" s="2" t="s">
@@ -3247,22 +3263,22 @@
       </c>
     </row>
     <row r="67" spans="1:7">
-      <c r="A67" s="6" t="s">
+      <c r="A67" s="7" t="s">
         <v>331</v>
       </c>
-      <c r="B67" s="6" t="s">
-        <v>18</v>
-      </c>
-      <c r="C67" s="6" t="s">
-        <v>17</v>
-      </c>
-      <c r="D67" s="6" t="s">
+      <c r="B67" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="C67" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="D67" s="7" t="s">
         <v>332</v>
       </c>
-      <c r="E67" s="6" t="s">
+      <c r="E67" s="7" t="s">
         <v>333</v>
       </c>
-      <c r="F67" s="6" t="s">
+      <c r="F67" s="7" t="s">
         <v>334</v>
       </c>
       <c r="G67" s="2" t="s">
@@ -3270,22 +3286,22 @@
       </c>
     </row>
     <row r="68" spans="1:7">
-      <c r="A68" s="6" t="s">
+      <c r="A68" s="7" t="s">
         <v>335</v>
       </c>
-      <c r="B68" s="6" t="s">
-        <v>18</v>
-      </c>
-      <c r="C68" s="6" t="s">
-        <v>24</v>
-      </c>
-      <c r="D68" s="6" t="s">
+      <c r="B68" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="C68" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="D68" s="7" t="s">
         <v>336</v>
       </c>
-      <c r="E68" s="6" t="s">
+      <c r="E68" s="7" t="s">
         <v>337</v>
       </c>
-      <c r="F68" s="6" t="s">
+      <c r="F68" s="7" t="s">
         <v>334</v>
       </c>
       <c r="G68" s="2" t="s">
@@ -3293,22 +3309,22 @@
       </c>
     </row>
     <row r="69" spans="1:7">
-      <c r="A69" s="6" t="s">
+      <c r="A69" s="7" t="s">
         <v>339</v>
       </c>
-      <c r="B69" s="6" t="s">
-        <v>23</v>
-      </c>
-      <c r="C69" s="6" t="s">
-        <v>24</v>
-      </c>
-      <c r="D69" s="6" t="s">
+      <c r="B69" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="C69" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="D69" s="7" t="s">
         <v>340</v>
       </c>
-      <c r="E69" s="6" t="s">
+      <c r="E69" s="7" t="s">
         <v>341</v>
       </c>
-      <c r="F69" s="6" t="s">
+      <c r="F69" s="7" t="s">
         <v>334</v>
       </c>
       <c r="G69" s="2" t="s">
@@ -3316,22 +3332,22 @@
       </c>
     </row>
     <row r="70" spans="1:7">
-      <c r="A70" s="6" t="s">
+      <c r="A70" s="7" t="s">
         <v>343</v>
       </c>
-      <c r="B70" s="6" t="s">
-        <v>18</v>
-      </c>
-      <c r="C70" s="6" t="s">
-        <v>24</v>
-      </c>
-      <c r="D70" s="6" t="s">
+      <c r="B70" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="C70" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="D70" s="7" t="s">
         <v>344</v>
       </c>
-      <c r="E70" s="6" t="s">
+      <c r="E70" s="7" t="s">
         <v>345</v>
       </c>
-      <c r="F70" s="6" t="s">
+      <c r="F70" s="7" t="s">
         <v>334</v>
       </c>
       <c r="G70" s="2" t="s">
@@ -3339,22 +3355,22 @@
       </c>
     </row>
     <row r="71" spans="1:9">
-      <c r="A71" s="6" t="s">
+      <c r="A71" s="7" t="s">
         <v>347</v>
       </c>
-      <c r="B71" s="6" t="s">
-        <v>18</v>
-      </c>
-      <c r="C71" s="6" t="s">
-        <v>24</v>
-      </c>
-      <c r="D71" s="6" t="s">
+      <c r="B71" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="C71" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="D71" s="7" t="s">
         <v>348</v>
       </c>
-      <c r="E71" s="6" t="s">
+      <c r="E71" s="7" t="s">
         <v>349</v>
       </c>
-      <c r="F71" s="6" t="s">
+      <c r="F71" s="7" t="s">
         <v>334</v>
       </c>
       <c r="G71" s="2" t="s">
@@ -3368,22 +3384,22 @@
       </c>
     </row>
     <row r="72" spans="1:7">
-      <c r="A72" s="5" t="s">
+      <c r="A72" s="6" t="s">
         <v>354</v>
       </c>
-      <c r="B72" s="5" t="s">
-        <v>18</v>
-      </c>
-      <c r="C72" s="5" t="s">
-        <v>24</v>
-      </c>
-      <c r="D72" s="5" t="s">
+      <c r="B72" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="C72" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="D72" s="6" t="s">
         <v>355</v>
       </c>
-      <c r="E72" s="5" t="s">
+      <c r="E72" s="6" t="s">
         <v>356</v>
       </c>
-      <c r="F72" s="5" t="s">
+      <c r="F72" s="6" t="s">
         <v>357</v>
       </c>
       <c r="G72" s="2" t="s">
@@ -3391,22 +3407,22 @@
       </c>
     </row>
     <row r="73" spans="1:7">
-      <c r="A73" s="5" t="s">
+      <c r="A73" s="6" t="s">
         <v>359</v>
       </c>
-      <c r="B73" s="5" t="s">
-        <v>18</v>
-      </c>
-      <c r="C73" s="5" t="s">
-        <v>17</v>
-      </c>
-      <c r="D73" s="5" t="s">
+      <c r="B73" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="C73" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="D73" s="6" t="s">
         <v>360</v>
       </c>
-      <c r="E73" s="5" t="s">
+      <c r="E73" s="6" t="s">
         <v>361</v>
       </c>
-      <c r="F73" s="5" t="s">
+      <c r="F73" s="6" t="s">
         <v>357</v>
       </c>
       <c r="G73" s="2" t="s">
@@ -3414,22 +3430,22 @@
       </c>
     </row>
     <row r="74" spans="1:7">
-      <c r="A74" s="5" t="s">
+      <c r="A74" s="6" t="s">
         <v>363</v>
       </c>
-      <c r="B74" s="5" t="s">
-        <v>23</v>
-      </c>
-      <c r="C74" s="5" t="s">
-        <v>24</v>
-      </c>
-      <c r="D74" s="5" t="s">
+      <c r="B74" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="C74" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="D74" s="6" t="s">
         <v>364</v>
       </c>
-      <c r="E74" s="5" t="s">
+      <c r="E74" s="6" t="s">
         <v>365</v>
       </c>
-      <c r="F74" s="5" t="s">
+      <c r="F74" s="6" t="s">
         <v>357</v>
       </c>
       <c r="G74" s="2" t="s">
@@ -3437,22 +3453,22 @@
       </c>
     </row>
     <row r="75" spans="1:7">
-      <c r="A75" s="5" t="s">
+      <c r="A75" s="6" t="s">
         <v>367</v>
       </c>
-      <c r="B75" s="5" t="s">
-        <v>18</v>
-      </c>
-      <c r="C75" s="5" t="s">
-        <v>17</v>
-      </c>
-      <c r="D75" s="5" t="s">
+      <c r="B75" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="C75" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="D75" s="6" t="s">
         <v>368</v>
       </c>
-      <c r="E75" s="5" t="s">
+      <c r="E75" s="6" t="s">
         <v>369</v>
       </c>
-      <c r="F75" s="5" t="s">
+      <c r="F75" s="6" t="s">
         <v>357</v>
       </c>
       <c r="G75" s="2" t="s">
@@ -3460,22 +3476,22 @@
       </c>
     </row>
     <row r="76" spans="1:7">
-      <c r="A76" s="5" t="s">
+      <c r="A76" s="6" t="s">
         <v>371</v>
       </c>
-      <c r="B76" s="5" t="s">
-        <v>23</v>
-      </c>
-      <c r="C76" s="5" t="s">
-        <v>24</v>
-      </c>
-      <c r="D76" s="5" t="s">
+      <c r="B76" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="C76" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="D76" s="6" t="s">
         <v>372</v>
       </c>
-      <c r="E76" s="5" t="s">
+      <c r="E76" s="6" t="s">
         <v>373</v>
       </c>
-      <c r="F76" s="5" t="s">
+      <c r="F76" s="6" t="s">
         <v>357</v>
       </c>
       <c r="G76" s="2" t="s">
@@ -3483,22 +3499,22 @@
       </c>
     </row>
     <row r="77" spans="1:9">
-      <c r="A77" s="5" t="s">
+      <c r="A77" s="6" t="s">
         <v>375</v>
       </c>
-      <c r="B77" s="5" t="s">
-        <v>18</v>
-      </c>
-      <c r="C77" s="5" t="s">
-        <v>24</v>
-      </c>
-      <c r="D77" s="5" t="s">
+      <c r="B77" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="C77" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="D77" s="6" t="s">
         <v>376</v>
       </c>
-      <c r="E77" s="5" t="s">
+      <c r="E77" s="6" t="s">
         <v>377</v>
       </c>
-      <c r="F77" s="5" t="s">
+      <c r="F77" s="6" t="s">
         <v>357</v>
       </c>
       <c r="G77" s="2" t="s">
@@ -3512,22 +3528,22 @@
       </c>
     </row>
     <row r="78" spans="1:7">
-      <c r="A78" s="6" t="s">
+      <c r="A78" s="7" t="s">
         <v>383</v>
       </c>
-      <c r="B78" s="6" t="s">
-        <v>18</v>
-      </c>
-      <c r="C78" s="6" t="s">
-        <v>17</v>
-      </c>
-      <c r="D78" s="6" t="s">
+      <c r="B78" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="C78" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="D78" s="7" t="s">
         <v>384</v>
       </c>
-      <c r="E78" s="6" t="s">
+      <c r="E78" s="7" t="s">
         <v>385</v>
       </c>
-      <c r="F78" s="6" t="s">
+      <c r="F78" s="7" t="s">
         <v>386</v>
       </c>
       <c r="G78" s="2" t="s">
@@ -3535,22 +3551,22 @@
       </c>
     </row>
     <row r="79" spans="1:7">
-      <c r="A79" s="6" t="s">
+      <c r="A79" s="7" t="s">
         <v>387</v>
       </c>
-      <c r="B79" s="6" t="s">
-        <v>23</v>
-      </c>
-      <c r="C79" s="6" t="s">
-        <v>24</v>
-      </c>
-      <c r="D79" s="6" t="s">
+      <c r="B79" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="C79" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="D79" s="7" t="s">
         <v>388</v>
       </c>
-      <c r="E79" s="6" t="s">
+      <c r="E79" s="7" t="s">
         <v>389</v>
       </c>
-      <c r="F79" s="6" t="s">
+      <c r="F79" s="7" t="s">
         <v>386</v>
       </c>
       <c r="G79" s="2" t="s">
@@ -3558,22 +3574,22 @@
       </c>
     </row>
     <row r="80" spans="1:7">
-      <c r="A80" s="6" t="s">
+      <c r="A80" s="7" t="s">
         <v>391</v>
       </c>
-      <c r="B80" s="6" t="s">
-        <v>18</v>
-      </c>
-      <c r="C80" s="6" t="s">
-        <v>24</v>
-      </c>
-      <c r="D80" s="6" t="s">
+      <c r="B80" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="C80" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="D80" s="7" t="s">
         <v>392</v>
       </c>
-      <c r="E80" s="6" t="s">
+      <c r="E80" s="7" t="s">
         <v>393</v>
       </c>
-      <c r="F80" s="6" t="s">
+      <c r="F80" s="7" t="s">
         <v>386</v>
       </c>
       <c r="G80" s="2" t="s">
@@ -3581,22 +3597,22 @@
       </c>
     </row>
     <row r="81" spans="1:7">
-      <c r="A81" s="6" t="s">
+      <c r="A81" s="7" t="s">
         <v>394</v>
       </c>
-      <c r="B81" s="6" t="s">
-        <v>18</v>
-      </c>
-      <c r="C81" s="6" t="s">
-        <v>17</v>
-      </c>
-      <c r="D81" s="6" t="s">
+      <c r="B81" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="C81" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="D81" s="7" t="s">
         <v>395</v>
       </c>
-      <c r="E81" s="6" t="s">
+      <c r="E81" s="7" t="s">
         <v>396</v>
       </c>
-      <c r="F81" s="6" t="s">
+      <c r="F81" s="7" t="s">
         <v>386</v>
       </c>
       <c r="G81" s="2" t="s">
@@ -3604,22 +3620,22 @@
       </c>
     </row>
     <row r="82" spans="1:7">
-      <c r="A82" s="6" t="s">
+      <c r="A82" s="7" t="s">
         <v>398</v>
       </c>
-      <c r="B82" s="6" t="s">
-        <v>23</v>
-      </c>
-      <c r="C82" s="6" t="s">
-        <v>17</v>
-      </c>
-      <c r="D82" s="6" t="s">
+      <c r="B82" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="C82" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="D82" s="7" t="s">
         <v>399</v>
       </c>
-      <c r="E82" s="6" t="s">
+      <c r="E82" s="7" t="s">
         <v>400</v>
       </c>
-      <c r="F82" s="6" t="s">
+      <c r="F82" s="7" t="s">
         <v>386</v>
       </c>
       <c r="G82" s="2" t="s">
@@ -3627,22 +3643,22 @@
       </c>
     </row>
     <row r="83" spans="1:7">
-      <c r="A83" s="6" t="s">
+      <c r="A83" s="7" t="s">
         <v>402</v>
       </c>
-      <c r="B83" s="6" t="s">
-        <v>23</v>
-      </c>
-      <c r="C83" s="6" t="s">
-        <v>17</v>
-      </c>
-      <c r="D83" s="6" t="s">
+      <c r="B83" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="C83" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="D83" s="7" t="s">
         <v>403</v>
       </c>
-      <c r="E83" s="6" t="s">
+      <c r="E83" s="7" t="s">
         <v>404</v>
       </c>
-      <c r="F83" s="6" t="s">
+      <c r="F83" s="7" t="s">
         <v>386</v>
       </c>
       <c r="G83" s="2" t="s">
@@ -3650,22 +3666,22 @@
       </c>
     </row>
     <row r="84" spans="1:7">
-      <c r="A84" s="6" t="s">
+      <c r="A84" s="7" t="s">
         <v>406</v>
       </c>
-      <c r="B84" s="6" t="s">
-        <v>18</v>
-      </c>
-      <c r="C84" s="6" t="s">
-        <v>24</v>
-      </c>
-      <c r="D84" s="6" t="s">
+      <c r="B84" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="C84" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="D84" s="7" t="s">
         <v>407</v>
       </c>
-      <c r="E84" s="6" t="s">
+      <c r="E84" s="7" t="s">
         <v>408</v>
       </c>
-      <c r="F84" s="6" t="s">
+      <c r="F84" s="7" t="s">
         <v>386</v>
       </c>
       <c r="G84" s="2" t="s">
@@ -3673,22 +3689,22 @@
       </c>
     </row>
     <row r="85" spans="1:9">
-      <c r="A85" s="6" t="s">
+      <c r="A85" s="7" t="s">
         <v>410</v>
       </c>
-      <c r="B85" s="6" t="s">
-        <v>18</v>
-      </c>
-      <c r="C85" s="6" t="s">
-        <v>24</v>
-      </c>
-      <c r="D85" s="6" t="s">
+      <c r="B85" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="C85" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="D85" s="7" t="s">
         <v>411</v>
       </c>
-      <c r="E85" s="6" t="s">
+      <c r="E85" s="7" t="s">
         <v>412</v>
       </c>
-      <c r="F85" s="6" t="s">
+      <c r="F85" s="7" t="s">
         <v>386</v>
       </c>
       <c r="G85" s="2" t="s">
@@ -3702,22 +3718,22 @@
       </c>
     </row>
     <row r="86" spans="1:7">
-      <c r="A86" s="5" t="s">
+      <c r="A86" s="6" t="s">
         <v>419</v>
       </c>
-      <c r="B86" s="5" t="s">
-        <v>18</v>
-      </c>
-      <c r="C86" s="5" t="s">
-        <v>24</v>
-      </c>
-      <c r="D86" s="5" t="s">
+      <c r="B86" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="C86" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="D86" s="6" t="s">
         <v>420</v>
       </c>
-      <c r="E86" s="5" t="s">
+      <c r="E86" s="6" t="s">
         <v>421</v>
       </c>
-      <c r="F86" s="5" t="s">
+      <c r="F86" s="6" t="s">
         <v>422</v>
       </c>
       <c r="G86" s="2" t="s">
@@ -3725,22 +3741,22 @@
       </c>
     </row>
     <row r="87" spans="1:7">
-      <c r="A87" s="5" t="s">
+      <c r="A87" s="6" t="s">
         <v>424</v>
       </c>
-      <c r="B87" s="5" t="s">
-        <v>18</v>
-      </c>
-      <c r="C87" s="5" t="s">
-        <v>24</v>
-      </c>
-      <c r="D87" s="5" t="s">
+      <c r="B87" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="C87" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="D87" s="6" t="s">
         <v>425</v>
       </c>
-      <c r="E87" s="5" t="s">
+      <c r="E87" s="6" t="s">
         <v>426</v>
       </c>
-      <c r="F87" s="5" t="s">
+      <c r="F87" s="6" t="s">
         <v>422</v>
       </c>
       <c r="G87" s="2" t="s">
@@ -3748,22 +3764,22 @@
       </c>
     </row>
     <row r="88" spans="1:7">
-      <c r="A88" s="5" t="s">
+      <c r="A88" s="6" t="s">
         <v>428</v>
       </c>
-      <c r="B88" s="5" t="s">
-        <v>18</v>
-      </c>
-      <c r="C88" s="5" t="s">
-        <v>24</v>
-      </c>
-      <c r="D88" s="5" t="s">
+      <c r="B88" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="C88" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="D88" s="6" t="s">
         <v>429</v>
       </c>
-      <c r="E88" s="5" t="s">
+      <c r="E88" s="6" t="s">
         <v>430</v>
       </c>
-      <c r="F88" s="5" t="s">
+      <c r="F88" s="6" t="s">
         <v>422</v>
       </c>
       <c r="G88" s="2" t="s">
@@ -3771,22 +3787,22 @@
       </c>
     </row>
     <row r="89" spans="1:7">
-      <c r="A89" s="5" t="s">
+      <c r="A89" s="6" t="s">
         <v>432</v>
       </c>
-      <c r="B89" s="5" t="s">
-        <v>18</v>
-      </c>
-      <c r="C89" s="5" t="s">
-        <v>24</v>
-      </c>
-      <c r="D89" s="5" t="s">
+      <c r="B89" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="C89" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="D89" s="6" t="s">
         <v>433</v>
       </c>
-      <c r="E89" s="5" t="s">
+      <c r="E89" s="6" t="s">
         <v>434</v>
       </c>
-      <c r="F89" s="5" t="s">
+      <c r="F89" s="6" t="s">
         <v>422</v>
       </c>
       <c r="G89" s="2" t="s">
@@ -3794,22 +3810,22 @@
       </c>
     </row>
     <row r="90" spans="1:9">
-      <c r="A90" s="5" t="s">
+      <c r="A90" s="6" t="s">
         <v>436</v>
       </c>
-      <c r="B90" s="5" t="s">
-        <v>23</v>
-      </c>
-      <c r="C90" s="5" t="s">
-        <v>24</v>
-      </c>
-      <c r="D90" s="5" t="s">
+      <c r="B90" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="C90" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="D90" s="6" t="s">
         <v>437</v>
       </c>
-      <c r="E90" s="5" t="s">
+      <c r="E90" s="6" t="s">
         <v>438</v>
       </c>
-      <c r="F90" s="5" t="s">
+      <c r="F90" s="6" t="s">
         <v>422</v>
       </c>
       <c r="G90" s="2" t="s">
@@ -3823,22 +3839,22 @@
       </c>
     </row>
     <row r="91" spans="1:7">
-      <c r="A91" s="6" t="s">
+      <c r="A91" s="7" t="s">
         <v>443</v>
       </c>
-      <c r="B91" s="6" t="s">
-        <v>18</v>
-      </c>
-      <c r="C91" s="6" t="s">
-        <v>17</v>
-      </c>
-      <c r="D91" s="6" t="s">
+      <c r="B91" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="C91" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="D91" s="7" t="s">
         <v>444</v>
       </c>
-      <c r="E91" s="6" t="s">
+      <c r="E91" s="7" t="s">
         <v>445</v>
       </c>
-      <c r="F91" s="6" t="s">
+      <c r="F91" s="7" t="s">
         <v>446</v>
       </c>
       <c r="G91" s="2" t="s">
@@ -3846,22 +3862,22 @@
       </c>
     </row>
     <row r="92" spans="1:7">
-      <c r="A92" s="6" t="s">
+      <c r="A92" s="7" t="s">
         <v>447</v>
       </c>
-      <c r="B92" s="6" t="s">
-        <v>23</v>
-      </c>
-      <c r="C92" s="6" t="s">
-        <v>24</v>
-      </c>
-      <c r="D92" s="6" t="s">
+      <c r="B92" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="C92" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="D92" s="7" t="s">
         <v>448</v>
       </c>
-      <c r="E92" s="6" t="s">
+      <c r="E92" s="7" t="s">
         <v>449</v>
       </c>
-      <c r="F92" s="6" t="s">
+      <c r="F92" s="7" t="s">
         <v>446</v>
       </c>
       <c r="G92" s="2" t="s">
@@ -3869,22 +3885,22 @@
       </c>
     </row>
     <row r="93" spans="1:7">
-      <c r="A93" s="6" t="s">
+      <c r="A93" s="7" t="s">
         <v>451</v>
       </c>
-      <c r="B93" s="6" t="s">
-        <v>18</v>
-      </c>
-      <c r="C93" s="6" t="s">
-        <v>17</v>
-      </c>
-      <c r="D93" s="6" t="s">
+      <c r="B93" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="C93" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="D93" s="7" t="s">
         <v>452</v>
       </c>
-      <c r="E93" s="6" t="s">
+      <c r="E93" s="7" t="s">
         <v>453</v>
       </c>
-      <c r="F93" s="6" t="s">
+      <c r="F93" s="7" t="s">
         <v>446</v>
       </c>
       <c r="G93" s="2" t="s">
@@ -3892,22 +3908,22 @@
       </c>
     </row>
     <row r="94" spans="1:7">
-      <c r="A94" s="6" t="s">
+      <c r="A94" s="7" t="s">
         <v>455</v>
       </c>
-      <c r="B94" s="6" t="s">
-        <v>23</v>
-      </c>
-      <c r="C94" s="6" t="s">
-        <v>17</v>
-      </c>
-      <c r="D94" s="6" t="s">
+      <c r="B94" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="C94" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="D94" s="7" t="s">
         <v>456</v>
       </c>
-      <c r="E94" s="6" t="s">
+      <c r="E94" s="7" t="s">
         <v>457</v>
       </c>
-      <c r="F94" s="6" t="s">
+      <c r="F94" s="7" t="s">
         <v>446</v>
       </c>
       <c r="G94" s="2" t="s">
@@ -3915,22 +3931,22 @@
       </c>
     </row>
     <row r="95" spans="1:7">
-      <c r="A95" s="6" t="s">
+      <c r="A95" s="7" t="s">
         <v>459</v>
       </c>
-      <c r="B95" s="6" t="s">
-        <v>18</v>
-      </c>
-      <c r="C95" s="6" t="s">
-        <v>24</v>
-      </c>
-      <c r="D95" s="6" t="s">
+      <c r="B95" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="C95" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="D95" s="7" t="s">
         <v>460</v>
       </c>
-      <c r="E95" s="6" t="s">
+      <c r="E95" s="7" t="s">
         <v>461</v>
       </c>
-      <c r="F95" s="6" t="s">
+      <c r="F95" s="7" t="s">
         <v>446</v>
       </c>
       <c r="G95" s="2" t="s">
@@ -3938,22 +3954,22 @@
       </c>
     </row>
     <row r="96" spans="1:9">
-      <c r="A96" s="6" t="s">
+      <c r="A96" s="7" t="s">
         <v>463</v>
       </c>
-      <c r="B96" s="6" t="s">
-        <v>23</v>
-      </c>
-      <c r="C96" s="6" t="s">
-        <v>24</v>
-      </c>
-      <c r="D96" s="6" t="s">
+      <c r="B96" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="C96" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="D96" s="7" t="s">
         <v>464</v>
       </c>
-      <c r="E96" s="6" t="s">
+      <c r="E96" s="7" t="s">
         <v>465</v>
       </c>
-      <c r="F96" s="6" t="s">
+      <c r="F96" s="7" t="s">
         <v>446</v>
       </c>
       <c r="G96" s="2" t="s">
@@ -3967,22 +3983,22 @@
       </c>
     </row>
     <row r="97" spans="1:7">
-      <c r="A97" s="5" t="s">
+      <c r="A97" s="6" t="s">
         <v>470</v>
       </c>
-      <c r="B97" s="5" t="s">
-        <v>18</v>
-      </c>
-      <c r="C97" s="5" t="s">
-        <v>17</v>
-      </c>
-      <c r="D97" s="5" t="s">
+      <c r="B97" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="C97" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="D97" s="6" t="s">
         <v>471</v>
       </c>
-      <c r="E97" s="5" t="s">
+      <c r="E97" s="6" t="s">
         <v>296</v>
       </c>
-      <c r="F97" s="5" t="s">
+      <c r="F97" s="6" t="s">
         <v>472</v>
       </c>
       <c r="G97" s="2" t="s">
@@ -3990,22 +4006,22 @@
       </c>
     </row>
     <row r="98" spans="1:7">
-      <c r="A98" s="5" t="s">
+      <c r="A98" s="6" t="s">
         <v>473</v>
       </c>
-      <c r="B98" s="5" t="s">
-        <v>18</v>
-      </c>
-      <c r="C98" s="5" t="s">
-        <v>24</v>
-      </c>
-      <c r="D98" s="5" t="s">
+      <c r="B98" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="C98" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="D98" s="6" t="s">
         <v>474</v>
       </c>
-      <c r="E98" s="5" t="s">
+      <c r="E98" s="6" t="s">
         <v>475</v>
       </c>
-      <c r="F98" s="5" t="s">
+      <c r="F98" s="6" t="s">
         <v>472</v>
       </c>
       <c r="G98" s="2" t="s">
@@ -4013,22 +4029,22 @@
       </c>
     </row>
     <row r="99" spans="1:7">
-      <c r="A99" s="5" t="s">
+      <c r="A99" s="6" t="s">
         <v>477</v>
       </c>
-      <c r="B99" s="5" t="s">
-        <v>18</v>
-      </c>
-      <c r="C99" s="5" t="s">
-        <v>17</v>
-      </c>
-      <c r="D99" s="5" t="s">
+      <c r="B99" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="C99" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="D99" s="6" t="s">
         <v>478</v>
       </c>
-      <c r="E99" s="5" t="s">
+      <c r="E99" s="6" t="s">
         <v>479</v>
       </c>
-      <c r="F99" s="5" t="s">
+      <c r="F99" s="6" t="s">
         <v>472</v>
       </c>
       <c r="G99" s="2" t="s">
@@ -4036,22 +4052,22 @@
       </c>
     </row>
     <row r="100" spans="1:7">
-      <c r="A100" s="5" t="s">
+      <c r="A100" s="6" t="s">
         <v>481</v>
       </c>
-      <c r="B100" s="5" t="s">
-        <v>23</v>
-      </c>
-      <c r="C100" s="5" t="s">
-        <v>24</v>
-      </c>
-      <c r="D100" s="5" t="s">
+      <c r="B100" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="C100" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="D100" s="6" t="s">
         <v>482</v>
       </c>
-      <c r="E100" s="5" t="s">
+      <c r="E100" s="6" t="s">
         <v>483</v>
       </c>
-      <c r="F100" s="5" t="s">
+      <c r="F100" s="6" t="s">
         <v>472</v>
       </c>
       <c r="G100" s="2" t="s">
@@ -4059,22 +4075,22 @@
       </c>
     </row>
     <row r="101" spans="1:7">
-      <c r="A101" s="5" t="s">
+      <c r="A101" s="6" t="s">
         <v>485</v>
       </c>
-      <c r="B101" s="5" t="s">
-        <v>18</v>
-      </c>
-      <c r="C101" s="5" t="s">
-        <v>24</v>
-      </c>
-      <c r="D101" s="5" t="s">
+      <c r="B101" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="C101" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="D101" s="6" t="s">
         <v>486</v>
       </c>
-      <c r="E101" s="5" t="s">
+      <c r="E101" s="6" t="s">
         <v>487</v>
       </c>
-      <c r="F101" s="5" t="s">
+      <c r="F101" s="6" t="s">
         <v>472</v>
       </c>
       <c r="G101" s="2" t="s">
@@ -4082,22 +4098,22 @@
       </c>
     </row>
     <row r="102" spans="1:9">
-      <c r="A102" s="5" t="s">
+      <c r="A102" s="6" t="s">
         <v>489</v>
       </c>
-      <c r="B102" s="5" t="s">
-        <v>18</v>
-      </c>
-      <c r="C102" s="5" t="s">
-        <v>24</v>
-      </c>
-      <c r="D102" s="5" t="s">
+      <c r="B102" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="C102" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="D102" s="6" t="s">
         <v>490</v>
       </c>
-      <c r="E102" s="5" t="s">
+      <c r="E102" s="6" t="s">
         <v>491</v>
       </c>
-      <c r="F102" s="5" t="s">
+      <c r="F102" s="6" t="s">
         <v>472</v>
       </c>
       <c r="G102" s="2" t="s">
@@ -4111,22 +4127,22 @@
       </c>
     </row>
     <row r="103" spans="1:7">
-      <c r="A103" s="6" t="s">
+      <c r="A103" s="7" t="s">
         <v>497</v>
       </c>
-      <c r="B103" s="6" t="s">
-        <v>18</v>
-      </c>
-      <c r="C103" s="6" t="s">
-        <v>17</v>
-      </c>
-      <c r="D103" s="6" t="s">
+      <c r="B103" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="C103" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="D103" s="7" t="s">
         <v>498</v>
       </c>
-      <c r="E103" s="6" t="s">
+      <c r="E103" s="7" t="s">
         <v>499</v>
       </c>
-      <c r="F103" s="6" t="s">
+      <c r="F103" s="7" t="s">
         <v>500</v>
       </c>
       <c r="G103" s="2" t="s">
@@ -4134,22 +4150,22 @@
       </c>
     </row>
     <row r="104" spans="1:7">
-      <c r="A104" s="6" t="s">
+      <c r="A104" s="7" t="s">
         <v>502</v>
       </c>
-      <c r="B104" s="6" t="s">
-        <v>18</v>
-      </c>
-      <c r="C104" s="6" t="s">
-        <v>17</v>
-      </c>
-      <c r="D104" s="6" t="s">
+      <c r="B104" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="C104" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="D104" s="7" t="s">
         <v>503</v>
       </c>
-      <c r="E104" s="6" t="s">
+      <c r="E104" s="7" t="s">
         <v>504</v>
       </c>
-      <c r="F104" s="6" t="s">
+      <c r="F104" s="7" t="s">
         <v>500</v>
       </c>
       <c r="G104" s="2" t="s">
@@ -4157,22 +4173,22 @@
       </c>
     </row>
     <row r="105" spans="1:7">
-      <c r="A105" s="6" t="s">
+      <c r="A105" s="7" t="s">
         <v>506</v>
       </c>
-      <c r="B105" s="6" t="s">
-        <v>23</v>
-      </c>
-      <c r="C105" s="6" t="s">
-        <v>17</v>
-      </c>
-      <c r="D105" s="6" t="s">
+      <c r="B105" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="C105" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="D105" s="7" t="s">
         <v>507</v>
       </c>
-      <c r="E105" s="6" t="s">
+      <c r="E105" s="7" t="s">
         <v>508</v>
       </c>
-      <c r="F105" s="6" t="s">
+      <c r="F105" s="7" t="s">
         <v>500</v>
       </c>
       <c r="G105" s="2" t="s">
@@ -4180,22 +4196,22 @@
       </c>
     </row>
     <row r="106" spans="1:9">
-      <c r="A106" s="6" t="s">
+      <c r="A106" s="7" t="s">
         <v>510</v>
       </c>
-      <c r="B106" s="6" t="s">
-        <v>23</v>
-      </c>
-      <c r="C106" s="6" t="s">
-        <v>24</v>
-      </c>
-      <c r="D106" s="6" t="s">
+      <c r="B106" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="C106" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="D106" s="7" t="s">
         <v>511</v>
       </c>
-      <c r="E106" s="6" t="s">
+      <c r="E106" s="7" t="s">
         <v>512</v>
       </c>
-      <c r="F106" s="6" t="s">
+      <c r="F106" s="7" t="s">
         <v>500</v>
       </c>
       <c r="G106" s="2" t="s">
@@ -4206,6 +4222,20 @@
       </c>
       <c r="I106" s="3" t="s">
         <v>515</v>
+      </c>
+    </row>
+    <row r="108" spans="1:9">
+      <c r="A108" s="3" t="s">
+        <v>519</v>
+      </c>
+      <c r="G108" s="3" t="s">
+        <v>520</v>
+      </c>
+      <c r="H108" s="3" t="s">
+        <v>520</v>
+      </c>
+      <c r="I108" s="3" t="s">
+        <v>521</v>
       </c>
     </row>
   </sheetData>
@@ -4215,7 +4245,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H32"/>
+  <dimension ref="A1:H34"/>
   <sheetViews>
     <sheetView showGridLines="1" workbookViewId="0" rightToLeft="0" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100"/>
   </sheetViews>
@@ -4223,170 +4253,164 @@
   <sheetData>
     <row r="1" spans="1:8">
       <c r="A1" s="1" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>5</v>
       </c>
       <c r="C1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="D1" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="E1" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="F1" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="G1" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="H1" s="1" t="s">
         <v>15</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>16</v>
       </c>
     </row>
     <row r="2" spans="1:8">
       <c r="A2" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="E2" s="4" t="s">
         <v>40</v>
       </c>
-      <c r="B2" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="C2" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="D2" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="E2" s="4" t="s">
+      <c r="H2" s="4" t="s">
         <v>41</v>
       </c>
-      <c r="H2" s="4" t="s">
+    </row>
+    <row r="3" spans="1:5">
+      <c r="A3" s="1" t="s">
         <v>42</v>
       </c>
-    </row>
-    <row r="3" spans="1:8">
-      <c r="A3" s="1" t="s">
+      <c r="B3" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="B3" s="1" t="s">
+      <c r="C3" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="C3" s="1" t="s">
+      <c r="D3" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="E3" s="5" t="s">
         <v>45</v>
       </c>
-      <c r="D3" s="1" t="s">
+    </row>
+    <row r="4" spans="1:5">
+      <c r="A4" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="E4" s="5" t="s">
         <v>45</v>
-      </c>
-      <c r="E3" s="4" t="s">
-        <v>41</v>
-      </c>
-      <c r="H3" s="4" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="4" spans="1:8">
-      <c r="A4" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="B4" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="C4" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="D4" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="E4" s="4" t="s">
-        <v>41</v>
-      </c>
-      <c r="H4" s="4" t="s">
-        <v>46</v>
       </c>
     </row>
     <row r="5" spans="1:5">
       <c r="A5" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="E5" s="2" t="s">
         <v>80</v>
-      </c>
-      <c r="B5" s="1" t="s">
-        <v>52</v>
-      </c>
-      <c r="C5" s="1" t="s">
-        <v>78</v>
-      </c>
-      <c r="D5" s="1" t="s">
-        <v>79</v>
-      </c>
-      <c r="E5" s="2" t="s">
-        <v>81</v>
       </c>
     </row>
     <row r="6" spans="1:8">
       <c r="A6" s="1" t="s">
+        <v>116</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>114</v>
+      </c>
+      <c r="D6" s="1" t="s">
+        <v>115</v>
+      </c>
+      <c r="E6" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="H6" s="4" t="s">
         <v>117</v>
-      </c>
-      <c r="B6" s="1" t="s">
-        <v>85</v>
-      </c>
-      <c r="C6" s="1" t="s">
-        <v>115</v>
-      </c>
-      <c r="D6" s="1" t="s">
-        <v>116</v>
-      </c>
-      <c r="E6" s="4" t="s">
-        <v>41</v>
-      </c>
-      <c r="H6" s="4" t="s">
-        <v>118</v>
       </c>
     </row>
     <row r="7" spans="1:6">
       <c r="A7" s="1" t="s">
+        <v>145</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>121</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>143</v>
+      </c>
+      <c r="D7" s="1" t="s">
+        <v>144</v>
+      </c>
+      <c r="E7" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="F7" s="2" t="s">
         <v>146</v>
-      </c>
-      <c r="B7" s="1" t="s">
-        <v>122</v>
-      </c>
-      <c r="C7" s="1" t="s">
-        <v>144</v>
-      </c>
-      <c r="D7" s="1" t="s">
-        <v>145</v>
-      </c>
-      <c r="E7" s="2" t="s">
-        <v>81</v>
-      </c>
-      <c r="F7" s="2" t="s">
-        <v>147</v>
       </c>
     </row>
     <row r="8" spans="1:8">
       <c r="A8" s="1" t="s">
+        <v>147</v>
+      </c>
+      <c r="B8" s="1" t="s">
         <v>148</v>
       </c>
-      <c r="B8" s="1" t="s">
+      <c r="C8" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="D8" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="E8" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="H8" s="4" t="s">
         <v>149</v>
-      </c>
-      <c r="C8" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="D8" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="E8" s="4" t="s">
-        <v>41</v>
-      </c>
-      <c r="H8" s="4" t="s">
-        <v>46</v>
       </c>
     </row>
     <row r="9" spans="1:6">
       <c r="A9" s="1" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B9" s="1" t="s">
         <v>153</v>
@@ -4398,55 +4422,49 @@
         <v>184</v>
       </c>
       <c r="E9" s="2" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="F9" s="2" t="s">
         <v>185</v>
       </c>
     </row>
-    <row r="10" spans="1:8">
+    <row r="10" spans="1:5">
       <c r="A10" s="1" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B10" s="1" t="s">
         <v>186</v>
       </c>
       <c r="C10" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="D10" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="E10" s="5" t="s">
         <v>45</v>
       </c>
-      <c r="D10" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="E10" s="4" t="s">
-        <v>41</v>
-      </c>
-      <c r="H10" s="4" t="s">
+    </row>
+    <row r="11" spans="1:5">
+      <c r="A11" s="1" t="s">
         <v>46</v>
-      </c>
-    </row>
-    <row r="11" spans="1:8">
-      <c r="A11" s="1" t="s">
-        <v>47</v>
       </c>
       <c r="B11" s="1" t="s">
         <v>187</v>
       </c>
       <c r="C11" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="D11" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="E11" s="5" t="s">
         <v>45</v>
-      </c>
-      <c r="D11" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="E11" s="4" t="s">
-        <v>41</v>
-      </c>
-      <c r="H11" s="4" t="s">
-        <v>46</v>
       </c>
     </row>
     <row r="12" spans="1:8">
       <c r="A12" s="1" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="B12" s="1" t="s">
         <v>191</v>
@@ -4458,7 +4476,7 @@
         <v>221</v>
       </c>
       <c r="E12" s="4" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="H12" s="4" t="s">
         <v>222</v>
@@ -4466,7 +4484,7 @@
     </row>
     <row r="13" spans="1:7">
       <c r="A13" s="1" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="B13" s="1" t="s">
         <v>226</v>
@@ -4486,7 +4504,7 @@
     </row>
     <row r="14" spans="1:6">
       <c r="A14" s="1" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="B14" s="1" t="s">
         <v>254</v>
@@ -4498,7 +4516,7 @@
         <v>289</v>
       </c>
       <c r="E14" s="2" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="F14" s="2" t="s">
         <v>290</v>
@@ -4506,87 +4524,81 @@
     </row>
     <row r="15" spans="1:8">
       <c r="A15" s="1" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="B15" s="1" t="s">
         <v>291</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="D15" s="1" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="E15" s="4" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="H15" s="4" t="s">
-        <v>46</v>
+        <v>149</v>
       </c>
     </row>
     <row r="16" spans="1:8">
       <c r="A16" s="1" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B16" s="1" t="s">
         <v>292</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="D16" s="1" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="E16" s="4" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="H16" s="4" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="17" spans="1:8">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5">
       <c r="A17" s="1" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B17" s="1" t="s">
         <v>293</v>
       </c>
       <c r="C17" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="D17" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="E17" s="5" t="s">
         <v>45</v>
       </c>
-      <c r="D17" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="E17" s="4" t="s">
-        <v>41</v>
-      </c>
-      <c r="H17" s="4" t="s">
+    </row>
+    <row r="18" spans="1:5">
+      <c r="A18" s="1" t="s">
         <v>46</v>
-      </c>
-    </row>
-    <row r="18" spans="1:8">
-      <c r="A18" s="1" t="s">
-        <v>47</v>
       </c>
       <c r="B18" s="1" t="s">
         <v>294</v>
       </c>
       <c r="C18" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="D18" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="E18" s="5" t="s">
         <v>45</v>
-      </c>
-      <c r="D18" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="E18" s="4" t="s">
-        <v>41</v>
-      </c>
-      <c r="H18" s="4" t="s">
-        <v>46</v>
       </c>
     </row>
     <row r="19" spans="1:7">
       <c r="A19" s="1" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="B19" s="1" t="s">
         <v>298</v>
@@ -4606,7 +4618,7 @@
     </row>
     <row r="20" spans="1:8">
       <c r="A20" s="1" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="B20" s="1" t="s">
         <v>334</v>
@@ -4618,7 +4630,7 @@
         <v>352</v>
       </c>
       <c r="E20" s="4" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="H20" s="4" t="s">
         <v>353</v>
@@ -4626,7 +4638,7 @@
     </row>
     <row r="21" spans="1:8">
       <c r="A21" s="1" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="B21" s="1" t="s">
         <v>357</v>
@@ -4638,7 +4650,7 @@
         <v>380</v>
       </c>
       <c r="E21" s="4" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="H21" s="4" t="s">
         <v>381</v>
@@ -4646,27 +4658,27 @@
     </row>
     <row r="22" spans="1:8">
       <c r="A22" s="1" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="B22" s="1" t="s">
         <v>382</v>
       </c>
       <c r="C22" s="1" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="D22" s="1" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="E22" s="4" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="H22" s="4" t="s">
-        <v>46</v>
+        <v>149</v>
       </c>
     </row>
     <row r="23" spans="1:6">
       <c r="A23" s="1" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B23" s="1" t="s">
         <v>386</v>
@@ -4678,55 +4690,49 @@
         <v>415</v>
       </c>
       <c r="E23" s="2" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="F23" s="2" t="s">
         <v>416</v>
       </c>
     </row>
-    <row r="24" spans="1:8">
+    <row r="24" spans="1:5">
       <c r="A24" s="1" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B24" s="1" t="s">
         <v>417</v>
       </c>
       <c r="C24" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="D24" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="E24" s="5" t="s">
         <v>45</v>
       </c>
-      <c r="D24" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="E24" s="4" t="s">
-        <v>41</v>
-      </c>
-      <c r="H24" s="4" t="s">
+    </row>
+    <row r="25" spans="1:5">
+      <c r="A25" s="1" t="s">
         <v>46</v>
-      </c>
-    </row>
-    <row r="25" spans="1:8">
-      <c r="A25" s="1" t="s">
-        <v>47</v>
       </c>
       <c r="B25" s="1" t="s">
         <v>418</v>
       </c>
       <c r="C25" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="D25" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="E25" s="5" t="s">
         <v>45</v>
-      </c>
-      <c r="D25" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="E25" s="4" t="s">
-        <v>41</v>
-      </c>
-      <c r="H25" s="4" t="s">
-        <v>46</v>
       </c>
     </row>
     <row r="26" spans="1:7">
       <c r="A26" s="1" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="B26" s="1" t="s">
         <v>422</v>
@@ -4746,7 +4752,7 @@
     </row>
     <row r="27" spans="1:8">
       <c r="A27" s="1" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="B27" s="1" t="s">
         <v>446</v>
@@ -4758,7 +4764,7 @@
         <v>468</v>
       </c>
       <c r="E27" s="4" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="H27" s="4" t="s">
         <v>469</v>
@@ -4766,7 +4772,7 @@
     </row>
     <row r="28" spans="1:7">
       <c r="A28" s="1" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="B28" s="1" t="s">
         <v>472</v>
@@ -4786,27 +4792,27 @@
     </row>
     <row r="29" spans="1:8">
       <c r="A29" s="1" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="B29" s="1" t="s">
         <v>496</v>
       </c>
       <c r="C29" s="1" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="D29" s="1" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="E29" s="4" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="H29" s="4" t="s">
-        <v>46</v>
+        <v>149</v>
       </c>
     </row>
     <row r="30" spans="1:7">
       <c r="A30" s="1" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B30" s="1" t="s">
         <v>500</v>
@@ -4824,44 +4830,61 @@
         <v>516</v>
       </c>
     </row>
-    <row r="31" spans="1:8">
+    <row r="31" spans="1:5">
       <c r="A31" s="1" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B31" s="1" t="s">
         <v>517</v>
       </c>
       <c r="C31" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="D31" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="E31" s="5" t="s">
         <v>45</v>
       </c>
-      <c r="D31" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="E31" s="4" t="s">
-        <v>41</v>
-      </c>
-      <c r="H31" s="4" t="s">
+    </row>
+    <row r="32" spans="1:5">
+      <c r="A32" s="1" t="s">
         <v>46</v>
-      </c>
-    </row>
-    <row r="32" spans="1:8">
-      <c r="A32" s="1" t="s">
-        <v>47</v>
       </c>
       <c r="B32" s="1" t="s">
         <v>518</v>
       </c>
       <c r="C32" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="D32" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="E32" s="5" t="s">
         <v>45</v>
       </c>
-      <c r="D32" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="E32" s="4" t="s">
-        <v>41</v>
-      </c>
-      <c r="H32" s="4" t="s">
-        <v>46</v>
+    </row>
+    <row r="34" spans="1:8">
+      <c r="A34" s="3" t="s">
+        <v>519</v>
+      </c>
+      <c r="C34" s="3" t="s">
+        <v>520</v>
+      </c>
+      <c r="D34" s="3" t="s">
+        <v>521</v>
+      </c>
+      <c r="E34" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="F34" s="2" t="s">
+        <v>522</v>
+      </c>
+      <c r="G34" s="3" t="s">
+        <v>523</v>
+      </c>
+      <c r="H34" s="3" t="s">
+        <v>524</v>
       </c>
     </row>
   </sheetData>
